--- a/name/vnindex/20230119/VNINDEX_HOSE_5p_20230119.xlsx
+++ b/name/vnindex/20230119/VNINDEX_HOSE_5p_20230119.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1674119700000</v>
+        <v>1674119640000</v>
       </c>
       <c r="B2">
-        <v>7724800</v>
+        <v>2868700</v>
       </c>
       <c r="C2">
-        <v>6701800</v>
+        <v>2719100</v>
       </c>
       <c r="D2">
-        <v>2390000</v>
+        <v>2289000</v>
       </c>
       <c r="E2">
-        <v>127613522000</v>
+        <v>48553066000</v>
       </c>
       <c r="F2">
-        <v>109857914000</v>
+        <v>44513129000</v>
       </c>
       <c r="G2">
-        <v>34487878000</v>
+        <v>32497403000</v>
       </c>
       <c r="H2">
-        <v>16816600</v>
+        <v>7876800</v>
       </c>
       <c r="I2">
-        <v>271959314000</v>
+        <v>125563598000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-01-19T09:15:00.000Z</v>
+        <v>2023-01-19T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>271959314000</v>
+        <v>125563598000</v>
       </c>
       <c r="L2">
-        <v>16816600</v>
+        <v>7876800</v>
       </c>
       <c r="M2">
-        <v>-1023000</v>
+        <v>-149600</v>
       </c>
       <c r="N2">
-        <v>-17755608000</v>
+        <v>-4039937000</v>
       </c>
       <c r="O2">
-        <v>-1023000</v>
+        <v>-149600</v>
       </c>
       <c r="P2">
-        <v>-17755608000</v>
+        <v>-4039937000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1674120000000</v>
+        <v>1674119760000</v>
       </c>
       <c r="B3">
-        <v>4212100</v>
+        <v>2768300</v>
       </c>
       <c r="C3">
-        <v>8172400</v>
+        <v>1976300</v>
       </c>
       <c r="D3">
-        <v>77700</v>
+        <v>49800</v>
       </c>
       <c r="E3">
-        <v>66167848000</v>
+        <v>42743071000</v>
       </c>
       <c r="F3">
-        <v>149466174000</v>
+        <v>29710325000</v>
       </c>
       <c r="G3">
-        <v>829110000</v>
+        <v>941669000</v>
       </c>
       <c r="H3">
-        <v>12462200</v>
+        <v>4794400</v>
       </c>
       <c r="I3">
-        <v>216463132000</v>
+        <v>73395065000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-19T09:20:00.000Z</v>
+        <v>2023-01-19T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>488422446000</v>
+        <v>198958663000</v>
       </c>
       <c r="L3">
-        <v>29278800</v>
+        <v>12671200</v>
       </c>
       <c r="M3">
-        <v>3960300</v>
+        <v>-792000</v>
       </c>
       <c r="N3">
-        <v>83298326000</v>
+        <v>-13032746000</v>
       </c>
       <c r="O3">
-        <v>2937300</v>
+        <v>-941600</v>
       </c>
       <c r="P3">
-        <v>65542718000</v>
+        <v>-17072683000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1674120300000</v>
+        <v>1674119880000</v>
       </c>
       <c r="B4">
-        <v>4143000</v>
+        <v>2087800</v>
       </c>
       <c r="C4">
-        <v>5756100</v>
+        <v>2006400</v>
       </c>
       <c r="D4">
-        <v>58500</v>
+        <v>51200</v>
       </c>
       <c r="E4">
-        <v>67884363000</v>
+        <v>36317385000</v>
       </c>
       <c r="F4">
-        <v>98283292000</v>
+        <v>35634460000</v>
       </c>
       <c r="G4">
-        <v>1019920000</v>
+        <v>1048806000</v>
       </c>
       <c r="H4">
-        <v>9957600</v>
+        <v>4145400</v>
       </c>
       <c r="I4">
-        <v>167187575000</v>
+        <v>73000651000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-19T09:25:00.000Z</v>
+        <v>2023-01-19T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>655610021000</v>
+        <v>271959314000</v>
       </c>
       <c r="L4">
-        <v>39236400</v>
+        <v>16816600</v>
       </c>
       <c r="M4">
-        <v>1613100</v>
+        <v>-81400</v>
       </c>
       <c r="N4">
-        <v>30398929000</v>
+        <v>-682925000</v>
       </c>
       <c r="O4">
-        <v>4550400</v>
+        <v>-1023000</v>
       </c>
       <c r="P4">
-        <v>95941647000</v>
+        <v>-17755608000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1674120600000</v>
+        <v>1674120000000</v>
       </c>
       <c r="B5">
-        <v>3959100</v>
+        <v>1840000</v>
       </c>
       <c r="C5">
-        <v>3685400</v>
+        <v>3576300</v>
       </c>
       <c r="D5">
-        <v>74100</v>
+        <v>23100</v>
       </c>
       <c r="E5">
-        <v>66006240000</v>
+        <v>27527010000</v>
       </c>
       <c r="F5">
-        <v>75980828000</v>
+        <v>64783380000</v>
       </c>
       <c r="G5">
-        <v>1360218000</v>
+        <v>281141000</v>
       </c>
       <c r="H5">
-        <v>7718600</v>
+        <v>5439400</v>
       </c>
       <c r="I5">
-        <v>143347286000</v>
+        <v>92591531000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-19T09:30:00.000Z</v>
+        <v>2023-01-19T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>798957307000</v>
+        <v>364550845000</v>
       </c>
       <c r="L5">
-        <v>46955000</v>
+        <v>22256000</v>
       </c>
       <c r="M5">
-        <v>-273700</v>
+        <v>1736300</v>
       </c>
       <c r="N5">
-        <v>9974588000</v>
+        <v>37256370000</v>
       </c>
       <c r="O5">
-        <v>4276700</v>
+        <v>713300</v>
       </c>
       <c r="P5">
-        <v>105916235000</v>
+        <v>19500762000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1674120900000</v>
+        <v>1674120120000</v>
       </c>
       <c r="B6">
-        <v>2863300</v>
+        <v>1649100</v>
       </c>
       <c r="C6">
-        <v>5311200</v>
+        <v>3155400</v>
       </c>
       <c r="D6">
-        <v>65200</v>
+        <v>20700</v>
       </c>
       <c r="E6">
-        <v>46500080000</v>
+        <v>27103418000</v>
       </c>
       <c r="F6">
-        <v>108113123000</v>
+        <v>58853092000</v>
       </c>
       <c r="G6">
-        <v>1094941000</v>
+        <v>336365000</v>
       </c>
       <c r="H6">
-        <v>8239700</v>
+        <v>4825200</v>
       </c>
       <c r="I6">
-        <v>155708144000</v>
+        <v>86292875000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-19T09:35:00.000Z</v>
+        <v>2023-01-19T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>954665451000</v>
+        <v>450843720000</v>
       </c>
       <c r="L6">
-        <v>55194700</v>
+        <v>27081200</v>
       </c>
       <c r="M6">
-        <v>2447900</v>
+        <v>1506300</v>
       </c>
       <c r="N6">
-        <v>61613043000</v>
+        <v>31749674000</v>
       </c>
       <c r="O6">
-        <v>6724600</v>
+        <v>2219600</v>
       </c>
       <c r="P6">
-        <v>167529278000</v>
+        <v>51250436000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1674121200000</v>
+        <v>1674120240000</v>
       </c>
       <c r="B7">
-        <v>3232100</v>
+        <v>1613700</v>
       </c>
       <c r="C7">
-        <v>9467900</v>
+        <v>3003500</v>
       </c>
       <c r="D7">
-        <v>38400</v>
+        <v>53400</v>
       </c>
       <c r="E7">
-        <v>57795357000</v>
+        <v>27676298000</v>
       </c>
       <c r="F7">
-        <v>170514503000</v>
+        <v>52404223000</v>
       </c>
       <c r="G7">
-        <v>1488430000</v>
+        <v>556848000</v>
       </c>
       <c r="H7">
-        <v>12738400</v>
+        <v>4670600</v>
       </c>
       <c r="I7">
-        <v>229798290000</v>
+        <v>80637369000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-19T09:40:00.000Z</v>
+        <v>2023-01-19T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1184463741000</v>
+        <v>531481089000</v>
       </c>
       <c r="L7">
-        <v>67933100</v>
+        <v>31751800</v>
       </c>
       <c r="M7">
-        <v>6235800</v>
+        <v>1389800</v>
       </c>
       <c r="N7">
-        <v>112719146000</v>
+        <v>24727925000</v>
       </c>
       <c r="O7">
-        <v>12960400</v>
+        <v>3609400</v>
       </c>
       <c r="P7">
-        <v>280248424000</v>
+        <v>75978361000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1674121500000</v>
+        <v>1674120360000</v>
       </c>
       <c r="B8">
-        <v>5474500</v>
+        <v>1881000</v>
       </c>
       <c r="C8">
-        <v>5869100</v>
+        <v>1891300</v>
       </c>
       <c r="D8">
-        <v>41200</v>
+        <v>19000</v>
       </c>
       <c r="E8">
-        <v>88501916000</v>
+        <v>30477437000</v>
       </c>
       <c r="F8">
-        <v>107298308000</v>
+        <v>35053722000</v>
       </c>
       <c r="G8">
-        <v>614182000</v>
+        <v>402123000</v>
       </c>
       <c r="H8">
-        <v>11384800</v>
+        <v>3791300</v>
       </c>
       <c r="I8">
-        <v>196414406000</v>
+        <v>65933282000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-19T09:45:00.000Z</v>
+        <v>2023-01-19T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1380878147000</v>
+        <v>597414371000</v>
       </c>
       <c r="L8">
-        <v>79317900</v>
+        <v>35543100</v>
       </c>
       <c r="M8">
-        <v>394600</v>
+        <v>10300</v>
       </c>
       <c r="N8">
-        <v>18796392000</v>
+        <v>4576285000</v>
       </c>
       <c r="O8">
-        <v>13355000</v>
+        <v>3619700</v>
       </c>
       <c r="P8">
-        <v>299044816000</v>
+        <v>80554646000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1674121800000</v>
+        <v>1674120480000</v>
       </c>
       <c r="B9">
-        <v>4430800</v>
+        <v>1371300</v>
       </c>
       <c r="C9">
-        <v>4373600</v>
+        <v>2302000</v>
       </c>
       <c r="D9">
-        <v>66000</v>
+        <v>20000</v>
       </c>
       <c r="E9">
-        <v>74004935000</v>
+        <v>21268048000</v>
       </c>
       <c r="F9">
-        <v>86393829000</v>
+        <v>36655049000</v>
       </c>
       <c r="G9">
-        <v>853471000</v>
+        <v>272553000</v>
       </c>
       <c r="H9">
-        <v>8870400</v>
+        <v>3693300</v>
       </c>
       <c r="I9">
-        <v>161252235000</v>
+        <v>58195650000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-19T09:50:00.000Z</v>
+        <v>2023-01-19T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1542130382000</v>
+        <v>655610021000</v>
       </c>
       <c r="L9">
-        <v>88188300</v>
+        <v>39236400</v>
       </c>
       <c r="M9">
-        <v>-57200</v>
+        <v>930700</v>
       </c>
       <c r="N9">
-        <v>12388894000</v>
+        <v>15387001000</v>
       </c>
       <c r="O9">
-        <v>13297800</v>
+        <v>4550400</v>
       </c>
       <c r="P9">
-        <v>311433710000</v>
+        <v>95941647000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1674122100000</v>
+        <v>1674120600000</v>
       </c>
       <c r="B10">
-        <v>3966000</v>
+        <v>1281500</v>
       </c>
       <c r="C10">
-        <v>4017300</v>
+        <v>1720800</v>
       </c>
       <c r="D10">
-        <v>44600</v>
+        <v>32100</v>
       </c>
       <c r="E10">
-        <v>73687663000</v>
+        <v>21908981000</v>
       </c>
       <c r="F10">
-        <v>79984138000</v>
+        <v>34241217000</v>
       </c>
       <c r="G10">
-        <v>454599000</v>
+        <v>802687000</v>
       </c>
       <c r="H10">
-        <v>8027900</v>
+        <v>3034400</v>
       </c>
       <c r="I10">
-        <v>154126400000</v>
+        <v>56952885000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-19T09:55:00.000Z</v>
+        <v>2023-01-19T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1696256782000</v>
+        <v>712562906000</v>
       </c>
       <c r="L10">
-        <v>96216200</v>
+        <v>42270800</v>
       </c>
       <c r="M10">
-        <v>51300</v>
+        <v>439300</v>
       </c>
       <c r="N10">
-        <v>6296475000</v>
+        <v>12332236000</v>
       </c>
       <c r="O10">
-        <v>13349100</v>
+        <v>4989700</v>
       </c>
       <c r="P10">
-        <v>317730185000</v>
+        <v>108273883000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1674122400000</v>
+        <v>1674120720000</v>
       </c>
       <c r="B11">
-        <v>3280000</v>
+        <v>1689900</v>
       </c>
       <c r="C11">
-        <v>3766700</v>
+        <v>1375900</v>
       </c>
       <c r="D11">
-        <v>62500</v>
+        <v>35300</v>
       </c>
       <c r="E11">
-        <v>61423072000</v>
+        <v>29062291000</v>
       </c>
       <c r="F11">
-        <v>74965646000</v>
+        <v>29509637000</v>
       </c>
       <c r="G11">
-        <v>760600000</v>
+        <v>430625000</v>
       </c>
       <c r="H11">
-        <v>7109200</v>
+        <v>3101100</v>
       </c>
       <c r="I11">
-        <v>137149318000</v>
+        <v>59002553000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-19T10:00:00.000Z</v>
+        <v>2023-01-19T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1833406100000</v>
+        <v>771565459000</v>
       </c>
       <c r="L11">
-        <v>103325400</v>
+        <v>45371900</v>
       </c>
       <c r="M11">
-        <v>486700</v>
+        <v>-314000</v>
       </c>
       <c r="N11">
-        <v>13542574000</v>
+        <v>447346000</v>
       </c>
       <c r="O11">
-        <v>13835800</v>
+        <v>4675700</v>
       </c>
       <c r="P11">
-        <v>331272759000</v>
+        <v>108721229000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1674122700000</v>
+        <v>1674120840000</v>
       </c>
       <c r="B12">
-        <v>2269500</v>
+        <v>1662900</v>
       </c>
       <c r="C12">
-        <v>5975400</v>
+        <v>1607800</v>
       </c>
       <c r="D12">
-        <v>33600</v>
+        <v>7600</v>
       </c>
       <c r="E12">
-        <v>41206667000</v>
+        <v>24300174000</v>
       </c>
       <c r="F12">
-        <v>113749506000</v>
+        <v>33544332000</v>
       </c>
       <c r="G12">
-        <v>789276000</v>
+        <v>146734000</v>
       </c>
       <c r="H12">
-        <v>8278500</v>
+        <v>3278300</v>
       </c>
       <c r="I12">
-        <v>155745449000</v>
+        <v>57991240000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-19T10:05:00.000Z</v>
+        <v>2023-01-19T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1989151549000</v>
+        <v>829556699000</v>
       </c>
       <c r="L12">
-        <v>111603900</v>
+        <v>48650200</v>
       </c>
       <c r="M12">
-        <v>3705900</v>
+        <v>-55100</v>
       </c>
       <c r="N12">
-        <v>72542839000</v>
+        <v>9244158000</v>
       </c>
       <c r="O12">
-        <v>17541700</v>
+        <v>4620600</v>
       </c>
       <c r="P12">
-        <v>403815598000</v>
+        <v>117965387000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1674123000000</v>
+        <v>1674120960000</v>
       </c>
       <c r="B13">
-        <v>2995900</v>
+        <v>1196800</v>
       </c>
       <c r="C13">
-        <v>8353600</v>
+        <v>1883200</v>
       </c>
       <c r="D13">
-        <v>90500</v>
+        <v>8400</v>
       </c>
       <c r="E13">
-        <v>51719392000</v>
+        <v>19952776000</v>
       </c>
       <c r="F13">
-        <v>150039852000</v>
+        <v>37718333000</v>
       </c>
       <c r="G13">
-        <v>1865897000</v>
+        <v>546917000</v>
       </c>
       <c r="H13">
-        <v>11440000</v>
+        <v>3088400</v>
       </c>
       <c r="I13">
-        <v>203625141000</v>
+        <v>58218026000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-19T10:10:00.000Z</v>
+        <v>2023-01-19T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2192776690000</v>
+        <v>887774725000</v>
       </c>
       <c r="L13">
-        <v>123043900</v>
+        <v>51738600</v>
       </c>
       <c r="M13">
-        <v>5357700</v>
+        <v>686400</v>
       </c>
       <c r="N13">
-        <v>98320460000</v>
+        <v>17765557000</v>
       </c>
       <c r="O13">
-        <v>22899400</v>
+        <v>5307000</v>
       </c>
       <c r="P13">
-        <v>502136058000</v>
+        <v>135730944000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1674123300000</v>
+        <v>1674121080000</v>
       </c>
       <c r="B14">
-        <v>3644200</v>
+        <v>991300</v>
       </c>
       <c r="C14">
-        <v>5756200</v>
+        <v>2408900</v>
       </c>
       <c r="D14">
-        <v>26500</v>
+        <v>55900</v>
       </c>
       <c r="E14">
-        <v>66239307000</v>
+        <v>17282098000</v>
       </c>
       <c r="F14">
-        <v>109726206000</v>
+        <v>49080432000</v>
       </c>
       <c r="G14">
-        <v>397053000</v>
+        <v>528196000</v>
       </c>
       <c r="H14">
-        <v>9426900</v>
+        <v>3456100</v>
       </c>
       <c r="I14">
-        <v>176362566000</v>
+        <v>66890726000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-19T10:15:00.000Z</v>
+        <v>2023-01-19T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>2369139256000</v>
+        <v>954665451000</v>
       </c>
       <c r="L14">
-        <v>132470800</v>
+        <v>55194700</v>
       </c>
       <c r="M14">
-        <v>2112000</v>
+        <v>1417600</v>
       </c>
       <c r="N14">
-        <v>43486899000</v>
+        <v>31798334000</v>
       </c>
       <c r="O14">
-        <v>25011400</v>
+        <v>6724600</v>
       </c>
       <c r="P14">
-        <v>545622957000</v>
+        <v>167529278000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1674123600000</v>
+        <v>1674121200000</v>
       </c>
       <c r="B15">
-        <v>5243800</v>
+        <v>1263600</v>
       </c>
       <c r="C15">
-        <v>3985500</v>
+        <v>3986200</v>
       </c>
       <c r="D15">
-        <v>64500</v>
+        <v>6500</v>
       </c>
       <c r="E15">
-        <v>87475853000</v>
+        <v>19845814000</v>
       </c>
       <c r="F15">
-        <v>85360019000</v>
+        <v>72248595000</v>
       </c>
       <c r="G15">
-        <v>1426857000</v>
+        <v>161585000</v>
       </c>
       <c r="H15">
-        <v>9293800</v>
+        <v>5256300</v>
       </c>
       <c r="I15">
-        <v>174262729000</v>
+        <v>92255994000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-19T10:20:00.000Z</v>
+        <v>2023-01-19T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>2543401985000</v>
+        <v>1046921445000</v>
       </c>
       <c r="L15">
-        <v>141764600</v>
+        <v>60451000</v>
       </c>
       <c r="M15">
-        <v>-1258300</v>
+        <v>2722600</v>
       </c>
       <c r="N15">
-        <v>-2115834000</v>
+        <v>52402781000</v>
       </c>
       <c r="O15">
-        <v>23753100</v>
+        <v>9447200</v>
       </c>
       <c r="P15">
-        <v>543507123000</v>
+        <v>219932059000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1674123900000</v>
+        <v>1674121320000</v>
       </c>
       <c r="B16">
-        <v>3949700</v>
+        <v>1357200</v>
       </c>
       <c r="C16">
-        <v>3927900</v>
+        <v>3555600</v>
       </c>
       <c r="D16">
-        <v>31300</v>
+        <v>25000</v>
       </c>
       <c r="E16">
-        <v>69826650000</v>
+        <v>26469116000</v>
       </c>
       <c r="F16">
-        <v>76364810000</v>
+        <v>63540170000</v>
       </c>
       <c r="G16">
-        <v>536128000</v>
+        <v>1254308000</v>
       </c>
       <c r="H16">
-        <v>7908900</v>
+        <v>4937800</v>
       </c>
       <c r="I16">
-        <v>146727588000</v>
+        <v>91263594000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-19T10:25:00.000Z</v>
+        <v>2023-01-19T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>2690129573000</v>
+        <v>1138185039000</v>
       </c>
       <c r="L16">
-        <v>149673500</v>
+        <v>65388800</v>
       </c>
       <c r="M16">
-        <v>-21800</v>
+        <v>2198400</v>
       </c>
       <c r="N16">
-        <v>6538160000</v>
+        <v>37071054000</v>
       </c>
       <c r="O16">
-        <v>23731300</v>
+        <v>11645600</v>
       </c>
       <c r="P16">
-        <v>550045283000</v>
+        <v>257003113000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1674124200000</v>
+        <v>1674121440000</v>
       </c>
       <c r="B17">
-        <v>5464100</v>
+        <v>1470500</v>
       </c>
       <c r="C17">
-        <v>3118900</v>
+        <v>3540800</v>
       </c>
       <c r="D17">
-        <v>58900</v>
+        <v>28600</v>
       </c>
       <c r="E17">
-        <v>91934793000</v>
+        <v>25697635000</v>
       </c>
       <c r="F17">
-        <v>61113482000</v>
+        <v>63157468000</v>
       </c>
       <c r="G17">
-        <v>1131761000</v>
+        <v>354582000</v>
       </c>
       <c r="H17">
-        <v>8641900</v>
+        <v>5039900</v>
       </c>
       <c r="I17">
-        <v>154180036000</v>
+        <v>89209685000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-19T10:30:00.000Z</v>
+        <v>2023-01-19T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2844309609000</v>
+        <v>1227394724000</v>
       </c>
       <c r="L17">
-        <v>158315400</v>
+        <v>70428700</v>
       </c>
       <c r="M17">
-        <v>-2345200</v>
+        <v>2070300</v>
       </c>
       <c r="N17">
-        <v>-30821311000</v>
+        <v>37459833000</v>
       </c>
       <c r="O17">
-        <v>21386100</v>
+        <v>13715900</v>
       </c>
       <c r="P17">
-        <v>519223972000</v>
+        <v>294462946000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1674124500000</v>
+        <v>1674121560000</v>
       </c>
       <c r="B18">
-        <v>4956000</v>
+        <v>2737000</v>
       </c>
       <c r="C18">
-        <v>3454600</v>
+        <v>2426700</v>
       </c>
       <c r="D18">
-        <v>67500</v>
+        <v>7900</v>
       </c>
       <c r="E18">
-        <v>81411776000</v>
+        <v>43177440000</v>
       </c>
       <c r="F18">
-        <v>74524693000</v>
+        <v>44713367000</v>
       </c>
       <c r="G18">
-        <v>1604579000</v>
+        <v>92608000</v>
       </c>
       <c r="H18">
-        <v>8478100</v>
+        <v>5171600</v>
       </c>
       <c r="I18">
-        <v>157541048000</v>
+        <v>87983415000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-19T10:35:00.000Z</v>
+        <v>2023-01-19T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3001850657000</v>
+        <v>1315378139000</v>
       </c>
       <c r="L18">
-        <v>166793500</v>
+        <v>75600300</v>
       </c>
       <c r="M18">
-        <v>-1501400</v>
+        <v>-310300</v>
       </c>
       <c r="N18">
-        <v>-6887083000</v>
+        <v>1535927000</v>
       </c>
       <c r="O18">
-        <v>19884700</v>
+        <v>13405600</v>
       </c>
       <c r="P18">
-        <v>512336889000</v>
+        <v>295998873000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1674124800000</v>
+        <v>1674121680000</v>
       </c>
       <c r="B19">
-        <v>3359200</v>
+        <v>1878300</v>
       </c>
       <c r="C19">
-        <v>2463800</v>
+        <v>1827700</v>
       </c>
       <c r="D19">
-        <v>20100</v>
+        <v>11600</v>
       </c>
       <c r="E19">
-        <v>53891368000</v>
+        <v>31107268000</v>
       </c>
       <c r="F19">
-        <v>45374195000</v>
+        <v>34153211000</v>
       </c>
       <c r="G19">
-        <v>433766000</v>
+        <v>239529000</v>
       </c>
       <c r="H19">
-        <v>5843100</v>
+        <v>3717600</v>
       </c>
       <c r="I19">
-        <v>99699329000</v>
+        <v>65500008000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-19T10:40:00.000Z</v>
+        <v>2023-01-19T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>3101549986000</v>
+        <v>1380878147000</v>
       </c>
       <c r="L19">
-        <v>172636600</v>
+        <v>79317900</v>
       </c>
       <c r="M19">
-        <v>-895400</v>
+        <v>-50600</v>
       </c>
       <c r="N19">
-        <v>-8517173000</v>
+        <v>3045943000</v>
       </c>
       <c r="O19">
-        <v>18989300</v>
+        <v>13355000</v>
       </c>
       <c r="P19">
-        <v>503819716000</v>
+        <v>299044816000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1674125100000</v>
+        <v>1674121800000</v>
       </c>
       <c r="B20">
-        <v>4668500</v>
+        <v>2224100</v>
       </c>
       <c r="C20">
-        <v>2052900</v>
+        <v>1731700</v>
       </c>
       <c r="D20">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E20">
-        <v>82684339000</v>
+        <v>34874163000</v>
       </c>
       <c r="F20">
-        <v>39682041000</v>
+        <v>31763279000</v>
       </c>
       <c r="G20">
-        <v>133766000</v>
+        <v>64969000</v>
       </c>
       <c r="H20">
-        <v>6725800</v>
+        <v>3960100</v>
       </c>
       <c r="I20">
-        <v>122500146000</v>
+        <v>66702411000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-19T10:45:00.000Z</v>
+        <v>2023-01-19T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>3224050132000</v>
+        <v>1447580558000</v>
       </c>
       <c r="L20">
-        <v>179362400</v>
+        <v>83278000</v>
       </c>
       <c r="M20">
-        <v>-2615600</v>
+        <v>-492400</v>
       </c>
       <c r="N20">
-        <v>-43002298000</v>
+        <v>-3110884000</v>
       </c>
       <c r="O20">
-        <v>16373700</v>
+        <v>12862600</v>
       </c>
       <c r="P20">
-        <v>460817418000</v>
+        <v>295933932000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1674125400000</v>
+        <v>1674121920000</v>
       </c>
       <c r="B21">
-        <v>3149500</v>
+        <v>1469500</v>
       </c>
       <c r="C21">
-        <v>3346600</v>
+        <v>1891200</v>
       </c>
       <c r="D21">
-        <v>41900</v>
+        <v>57800</v>
       </c>
       <c r="E21">
-        <v>51889274000</v>
+        <v>25663989000</v>
       </c>
       <c r="F21">
-        <v>67383851000</v>
+        <v>37615200000</v>
       </c>
       <c r="G21">
-        <v>715159000</v>
+        <v>703482000</v>
       </c>
       <c r="H21">
-        <v>6538000</v>
+        <v>3418500</v>
       </c>
       <c r="I21">
-        <v>119988284000</v>
+        <v>63982671000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-19T10:50:00.000Z</v>
+        <v>2023-01-19T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>3344038416000</v>
+        <v>1511563229000</v>
       </c>
       <c r="L21">
-        <v>185900400</v>
+        <v>86696500</v>
       </c>
       <c r="M21">
-        <v>197100</v>
+        <v>421700</v>
       </c>
       <c r="N21">
-        <v>15494577000</v>
+        <v>11951211000</v>
       </c>
       <c r="O21">
-        <v>16570800</v>
+        <v>13284300</v>
       </c>
       <c r="P21">
-        <v>476311995000</v>
+        <v>307885143000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1674125700000</v>
+        <v>1674122040000</v>
       </c>
       <c r="B22">
-        <v>2948100</v>
+        <v>1594000</v>
       </c>
       <c r="C22">
-        <v>2613500</v>
+        <v>1447100</v>
       </c>
       <c r="D22">
-        <v>93900</v>
+        <v>4600</v>
       </c>
       <c r="E22">
-        <v>54068269000</v>
+        <v>30128207000</v>
       </c>
       <c r="F22">
-        <v>49927049000</v>
+        <v>30054094000</v>
       </c>
       <c r="G22">
-        <v>3284713000</v>
+        <v>101047000</v>
       </c>
       <c r="H22">
-        <v>5655500</v>
+        <v>3045700</v>
       </c>
       <c r="I22">
-        <v>107280031000</v>
+        <v>60283348000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-19T10:55:00.000Z</v>
+        <v>2023-01-19T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>3451318447000</v>
+        <v>1571846577000</v>
       </c>
       <c r="L22">
-        <v>191555900</v>
+        <v>89742200</v>
       </c>
       <c r="M22">
-        <v>-334600</v>
+        <v>-146900</v>
       </c>
       <c r="N22">
-        <v>-4141220000</v>
+        <v>-74113000</v>
       </c>
       <c r="O22">
-        <v>16236200</v>
+        <v>13137400</v>
       </c>
       <c r="P22">
-        <v>472170775000</v>
+        <v>307811030000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1674126000000</v>
+        <v>1674122160000</v>
       </c>
       <c r="B23">
-        <v>8353400</v>
+        <v>1692500</v>
       </c>
       <c r="C23">
-        <v>2073700</v>
+        <v>1522300</v>
       </c>
       <c r="D23">
-        <v>62300</v>
+        <v>37800</v>
       </c>
       <c r="E23">
-        <v>144585132000</v>
+        <v>29589487000</v>
       </c>
       <c r="F23">
-        <v>44764306000</v>
+        <v>28015498000</v>
       </c>
       <c r="G23">
-        <v>1403622000</v>
+        <v>254629000</v>
       </c>
       <c r="H23">
-        <v>10489400</v>
+        <v>3252600</v>
       </c>
       <c r="I23">
-        <v>190753060000</v>
+        <v>57859614000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-19T11:00:00.000Z</v>
+        <v>2023-01-19T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>3642071507000</v>
+        <v>1629706191000</v>
       </c>
       <c r="L23">
-        <v>202045300</v>
+        <v>92994800</v>
       </c>
       <c r="M23">
-        <v>-6279700</v>
+        <v>-170200</v>
       </c>
       <c r="N23">
-        <v>-99820826000</v>
+        <v>-1573989000</v>
       </c>
       <c r="O23">
-        <v>9956500</v>
+        <v>12967200</v>
       </c>
       <c r="P23">
-        <v>372349949000</v>
+        <v>306237041000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1674126300000</v>
+        <v>1674122280000</v>
       </c>
       <c r="B24">
-        <v>10438800</v>
+        <v>1416700</v>
       </c>
       <c r="C24">
-        <v>2250600</v>
+        <v>1798600</v>
       </c>
       <c r="D24">
-        <v>31200</v>
+        <v>6100</v>
       </c>
       <c r="E24">
-        <v>171597890000</v>
+        <v>27436752000</v>
       </c>
       <c r="F24">
-        <v>42957697000</v>
+        <v>38929896000</v>
       </c>
       <c r="G24">
-        <v>371742000</v>
+        <v>183943000</v>
       </c>
       <c r="H24">
-        <v>12720600</v>
+        <v>3221400</v>
       </c>
       <c r="I24">
-        <v>214927329000</v>
+        <v>66550591000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-19T11:05:00.000Z</v>
+        <v>2023-01-19T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>3856998836000</v>
+        <v>1696256782000</v>
       </c>
       <c r="L24">
-        <v>214765900</v>
+        <v>96216200</v>
       </c>
       <c r="M24">
-        <v>-8188200</v>
+        <v>381900</v>
       </c>
       <c r="N24">
-        <v>-128640193000</v>
+        <v>11493144000</v>
       </c>
       <c r="O24">
-        <v>1768300</v>
+        <v>13349100</v>
       </c>
       <c r="P24">
-        <v>243709756000</v>
+        <v>317730185000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1674126600000</v>
+        <v>1674122400000</v>
       </c>
       <c r="B25">
-        <v>5102400</v>
+        <v>936100</v>
       </c>
       <c r="C25">
-        <v>4435900</v>
+        <v>1649900</v>
       </c>
       <c r="D25">
-        <v>60800</v>
+        <v>34600</v>
       </c>
       <c r="E25">
-        <v>83244195000</v>
+        <v>18174812000</v>
       </c>
       <c r="F25">
-        <v>91992394000</v>
+        <v>31835341000</v>
       </c>
       <c r="G25">
-        <v>1290328000</v>
+        <v>343670000</v>
       </c>
       <c r="H25">
-        <v>9599100</v>
+        <v>2620600</v>
       </c>
       <c r="I25">
-        <v>176526917000</v>
+        <v>50353823000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-19T11:10:00.000Z</v>
+        <v>2023-01-19T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>4033525753000</v>
+        <v>1746610605000</v>
       </c>
       <c r="L25">
-        <v>224365000</v>
+        <v>98836800</v>
       </c>
       <c r="M25">
-        <v>-666500</v>
+        <v>713800</v>
       </c>
       <c r="N25">
-        <v>8748199000</v>
+        <v>13660529000</v>
       </c>
       <c r="O25">
-        <v>1101800</v>
+        <v>14062900</v>
       </c>
       <c r="P25">
-        <v>252457955000</v>
+        <v>331390714000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1674126900000</v>
+        <v>1674122520000</v>
       </c>
       <c r="B26">
-        <v>2260700</v>
+        <v>1510500</v>
       </c>
       <c r="C26">
-        <v>3047700</v>
+        <v>1320400</v>
       </c>
       <c r="D26">
-        <v>9200</v>
+        <v>21700</v>
       </c>
       <c r="E26">
-        <v>44064527000</v>
+        <v>28154789000</v>
       </c>
       <c r="F26">
-        <v>51136754000</v>
+        <v>27329127000</v>
       </c>
       <c r="G26">
-        <v>71923000</v>
+        <v>340235000</v>
       </c>
       <c r="H26">
-        <v>5317600</v>
+        <v>2852600</v>
       </c>
       <c r="I26">
-        <v>95273204000</v>
+        <v>55824151000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-19T11:15:00.000Z</v>
+        <v>2023-01-19T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>4128798957000</v>
+        <v>1802434756000</v>
       </c>
       <c r="L26">
-        <v>229682600</v>
+        <v>101689400</v>
       </c>
       <c r="M26">
-        <v>787000</v>
+        <v>-190100</v>
       </c>
       <c r="N26">
-        <v>7072227000</v>
+        <v>-825662000</v>
       </c>
       <c r="O26">
-        <v>1888800</v>
+        <v>13872800</v>
       </c>
       <c r="P26">
-        <v>259530182000</v>
+        <v>330565052000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1674127200000</v>
+        <v>1674122640000</v>
       </c>
       <c r="B27">
-        <v>3423400</v>
+        <v>1191700</v>
       </c>
       <c r="C27">
-        <v>1449900</v>
+        <v>1943800</v>
       </c>
       <c r="D27">
-        <v>94500</v>
+        <v>20600</v>
       </c>
       <c r="E27">
-        <v>66654102000</v>
+        <v>24256049000</v>
       </c>
       <c r="F27">
-        <v>28076651000</v>
+        <v>41014717000</v>
       </c>
       <c r="G27">
-        <v>742241000</v>
+        <v>522345000</v>
       </c>
       <c r="H27">
-        <v>4967800</v>
+        <v>3156100</v>
       </c>
       <c r="I27">
-        <v>95472994000</v>
+        <v>65793111000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-19T11:20:00.000Z</v>
+        <v>2023-01-19T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>4224271951000</v>
+        <v>1868227867000</v>
       </c>
       <c r="L27">
-        <v>234650400</v>
+        <v>104845500</v>
       </c>
       <c r="M27">
-        <v>-1973500</v>
+        <v>752100</v>
       </c>
       <c r="N27">
-        <v>-38577451000</v>
+        <v>16758668000</v>
       </c>
       <c r="O27">
-        <v>-84700</v>
+        <v>14624900</v>
       </c>
       <c r="P27">
-        <v>220952731000</v>
+        <v>347323720000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1674127500000</v>
+        <v>1674122760000</v>
       </c>
       <c r="B28">
-        <v>4833500</v>
+        <v>803600</v>
       </c>
       <c r="C28">
-        <v>1740700</v>
+        <v>1818000</v>
       </c>
       <c r="D28">
-        <v>29800</v>
+        <v>11700</v>
       </c>
       <c r="E28">
-        <v>78505325000</v>
+        <v>13534270000</v>
       </c>
       <c r="F28">
-        <v>34819254000</v>
+        <v>32880718000</v>
       </c>
       <c r="G28">
-        <v>612288000</v>
+        <v>119251000</v>
       </c>
       <c r="H28">
-        <v>6604000</v>
+        <v>2633300</v>
       </c>
       <c r="I28">
-        <v>113936867000</v>
+        <v>46534239000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-19T11:25:00.000Z</v>
+        <v>2023-01-19T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>4338208818000</v>
+        <v>1914762106000</v>
       </c>
       <c r="L28">
-        <v>241254400</v>
+        <v>107478800</v>
       </c>
       <c r="M28">
-        <v>-3092800</v>
+        <v>1014400</v>
       </c>
       <c r="N28">
-        <v>-43686071000</v>
+        <v>19346448000</v>
       </c>
       <c r="O28">
-        <v>-3177500</v>
+        <v>15639300</v>
       </c>
       <c r="P28">
-        <v>177266660000</v>
+        <v>366670168000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1674127800000</v>
+        <v>1674122880000</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1107600</v>
       </c>
       <c r="C29">
-        <v>900</v>
+        <v>3010000</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>18509819000</v>
       </c>
       <c r="F29">
-        <v>25245000</v>
+        <v>55655249000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>224375000</v>
       </c>
       <c r="H29">
-        <v>900</v>
+        <v>4125100</v>
       </c>
       <c r="I29">
-        <v>25245000</v>
+        <v>74389443000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-19T11:30:00.000Z</v>
+        <v>2023-01-19T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>4338234063000</v>
+        <v>1989151549000</v>
       </c>
       <c r="L29">
-        <v>241255300</v>
+        <v>111603900</v>
       </c>
       <c r="M29">
-        <v>900</v>
+        <v>1902400</v>
       </c>
       <c r="N29">
-        <v>25245000</v>
+        <v>37145430000</v>
       </c>
       <c r="O29">
-        <v>-3176600</v>
+        <v>17541700</v>
       </c>
       <c r="P29">
-        <v>177291905000</v>
+        <v>403815598000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1674133200000</v>
+        <v>1674123000000</v>
       </c>
       <c r="B30">
-        <v>13143200</v>
+        <v>1137300</v>
       </c>
       <c r="C30">
-        <v>6399500</v>
+        <v>3884900</v>
       </c>
       <c r="D30">
-        <v>281700</v>
+        <v>59600</v>
       </c>
       <c r="E30">
-        <v>228055578000</v>
+        <v>18679805000</v>
       </c>
       <c r="F30">
-        <v>113025879000</v>
+        <v>65900082000</v>
       </c>
       <c r="G30">
-        <v>4894162000</v>
+        <v>983170000</v>
       </c>
       <c r="H30">
-        <v>19824400</v>
+        <v>5081800</v>
       </c>
       <c r="I30">
-        <v>345975619000</v>
+        <v>85563057000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-19T13:00:00.000Z</v>
+        <v>2023-01-19T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>4684209682000</v>
+        <v>2074714606000</v>
       </c>
       <c r="L30">
-        <v>261079700</v>
+        <v>116685700</v>
       </c>
       <c r="M30">
-        <v>-6743700</v>
+        <v>2747600</v>
       </c>
       <c r="N30">
-        <v>-115029699000</v>
+        <v>47220277000</v>
       </c>
       <c r="O30">
-        <v>-9920300</v>
+        <v>20289300</v>
       </c>
       <c r="P30">
-        <v>62262206000</v>
+        <v>451035875000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1674133500000</v>
+        <v>1674123120000</v>
       </c>
       <c r="B31">
-        <v>4488800</v>
+        <v>1162300</v>
       </c>
       <c r="C31">
-        <v>6110300</v>
+        <v>3028100</v>
       </c>
       <c r="D31">
-        <v>132600</v>
+        <v>30100</v>
       </c>
       <c r="E31">
-        <v>78789169000</v>
+        <v>21643116000</v>
       </c>
       <c r="F31">
-        <v>110539632000</v>
+        <v>57458935000</v>
       </c>
       <c r="G31">
-        <v>2065884000</v>
+        <v>859214000</v>
       </c>
       <c r="H31">
-        <v>10731700</v>
+        <v>4220500</v>
       </c>
       <c r="I31">
-        <v>191394685000</v>
+        <v>79961265000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-19T13:05:00.000Z</v>
+        <v>2023-01-19T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>4875604367000</v>
+        <v>2154675871000</v>
       </c>
       <c r="L31">
-        <v>271811400</v>
+        <v>120906200</v>
       </c>
       <c r="M31">
-        <v>1621500</v>
+        <v>1865800</v>
       </c>
       <c r="N31">
-        <v>31750463000</v>
+        <v>35815819000</v>
       </c>
       <c r="O31">
-        <v>-8298800</v>
+        <v>22155100</v>
       </c>
       <c r="P31">
-        <v>94012669000</v>
+        <v>486851694000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1674133800000</v>
+        <v>1674123240000</v>
       </c>
       <c r="B32">
-        <v>3780400</v>
+        <v>1309400</v>
       </c>
       <c r="C32">
-        <v>4957700</v>
+        <v>2456300</v>
       </c>
       <c r="D32">
-        <v>60800</v>
+        <v>1400</v>
       </c>
       <c r="E32">
-        <v>65372936000</v>
+        <v>21846732000</v>
       </c>
       <c r="F32">
-        <v>102896943000</v>
+        <v>45460148000</v>
       </c>
       <c r="G32">
-        <v>1223511000</v>
+        <v>32003000</v>
       </c>
       <c r="H32">
-        <v>8798900</v>
+        <v>3767100</v>
       </c>
       <c r="I32">
-        <v>169493390000</v>
+        <v>67338883000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-19T13:10:00.000Z</v>
+        <v>2023-01-19T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>5045097757000</v>
+        <v>2222014754000</v>
       </c>
       <c r="L32">
-        <v>280610300</v>
+        <v>124673300</v>
       </c>
       <c r="M32">
-        <v>1177300</v>
+        <v>1146900</v>
       </c>
       <c r="N32">
-        <v>37524007000</v>
+        <v>23613416000</v>
       </c>
       <c r="O32">
-        <v>-7121500</v>
+        <v>23302000</v>
       </c>
       <c r="P32">
-        <v>131536676000</v>
+        <v>510465110000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1674134100000</v>
+        <v>1674123360000</v>
       </c>
       <c r="B33">
-        <v>3252400</v>
+        <v>1317400</v>
       </c>
       <c r="C33">
-        <v>6799200</v>
+        <v>2576300</v>
       </c>
       <c r="D33">
-        <v>31600</v>
+        <v>13400</v>
       </c>
       <c r="E33">
-        <v>54772510000</v>
+        <v>25171434000</v>
       </c>
       <c r="F33">
-        <v>123109036000</v>
+        <v>52505098000</v>
       </c>
       <c r="G33">
-        <v>1095426000</v>
+        <v>280752000</v>
       </c>
       <c r="H33">
-        <v>10083200</v>
+        <v>3907100</v>
       </c>
       <c r="I33">
-        <v>178976972000</v>
+        <v>77957284000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-19T13:15:00.000Z</v>
+        <v>2023-01-19T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>5224074729000</v>
+        <v>2299972038000</v>
       </c>
       <c r="L33">
-        <v>290693500</v>
+        <v>128580400</v>
       </c>
       <c r="M33">
-        <v>3546800</v>
+        <v>1258900</v>
       </c>
       <c r="N33">
-        <v>68336526000</v>
+        <v>27333664000</v>
       </c>
       <c r="O33">
-        <v>-3574700</v>
+        <v>24560900</v>
       </c>
       <c r="P33">
-        <v>199873202000</v>
+        <v>537798774000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1674134400000</v>
+        <v>1674123480000</v>
       </c>
       <c r="B34">
-        <v>4580900</v>
+        <v>1713700</v>
       </c>
       <c r="C34">
-        <v>3448200</v>
+        <v>2164200</v>
       </c>
       <c r="D34">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="E34">
-        <v>80787214000</v>
+        <v>30617612000</v>
       </c>
       <c r="F34">
-        <v>68718960000</v>
+        <v>38441795000</v>
       </c>
       <c r="G34">
-        <v>215812000</v>
+        <v>107811000</v>
       </c>
       <c r="H34">
-        <v>8046100</v>
+        <v>3890400</v>
       </c>
       <c r="I34">
-        <v>149721986000</v>
+        <v>69167218000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-19T13:20:00.000Z</v>
+        <v>2023-01-19T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>5373796715000</v>
+        <v>2369139256000</v>
       </c>
       <c r="L34">
-        <v>298739600</v>
+        <v>132470800</v>
       </c>
       <c r="M34">
-        <v>-1132700</v>
+        <v>450500</v>
       </c>
       <c r="N34">
-        <v>-12068254000</v>
+        <v>7824183000</v>
       </c>
       <c r="O34">
-        <v>-4707400</v>
+        <v>25011400</v>
       </c>
       <c r="P34">
-        <v>187804948000</v>
+        <v>545622957000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1674134700000</v>
+        <v>1674123600000</v>
       </c>
       <c r="B35">
-        <v>6667300</v>
+        <v>2752600</v>
       </c>
       <c r="C35">
-        <v>3785000</v>
+        <v>1618100</v>
       </c>
       <c r="D35">
-        <v>58800</v>
+        <v>13700</v>
       </c>
       <c r="E35">
-        <v>114754014000</v>
+        <v>45819271000</v>
       </c>
       <c r="F35">
-        <v>72984617000</v>
+        <v>31416316000</v>
       </c>
       <c r="G35">
-        <v>1010411000</v>
+        <v>153194000</v>
       </c>
       <c r="H35">
-        <v>10511100</v>
+        <v>4384400</v>
       </c>
       <c r="I35">
-        <v>188749042000</v>
+        <v>77388781000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-19T13:25:00.000Z</v>
+        <v>2023-01-19T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>5562545757000</v>
+        <v>2446528037000</v>
       </c>
       <c r="L35">
-        <v>309250700</v>
+        <v>136855200</v>
       </c>
       <c r="M35">
-        <v>-2882300</v>
+        <v>-1134500</v>
       </c>
       <c r="N35">
-        <v>-41769397000</v>
+        <v>-14402955000</v>
       </c>
       <c r="O35">
-        <v>-7589700</v>
+        <v>23876900</v>
       </c>
       <c r="P35">
-        <v>146035551000</v>
+        <v>531220002000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1674135000000</v>
+        <v>1674123720000</v>
       </c>
       <c r="B36">
-        <v>3965100</v>
+        <v>1710100</v>
       </c>
       <c r="C36">
-        <v>5020000</v>
+        <v>1579600</v>
       </c>
       <c r="D36">
-        <v>25100</v>
+        <v>15200</v>
       </c>
       <c r="E36">
-        <v>73094480000</v>
+        <v>28951129000</v>
       </c>
       <c r="F36">
-        <v>99770832000</v>
+        <v>36872350000</v>
       </c>
       <c r="G36">
-        <v>420567000</v>
+        <v>510897000</v>
       </c>
       <c r="H36">
-        <v>9010200</v>
+        <v>3304900</v>
       </c>
       <c r="I36">
-        <v>173285879000</v>
+        <v>66334376000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-19T13:30:00.000Z</v>
+        <v>2023-01-19T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>5735831636000</v>
+        <v>2512862413000</v>
       </c>
       <c r="L36">
-        <v>318260900</v>
+        <v>140160100</v>
       </c>
       <c r="M36">
-        <v>1054900</v>
+        <v>-130500</v>
       </c>
       <c r="N36">
-        <v>26676352000</v>
+        <v>7921221000</v>
       </c>
       <c r="O36">
-        <v>-6534800</v>
+        <v>23746400</v>
       </c>
       <c r="P36">
-        <v>172711903000</v>
+        <v>539141223000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1674135300000</v>
+        <v>1674123840000</v>
       </c>
       <c r="B37">
-        <v>4000800</v>
+        <v>1725600</v>
       </c>
       <c r="C37">
-        <v>6871200</v>
+        <v>1501800</v>
       </c>
       <c r="D37">
-        <v>39400</v>
+        <v>41300</v>
       </c>
       <c r="E37">
-        <v>65596979000</v>
+        <v>28655655000</v>
       </c>
       <c r="F37">
-        <v>124623320000</v>
+        <v>30413638000</v>
       </c>
       <c r="G37">
-        <v>562765000</v>
+        <v>818309000</v>
       </c>
       <c r="H37">
-        <v>10911400</v>
+        <v>3268700</v>
       </c>
       <c r="I37">
-        <v>190783064000</v>
+        <v>59887602000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-19T13:35:00.000Z</v>
+        <v>2023-01-19T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>5926614700000</v>
+        <v>2572750015000</v>
       </c>
       <c r="L37">
-        <v>329172300</v>
+        <v>143428800</v>
       </c>
       <c r="M37">
-        <v>2870400</v>
+        <v>-223800</v>
       </c>
       <c r="N37">
-        <v>59026341000</v>
+        <v>1757983000</v>
       </c>
       <c r="O37">
-        <v>-3664400</v>
+        <v>23522600</v>
       </c>
       <c r="P37">
-        <v>231738244000</v>
+        <v>540899206000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1674135600000</v>
+        <v>1674123960000</v>
       </c>
       <c r="B38">
-        <v>5869900</v>
+        <v>1359700</v>
       </c>
       <c r="C38">
-        <v>6691200</v>
+        <v>1707100</v>
       </c>
       <c r="D38">
-        <v>57900</v>
+        <v>10700</v>
       </c>
       <c r="E38">
-        <v>113839056000</v>
+        <v>24173618000</v>
       </c>
       <c r="F38">
-        <v>106675927000</v>
+        <v>35915786000</v>
       </c>
       <c r="G38">
-        <v>1101766000</v>
+        <v>151075000</v>
       </c>
       <c r="H38">
-        <v>12619000</v>
+        <v>3077500</v>
       </c>
       <c r="I38">
-        <v>221616749000</v>
+        <v>60240479000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-19T13:40:00.000Z</v>
+        <v>2023-01-19T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>6148231449000</v>
+        <v>2632990494000</v>
       </c>
       <c r="L38">
-        <v>341791300</v>
+        <v>146506300</v>
       </c>
       <c r="M38">
-        <v>821300</v>
+        <v>347400</v>
       </c>
       <c r="N38">
-        <v>-7163129000</v>
+        <v>11742168000</v>
       </c>
       <c r="O38">
-        <v>-2843100</v>
+        <v>23870000</v>
       </c>
       <c r="P38">
-        <v>224575115000</v>
+        <v>552641374000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1674135900000</v>
+        <v>1674124080000</v>
       </c>
       <c r="B39">
-        <v>14426800</v>
+        <v>1645500</v>
       </c>
       <c r="C39">
-        <v>4931000</v>
+        <v>1506800</v>
       </c>
       <c r="D39">
-        <v>52100</v>
+        <v>14900</v>
       </c>
       <c r="E39">
-        <v>253120977000</v>
+        <v>29702830000</v>
       </c>
       <c r="F39">
-        <v>92503553000</v>
+        <v>27106739000</v>
       </c>
       <c r="G39">
-        <v>838537000</v>
+        <v>329510000</v>
       </c>
       <c r="H39">
-        <v>19409900</v>
+        <v>3167200</v>
       </c>
       <c r="I39">
-        <v>346463067000</v>
+        <v>57139079000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-19T13:45:00.000Z</v>
+        <v>2023-01-19T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>6494694516000</v>
+        <v>2690129573000</v>
       </c>
       <c r="L39">
-        <v>361201200</v>
+        <v>149673500</v>
       </c>
       <c r="M39">
-        <v>-9495800</v>
+        <v>-138700</v>
       </c>
       <c r="N39">
-        <v>-160617424000</v>
+        <v>-2596091000</v>
       </c>
       <c r="O39">
-        <v>-12338900</v>
+        <v>23731300</v>
       </c>
       <c r="P39">
-        <v>63957691000</v>
+        <v>550045283000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1674136200000</v>
+        <v>1674124200000</v>
       </c>
       <c r="B40">
-        <v>5428600</v>
+        <v>1945500</v>
       </c>
       <c r="C40">
-        <v>6442100</v>
+        <v>1188900</v>
       </c>
       <c r="D40">
-        <v>36000</v>
+        <v>29700</v>
       </c>
       <c r="E40">
-        <v>91172037000</v>
+        <v>35751355000</v>
       </c>
       <c r="F40">
-        <v>117226231000</v>
+        <v>24355124000</v>
       </c>
       <c r="G40">
-        <v>533151000</v>
+        <v>423080000</v>
       </c>
       <c r="H40">
-        <v>11906700</v>
+        <v>3164100</v>
       </c>
       <c r="I40">
-        <v>208931419000</v>
+        <v>60529559000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-19T13:50:00.000Z</v>
+        <v>2023-01-19T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>6703625935000</v>
+        <v>2750659132000</v>
       </c>
       <c r="L40">
-        <v>373107900</v>
+        <v>152837600</v>
       </c>
       <c r="M40">
-        <v>1013500</v>
+        <v>-756600</v>
       </c>
       <c r="N40">
-        <v>26054194000</v>
+        <v>-11396231000</v>
       </c>
       <c r="O40">
-        <v>-11325400</v>
+        <v>22974700</v>
       </c>
       <c r="P40">
-        <v>90011885000</v>
+        <v>538649052000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1674136500000</v>
+        <v>1674124320000</v>
       </c>
       <c r="B41">
-        <v>3672200</v>
+        <v>2243500</v>
       </c>
       <c r="C41">
-        <v>5089700</v>
+        <v>1294200</v>
       </c>
       <c r="D41">
-        <v>21100</v>
+        <v>28000</v>
       </c>
       <c r="E41">
-        <v>62513293000</v>
+        <v>36540875000</v>
       </c>
       <c r="F41">
-        <v>96555347000</v>
+        <v>23881178000</v>
       </c>
       <c r="G41">
-        <v>220245000</v>
+        <v>687587000</v>
       </c>
       <c r="H41">
-        <v>8783000</v>
+        <v>3565700</v>
       </c>
       <c r="I41">
-        <v>159288885000</v>
+        <v>61109640000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-19T13:55:00.000Z</v>
+        <v>2023-01-19T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>6862914820000</v>
+        <v>2811768772000</v>
       </c>
       <c r="L41">
-        <v>381890900</v>
+        <v>156403300</v>
       </c>
       <c r="M41">
-        <v>1417500</v>
+        <v>-949300</v>
       </c>
       <c r="N41">
-        <v>34042054000</v>
+        <v>-12659697000</v>
       </c>
       <c r="O41">
-        <v>-9907900</v>
+        <v>22025400</v>
       </c>
       <c r="P41">
-        <v>124053939000</v>
+        <v>525989355000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1674136800000</v>
+        <v>1674124440000</v>
       </c>
       <c r="B42">
-        <v>4122000</v>
+        <v>3110200</v>
       </c>
       <c r="C42">
-        <v>6905900</v>
+        <v>1169100</v>
       </c>
       <c r="D42">
-        <v>34000</v>
+        <v>23900</v>
       </c>
       <c r="E42">
-        <v>73072018000</v>
+        <v>52983202000</v>
       </c>
       <c r="F42">
-        <v>124449197000</v>
+        <v>22789307000</v>
       </c>
       <c r="G42">
-        <v>1204529000</v>
+        <v>471663000</v>
       </c>
       <c r="H42">
-        <v>11061900</v>
+        <v>4303200</v>
       </c>
       <c r="I42">
-        <v>198725744000</v>
+        <v>76244172000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-19T14:00:00.000Z</v>
+        <v>2023-01-19T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>7061640564000</v>
+        <v>2888012944000</v>
       </c>
       <c r="L42">
-        <v>392952800</v>
+        <v>160706500</v>
       </c>
       <c r="M42">
-        <v>2783900</v>
+        <v>-1941100</v>
       </c>
       <c r="N42">
-        <v>51377179000</v>
+        <v>-30193895000</v>
       </c>
       <c r="O42">
-        <v>-7124000</v>
+        <v>20084300</v>
       </c>
       <c r="P42">
-        <v>175431118000</v>
+        <v>495795460000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1674137100000</v>
+        <v>1674124560000</v>
       </c>
       <c r="B43">
-        <v>12987300</v>
+        <v>1703400</v>
       </c>
       <c r="C43">
-        <v>4327200</v>
+        <v>1623600</v>
       </c>
       <c r="D43">
-        <v>200000</v>
+        <v>37900</v>
       </c>
       <c r="E43">
-        <v>257650829000</v>
+        <v>28335032000</v>
       </c>
       <c r="F43">
-        <v>87376230000</v>
+        <v>33273622000</v>
       </c>
       <c r="G43">
-        <v>3680988000</v>
+        <v>966115000</v>
       </c>
       <c r="H43">
-        <v>17514500</v>
+        <v>3364900</v>
       </c>
       <c r="I43">
-        <v>348708047000</v>
+        <v>62574769000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-19T14:05:00.000Z</v>
+        <v>2023-01-19T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>7410348611000</v>
+        <v>2950587713000</v>
       </c>
       <c r="L43">
-        <v>410467300</v>
+        <v>164071400</v>
       </c>
       <c r="M43">
-        <v>-8660100</v>
+        <v>-79800</v>
       </c>
       <c r="N43">
-        <v>-170274599000</v>
+        <v>4938590000</v>
       </c>
       <c r="O43">
-        <v>-15784100</v>
+        <v>20004500</v>
       </c>
       <c r="P43">
-        <v>5156519000</v>
+        <v>500734050000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1674137400000</v>
+        <v>1674124680000</v>
       </c>
       <c r="B44">
-        <v>10460900</v>
+        <v>1417500</v>
       </c>
       <c r="C44">
-        <v>8667700</v>
+        <v>1297700</v>
       </c>
       <c r="D44">
-        <v>137200</v>
+        <v>6900</v>
       </c>
       <c r="E44">
-        <v>206357733000</v>
+        <v>19736105000</v>
       </c>
       <c r="F44">
-        <v>198167358000</v>
+        <v>31338944000</v>
       </c>
       <c r="G44">
-        <v>3597339000</v>
+        <v>187895000</v>
       </c>
       <c r="H44">
-        <v>19265800</v>
+        <v>2722100</v>
       </c>
       <c r="I44">
-        <v>408122430000</v>
+        <v>51262944000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-19T14:10:00.000Z</v>
+        <v>2023-01-19T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>7818471041000</v>
+        <v>3001850657000</v>
       </c>
       <c r="L44">
-        <v>429733100</v>
+        <v>166793500</v>
       </c>
       <c r="M44">
-        <v>-1793200</v>
+        <v>-119800</v>
       </c>
       <c r="N44">
-        <v>-8190375000</v>
+        <v>11602839000</v>
       </c>
       <c r="O44">
-        <v>-17577300</v>
+        <v>19884700</v>
       </c>
       <c r="P44">
-        <v>-3033856000</v>
+        <v>512336889000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1674137700000</v>
+        <v>1674124800000</v>
       </c>
       <c r="B45">
-        <v>8173400</v>
+        <v>1244100</v>
       </c>
       <c r="C45">
-        <v>19882500</v>
+        <v>1004800</v>
       </c>
       <c r="D45">
-        <v>153300</v>
+        <v>15000</v>
       </c>
       <c r="E45">
-        <v>215189593000</v>
+        <v>19156930000</v>
       </c>
       <c r="F45">
-        <v>453187814000</v>
+        <v>18592272000</v>
       </c>
       <c r="G45">
-        <v>5296812000</v>
+        <v>365676000</v>
       </c>
       <c r="H45">
-        <v>28209200</v>
+        <v>2263900</v>
       </c>
       <c r="I45">
-        <v>673674219000</v>
+        <v>38114878000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-19T14:15:00.000Z</v>
+        <v>2023-01-19T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>8492145260000</v>
+        <v>3039965535000</v>
       </c>
       <c r="L45">
-        <v>457942300</v>
+        <v>169057400</v>
       </c>
       <c r="M45">
-        <v>11709100</v>
+        <v>-239300</v>
       </c>
       <c r="N45">
-        <v>237998221000</v>
+        <v>-564658000</v>
       </c>
       <c r="O45">
-        <v>-5868200</v>
+        <v>19645400</v>
       </c>
       <c r="P45">
-        <v>234964365000</v>
+        <v>511772231000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1674138000000</v>
+        <v>1674124920000</v>
       </c>
       <c r="B46">
-        <v>11214700</v>
+        <v>1631200</v>
       </c>
       <c r="C46">
-        <v>14727000</v>
+        <v>983200</v>
       </c>
       <c r="D46">
-        <v>140300</v>
+        <v>4200</v>
       </c>
       <c r="E46">
-        <v>265633854000</v>
+        <v>25727241000</v>
       </c>
       <c r="F46">
-        <v>336376369000</v>
+        <v>18366862000</v>
       </c>
       <c r="G46">
-        <v>3638921000</v>
+        <v>59099000</v>
       </c>
       <c r="H46">
-        <v>26082000</v>
+        <v>2618600</v>
       </c>
       <c r="I46">
-        <v>605649144000</v>
+        <v>44153202000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-19T14:20:00.000Z</v>
+        <v>2023-01-19T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>9097794404000</v>
+        <v>3084118737000</v>
       </c>
       <c r="L46">
-        <v>484024300</v>
+        <v>171676000</v>
       </c>
       <c r="M46">
-        <v>3512300</v>
+        <v>-648000</v>
       </c>
       <c r="N46">
-        <v>70742515000</v>
+        <v>-7360379000</v>
       </c>
       <c r="O46">
-        <v>-2355900</v>
+        <v>18997400</v>
       </c>
       <c r="P46">
-        <v>305706880000</v>
+        <v>504411852000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1674138300000</v>
+        <v>1674125040000</v>
       </c>
       <c r="B47">
-        <v>14748200</v>
+        <v>1381100</v>
       </c>
       <c r="C47">
-        <v>15727000</v>
+        <v>799000</v>
       </c>
       <c r="D47">
-        <v>182900</v>
+        <v>900</v>
       </c>
       <c r="E47">
-        <v>305393687000</v>
+        <v>25763630000</v>
       </c>
       <c r="F47">
-        <v>337652790000</v>
+        <v>14350161000</v>
       </c>
       <c r="G47">
-        <v>3555534000</v>
+        <v>8991000</v>
       </c>
       <c r="H47">
-        <v>30658100</v>
+        <v>2181000</v>
       </c>
       <c r="I47">
-        <v>646602011000</v>
+        <v>40122782000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-19T14:25:00.000Z</v>
+        <v>2023-01-19T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>9744396415000</v>
+        <v>3124241519000</v>
       </c>
       <c r="L47">
-        <v>514682400</v>
+        <v>173857000</v>
       </c>
       <c r="M47">
-        <v>978800</v>
+        <v>-582100</v>
       </c>
       <c r="N47">
-        <v>32259103000</v>
+        <v>-11413469000</v>
       </c>
       <c r="O47">
-        <v>-1377100</v>
+        <v>18415300</v>
       </c>
       <c r="P47">
-        <v>337965983000</v>
+        <v>492998383000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1674138600000</v>
+        <v>1674125160000</v>
       </c>
       <c r="B48">
-        <v>4000</v>
+        <v>1540400</v>
       </c>
       <c r="C48">
-        <v>44100</v>
+        <v>916700</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E48">
-        <v>72570000</v>
+        <v>26189094000</v>
       </c>
       <c r="F48">
-        <v>908955000</v>
+        <v>17941069000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>46599000</v>
       </c>
       <c r="H48">
-        <v>48100</v>
+        <v>2458900</v>
       </c>
       <c r="I48">
-        <v>981525000</v>
+        <v>44176762000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-19T14:30:00.000Z</v>
+        <v>2023-01-19T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>9745377940000</v>
+        <v>3168418281000</v>
       </c>
       <c r="L48">
-        <v>514730500</v>
+        <v>176315900</v>
       </c>
       <c r="M48">
-        <v>40100</v>
+        <v>-623700</v>
       </c>
       <c r="N48">
-        <v>836385000</v>
+        <v>-8248025000</v>
       </c>
       <c r="O48">
-        <v>-1337000</v>
+        <v>17791600</v>
       </c>
       <c r="P48">
-        <v>338802368000</v>
+        <v>484750358000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1674139500000</v>
+        <v>1674125280000</v>
       </c>
       <c r="B49">
+        <v>2230900</v>
+      </c>
+      <c r="C49">
+        <v>813000</v>
+      </c>
+      <c r="D49">
+        <v>2600</v>
+      </c>
+      <c r="E49">
+        <v>39738812000</v>
+      </c>
+      <c r="F49">
+        <v>15805872000</v>
+      </c>
+      <c r="G49">
+        <v>87167000</v>
+      </c>
+      <c r="H49">
+        <v>3046500</v>
+      </c>
+      <c r="I49">
+        <v>55631851000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-01-19T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>3224050132000</v>
+      </c>
+      <c r="L49">
+        <v>179362400</v>
+      </c>
+      <c r="M49">
+        <v>-1417900</v>
+      </c>
+      <c r="N49">
+        <v>-23932940000</v>
+      </c>
+      <c r="O49">
+        <v>16373700</v>
+      </c>
+      <c r="P49">
+        <v>460817418000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1674125400000</v>
+      </c>
+      <c r="B50">
+        <v>1415600</v>
+      </c>
+      <c r="C50">
+        <v>1130200</v>
+      </c>
+      <c r="D50">
+        <v>1600</v>
+      </c>
+      <c r="E50">
+        <v>23173098000</v>
+      </c>
+      <c r="F50">
+        <v>24369715000</v>
+      </c>
+      <c r="G50">
+        <v>12908000</v>
+      </c>
+      <c r="H50">
+        <v>2547400</v>
+      </c>
+      <c r="I50">
+        <v>47555721000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-01-19T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>3271605853000</v>
+      </c>
+      <c r="L50">
+        <v>181909800</v>
+      </c>
+      <c r="M50">
+        <v>-285400</v>
+      </c>
+      <c r="N50">
+        <v>1196617000</v>
+      </c>
+      <c r="O50">
+        <v>16088300</v>
+      </c>
+      <c r="P50">
+        <v>462014035000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1674125520000</v>
+      </c>
+      <c r="B51">
+        <v>1107300</v>
+      </c>
+      <c r="C51">
+        <v>855400</v>
+      </c>
+      <c r="D51">
+        <v>31700</v>
+      </c>
+      <c r="E51">
+        <v>18652891000</v>
+      </c>
+      <c r="F51">
+        <v>15714714000</v>
+      </c>
+      <c r="G51">
+        <v>504840999.99999994</v>
+      </c>
+      <c r="H51">
+        <v>1994400</v>
+      </c>
+      <c r="I51">
+        <v>34872446000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-01-19T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>3306478299000</v>
+      </c>
+      <c r="L51">
+        <v>183904200</v>
+      </c>
+      <c r="M51">
+        <v>-251900</v>
+      </c>
+      <c r="N51">
+        <v>-2938177000</v>
+      </c>
+      <c r="O51">
+        <v>15836400</v>
+      </c>
+      <c r="P51">
+        <v>459075858000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1674125640000</v>
+      </c>
+      <c r="B52">
+        <v>1026100</v>
+      </c>
+      <c r="C52">
+        <v>1977800</v>
+      </c>
+      <c r="D52">
+        <v>10100</v>
+      </c>
+      <c r="E52">
+        <v>17257094000</v>
+      </c>
+      <c r="F52">
+        <v>38851687000</v>
+      </c>
+      <c r="G52">
+        <v>205749000</v>
+      </c>
+      <c r="H52">
+        <v>3014000</v>
+      </c>
+      <c r="I52">
+        <v>56314530000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-01-19T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>3362792829000</v>
+      </c>
+      <c r="L52">
+        <v>186918200</v>
+      </c>
+      <c r="M52">
+        <v>951700</v>
+      </c>
+      <c r="N52">
+        <v>21594593000</v>
+      </c>
+      <c r="O52">
+        <v>16788100</v>
+      </c>
+      <c r="P52">
+        <v>480670451000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1674125760000</v>
+      </c>
+      <c r="B53">
+        <v>1350200</v>
+      </c>
+      <c r="C53">
+        <v>1258600</v>
+      </c>
+      <c r="D53">
+        <v>7100</v>
+      </c>
+      <c r="E53">
+        <v>24762131000</v>
+      </c>
+      <c r="F53">
+        <v>23324118000</v>
+      </c>
+      <c r="G53">
+        <v>154489000</v>
+      </c>
+      <c r="H53">
+        <v>2615900</v>
+      </c>
+      <c r="I53">
+        <v>48240738000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-01-19T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>3411033567000</v>
+      </c>
+      <c r="L53">
+        <v>189534100</v>
+      </c>
+      <c r="M53">
+        <v>-91600</v>
+      </c>
+      <c r="N53">
+        <v>-1438013000</v>
+      </c>
+      <c r="O53">
+        <v>16696500</v>
+      </c>
+      <c r="P53">
+        <v>479232438000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1674125880000</v>
+      </c>
+      <c r="B54">
+        <v>1198400</v>
+      </c>
+      <c r="C54">
+        <v>738100</v>
+      </c>
+      <c r="D54">
+        <v>85300</v>
+      </c>
+      <c r="E54">
+        <v>22112329000</v>
+      </c>
+      <c r="F54">
+        <v>15050666000</v>
+      </c>
+      <c r="G54">
+        <v>3121885000</v>
+      </c>
+      <c r="H54">
+        <v>2021800</v>
+      </c>
+      <c r="I54">
+        <v>40284880000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-19T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>3451318447000</v>
+      </c>
+      <c r="L54">
+        <v>191555900</v>
+      </c>
+      <c r="M54">
+        <v>-460300</v>
+      </c>
+      <c r="N54">
+        <v>-7061663000</v>
+      </c>
+      <c r="O54">
+        <v>16236200</v>
+      </c>
+      <c r="P54">
+        <v>472170775000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1674126000000</v>
+      </c>
+      <c r="B55">
+        <v>3032600</v>
+      </c>
+      <c r="C55">
+        <v>961300</v>
+      </c>
+      <c r="D55">
+        <v>13600</v>
+      </c>
+      <c r="E55">
+        <v>54805025000</v>
+      </c>
+      <c r="F55">
+        <v>21467636000</v>
+      </c>
+      <c r="G55">
+        <v>610640000</v>
+      </c>
+      <c r="H55">
+        <v>4007500</v>
+      </c>
+      <c r="I55">
+        <v>76883301000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-19T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>3528201748000</v>
+      </c>
+      <c r="L55">
+        <v>195563400</v>
+      </c>
+      <c r="M55">
+        <v>-2071300</v>
+      </c>
+      <c r="N55">
+        <v>-33337389000</v>
+      </c>
+      <c r="O55">
+        <v>14164900</v>
+      </c>
+      <c r="P55">
+        <v>438833386000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1674126120000</v>
+      </c>
+      <c r="B56">
+        <v>2891800</v>
+      </c>
+      <c r="C56">
+        <v>751000</v>
+      </c>
+      <c r="D56">
+        <v>30700</v>
+      </c>
+      <c r="E56">
+        <v>46603813000</v>
+      </c>
+      <c r="F56">
+        <v>15655225000</v>
+      </c>
+      <c r="G56">
+        <v>297824000</v>
+      </c>
+      <c r="H56">
+        <v>3673500</v>
+      </c>
+      <c r="I56">
+        <v>62556862000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-19T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>3590758610000</v>
+      </c>
+      <c r="L56">
+        <v>199236900</v>
+      </c>
+      <c r="M56">
+        <v>-2140800</v>
+      </c>
+      <c r="N56">
+        <v>-30948588000</v>
+      </c>
+      <c r="O56">
+        <v>12024100</v>
+      </c>
+      <c r="P56">
+        <v>407884798000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1674126240000</v>
+      </c>
+      <c r="B57">
+        <v>4340200</v>
+      </c>
+      <c r="C57">
+        <v>625000</v>
+      </c>
+      <c r="D57">
+        <v>18000</v>
+      </c>
+      <c r="E57">
+        <v>74716380000</v>
+      </c>
+      <c r="F57">
+        <v>12690252000</v>
+      </c>
+      <c r="G57">
+        <v>495158000</v>
+      </c>
+      <c r="H57">
+        <v>4983200</v>
+      </c>
+      <c r="I57">
+        <v>87901790000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-19T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>3678660400000</v>
+      </c>
+      <c r="L57">
+        <v>204220100</v>
+      </c>
+      <c r="M57">
+        <v>-3715200</v>
+      </c>
+      <c r="N57">
+        <v>-62026128000</v>
+      </c>
+      <c r="O57">
+        <v>8308900</v>
+      </c>
+      <c r="P57">
+        <v>345858670000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1674126360000</v>
+      </c>
+      <c r="B58">
+        <v>5321200</v>
+      </c>
+      <c r="C58">
+        <v>954200</v>
+      </c>
+      <c r="D58">
+        <v>1900</v>
+      </c>
+      <c r="E58">
+        <v>88885008000</v>
+      </c>
+      <c r="F58">
+        <v>16804182000</v>
+      </c>
+      <c r="G58">
+        <v>31184000</v>
+      </c>
+      <c r="H58">
+        <v>6277300</v>
+      </c>
+      <c r="I58">
+        <v>105720374000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-19T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>3784380774000</v>
+      </c>
+      <c r="L58">
+        <v>210497400</v>
+      </c>
+      <c r="M58">
+        <v>-4367000</v>
+      </c>
+      <c r="N58">
+        <v>-72080826000</v>
+      </c>
+      <c r="O58">
+        <v>3941900</v>
+      </c>
+      <c r="P58">
+        <v>273777844000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1674126480000</v>
+      </c>
+      <c r="B59">
+        <v>3206400</v>
+      </c>
+      <c r="C59">
+        <v>1032800</v>
+      </c>
+      <c r="D59">
+        <v>29300</v>
+      </c>
+      <c r="E59">
+        <v>51172796000</v>
+      </c>
+      <c r="F59">
+        <v>21104708000</v>
+      </c>
+      <c r="G59">
+        <v>340558000</v>
+      </c>
+      <c r="H59">
+        <v>4268500</v>
+      </c>
+      <c r="I59">
+        <v>72618062000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-19T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>3856998836000</v>
+      </c>
+      <c r="L59">
+        <v>214765900</v>
+      </c>
+      <c r="M59">
+        <v>-2173600</v>
+      </c>
+      <c r="N59">
+        <v>-30068088000</v>
+      </c>
+      <c r="O59">
+        <v>1768300</v>
+      </c>
+      <c r="P59">
+        <v>243709756000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1674126600000</v>
+      </c>
+      <c r="B60">
+        <v>2681800</v>
+      </c>
+      <c r="C60">
+        <v>1188200</v>
+      </c>
+      <c r="D60">
+        <v>1900</v>
+      </c>
+      <c r="E60">
+        <v>42710476000</v>
+      </c>
+      <c r="F60">
+        <v>23631918000</v>
+      </c>
+      <c r="G60">
+        <v>9791000</v>
+      </c>
+      <c r="H60">
+        <v>3871900</v>
+      </c>
+      <c r="I60">
+        <v>66352185000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-19T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>3923351021000</v>
+      </c>
+      <c r="L60">
+        <v>218637800</v>
+      </c>
+      <c r="M60">
+        <v>-1493600</v>
+      </c>
+      <c r="N60">
+        <v>-19078558000</v>
+      </c>
+      <c r="O60">
+        <v>274700</v>
+      </c>
+      <c r="P60">
+        <v>224631198000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1674126720000</v>
+      </c>
+      <c r="B61">
+        <v>1667700</v>
+      </c>
+      <c r="C61">
+        <v>2173200</v>
+      </c>
+      <c r="D61">
+        <v>55000</v>
+      </c>
+      <c r="E61">
+        <v>27769711000</v>
+      </c>
+      <c r="F61">
+        <v>48933625000</v>
+      </c>
+      <c r="G61">
+        <v>1215892000</v>
+      </c>
+      <c r="H61">
+        <v>3895900</v>
+      </c>
+      <c r="I61">
+        <v>77919228000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-19T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>4001270249000</v>
+      </c>
+      <c r="L61">
+        <v>222533700</v>
+      </c>
+      <c r="M61">
+        <v>505500</v>
+      </c>
+      <c r="N61">
+        <v>21163914000</v>
+      </c>
+      <c r="O61">
+        <v>780200</v>
+      </c>
+      <c r="P61">
+        <v>245795112000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1674126840000</v>
+      </c>
+      <c r="B62">
+        <v>1166800</v>
+      </c>
+      <c r="C62">
+        <v>1819100</v>
+      </c>
+      <c r="D62">
+        <v>3900</v>
+      </c>
+      <c r="E62">
+        <v>21036667000</v>
+      </c>
+      <c r="F62">
+        <v>31167356000</v>
+      </c>
+      <c r="G62">
+        <v>64645000</v>
+      </c>
+      <c r="H62">
+        <v>2989800</v>
+      </c>
+      <c r="I62">
+        <v>52268668000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-19T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>4053538917000</v>
+      </c>
+      <c r="L62">
+        <v>225523500</v>
+      </c>
+      <c r="M62">
+        <v>652300</v>
+      </c>
+      <c r="N62">
+        <v>10130689000</v>
+      </c>
+      <c r="O62">
+        <v>1432500</v>
+      </c>
+      <c r="P62">
+        <v>255925801000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1674126960000</v>
+      </c>
+      <c r="B63">
+        <v>824500</v>
+      </c>
+      <c r="C63">
+        <v>1488300</v>
+      </c>
+      <c r="D63">
+        <v>4200</v>
+      </c>
+      <c r="E63">
+        <v>17541724000</v>
+      </c>
+      <c r="F63">
+        <v>22469812000</v>
+      </c>
+      <c r="G63">
+        <v>40447000</v>
+      </c>
+      <c r="H63">
+        <v>2317000</v>
+      </c>
+      <c r="I63">
+        <v>40051983000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-19T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>4093590900000</v>
+      </c>
+      <c r="L63">
+        <v>227840500</v>
+      </c>
+      <c r="M63">
+        <v>663800</v>
+      </c>
+      <c r="N63">
+        <v>4928088000</v>
+      </c>
+      <c r="O63">
+        <v>2096300</v>
+      </c>
+      <c r="P63">
+        <v>260853889000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1674127080000</v>
+      </c>
+      <c r="B64">
+        <v>1022300</v>
+      </c>
+      <c r="C64">
+        <v>814800</v>
+      </c>
+      <c r="D64">
+        <v>5000</v>
+      </c>
+      <c r="E64">
+        <v>18250144000</v>
+      </c>
+      <c r="F64">
+        <v>16926437000</v>
+      </c>
+      <c r="G64">
+        <v>31476000</v>
+      </c>
+      <c r="H64">
+        <v>1842100</v>
+      </c>
+      <c r="I64">
+        <v>35208057000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-19T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>4128798957000</v>
+      </c>
+      <c r="L64">
+        <v>229682600</v>
+      </c>
+      <c r="M64">
+        <v>-207500</v>
+      </c>
+      <c r="N64">
+        <v>-1323707000</v>
+      </c>
+      <c r="O64">
+        <v>1888800</v>
+      </c>
+      <c r="P64">
+        <v>259530182000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1674127200000</v>
+      </c>
+      <c r="B65">
+        <v>1154600</v>
+      </c>
+      <c r="C65">
+        <v>644900</v>
+      </c>
+      <c r="D65">
+        <v>3000</v>
+      </c>
+      <c r="E65">
+        <v>21779498000</v>
+      </c>
+      <c r="F65">
+        <v>14576770000</v>
+      </c>
+      <c r="G65">
+        <v>38257000</v>
+      </c>
+      <c r="H65">
+        <v>1802500</v>
+      </c>
+      <c r="I65">
+        <v>36394525000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-19T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>4165193482000</v>
+      </c>
+      <c r="L65">
+        <v>231485100</v>
+      </c>
+      <c r="M65">
+        <v>-509700</v>
+      </c>
+      <c r="N65">
+        <v>-7202728000</v>
+      </c>
+      <c r="O65">
+        <v>1379100</v>
+      </c>
+      <c r="P65">
+        <v>252327454000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1674127320000</v>
+      </c>
+      <c r="B66">
+        <v>1374700</v>
+      </c>
+      <c r="C66">
+        <v>517200</v>
+      </c>
+      <c r="D66">
+        <v>22600</v>
+      </c>
+      <c r="E66">
+        <v>26989877000</v>
+      </c>
+      <c r="F66">
+        <v>8293369000</v>
+      </c>
+      <c r="G66">
+        <v>327750000</v>
+      </c>
+      <c r="H66">
+        <v>1914500</v>
+      </c>
+      <c r="I66">
+        <v>35610996000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-19T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>4200804478000</v>
+      </c>
+      <c r="L66">
+        <v>233399600</v>
+      </c>
+      <c r="M66">
+        <v>-857500</v>
+      </c>
+      <c r="N66">
+        <v>-18696508000</v>
+      </c>
+      <c r="O66">
+        <v>521600</v>
+      </c>
+      <c r="P66">
+        <v>233630946000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1674127440000</v>
+      </c>
+      <c r="B67">
+        <v>1829800</v>
+      </c>
+      <c r="C67">
+        <v>601300</v>
+      </c>
+      <c r="D67">
+        <v>72600</v>
+      </c>
+      <c r="E67">
+        <v>33989737000</v>
+      </c>
+      <c r="F67">
+        <v>11199937000</v>
+      </c>
+      <c r="G67">
+        <v>432542000</v>
+      </c>
+      <c r="H67">
+        <v>2503700</v>
+      </c>
+      <c r="I67">
+        <v>45622216000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-19T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>4246426694000</v>
+      </c>
+      <c r="L67">
+        <v>235903300</v>
+      </c>
+      <c r="M67">
+        <v>-1228500</v>
+      </c>
+      <c r="N67">
+        <v>-22789800000</v>
+      </c>
+      <c r="O67">
+        <v>-706900</v>
+      </c>
+      <c r="P67">
+        <v>210841146000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1674127560000</v>
+      </c>
+      <c r="B68">
+        <v>2088600</v>
+      </c>
+      <c r="C68">
+        <v>628700</v>
+      </c>
+      <c r="D68">
+        <v>7900</v>
+      </c>
+      <c r="E68">
+        <v>38443571000</v>
+      </c>
+      <c r="F68">
+        <v>12990088000</v>
+      </c>
+      <c r="G68">
+        <v>276540000</v>
+      </c>
+      <c r="H68">
+        <v>2725200</v>
+      </c>
+      <c r="I68">
+        <v>51710199000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-19T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>4298136893000</v>
+      </c>
+      <c r="L68">
+        <v>238628500</v>
+      </c>
+      <c r="M68">
+        <v>-1459900</v>
+      </c>
+      <c r="N68">
+        <v>-25453483000</v>
+      </c>
+      <c r="O68">
+        <v>-2166800</v>
+      </c>
+      <c r="P68">
+        <v>185387663000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1674127680000</v>
+      </c>
+      <c r="B69">
+        <v>1809200</v>
+      </c>
+      <c r="C69">
+        <v>798500</v>
+      </c>
+      <c r="D69">
+        <v>18200</v>
+      </c>
+      <c r="E69">
+        <v>23956744000</v>
+      </c>
+      <c r="F69">
+        <v>15835741000</v>
+      </c>
+      <c r="G69">
+        <v>279440000</v>
+      </c>
+      <c r="H69">
+        <v>2625900</v>
+      </c>
+      <c r="I69">
+        <v>40071925000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-19T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>4338208818000</v>
+      </c>
+      <c r="L69">
+        <v>241254400</v>
+      </c>
+      <c r="M69">
+        <v>-1010700</v>
+      </c>
+      <c r="N69">
+        <v>-8121003000</v>
+      </c>
+      <c r="O69">
+        <v>-3177500</v>
+      </c>
+      <c r="P69">
+        <v>177266660000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1674127800000</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>900</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>25245000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>900</v>
+      </c>
+      <c r="I70">
+        <v>25245000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-19T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>4338234063000</v>
+      </c>
+      <c r="L70">
+        <v>241255300</v>
+      </c>
+      <c r="M70">
+        <v>900</v>
+      </c>
+      <c r="N70">
+        <v>25245000</v>
+      </c>
+      <c r="O70">
+        <v>-3176600</v>
+      </c>
+      <c r="P70">
+        <v>177291905000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1674133200000</v>
+      </c>
+      <c r="B71">
+        <v>8537300</v>
+      </c>
+      <c r="C71">
+        <v>3720400</v>
+      </c>
+      <c r="D71">
+        <v>263200</v>
+      </c>
+      <c r="E71">
+        <v>143706142000</v>
+      </c>
+      <c r="F71">
+        <v>60705624000</v>
+      </c>
+      <c r="G71">
+        <v>4742639000</v>
+      </c>
+      <c r="H71">
+        <v>12520900</v>
+      </c>
+      <c r="I71">
+        <v>209154405000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-19T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>4547388468000</v>
+      </c>
+      <c r="L71">
+        <v>253776200</v>
+      </c>
+      <c r="M71">
+        <v>-4816900</v>
+      </c>
+      <c r="N71">
+        <v>-83000518000</v>
+      </c>
+      <c r="O71">
+        <v>-7993500</v>
+      </c>
+      <c r="P71">
+        <v>94291387000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1674133320000</v>
+      </c>
+      <c r="B72">
+        <v>3362300</v>
+      </c>
+      <c r="C72">
+        <v>1574400</v>
+      </c>
+      <c r="D72">
+        <v>10400</v>
+      </c>
+      <c r="E72">
+        <v>61979044000</v>
+      </c>
+      <c r="F72">
+        <v>29656061000</v>
+      </c>
+      <c r="G72">
+        <v>87475000</v>
+      </c>
+      <c r="H72">
+        <v>4947100</v>
+      </c>
+      <c r="I72">
+        <v>91722580000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-19T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>4639111048000</v>
+      </c>
+      <c r="L72">
+        <v>258723300</v>
+      </c>
+      <c r="M72">
+        <v>-1787900</v>
+      </c>
+      <c r="N72">
+        <v>-32322983000</v>
+      </c>
+      <c r="O72">
+        <v>-9781400</v>
+      </c>
+      <c r="P72">
+        <v>61968404000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1674133440000</v>
+      </c>
+      <c r="B73">
+        <v>2315900</v>
+      </c>
+      <c r="C73">
+        <v>2647200</v>
+      </c>
+      <c r="D73">
+        <v>8600</v>
+      </c>
+      <c r="E73">
+        <v>38733255000</v>
+      </c>
+      <c r="F73">
+        <v>51648840000</v>
+      </c>
+      <c r="G73">
+        <v>71098000</v>
+      </c>
+      <c r="H73">
+        <v>4971700</v>
+      </c>
+      <c r="I73">
+        <v>90453193000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-19T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>4729564241000</v>
+      </c>
+      <c r="L73">
+        <v>263695000</v>
+      </c>
+      <c r="M73">
+        <v>331300</v>
+      </c>
+      <c r="N73">
+        <v>12915585000</v>
+      </c>
+      <c r="O73">
+        <v>-9450100</v>
+      </c>
+      <c r="P73">
+        <v>74883989000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1674133560000</v>
+      </c>
+      <c r="B74">
+        <v>1924200</v>
+      </c>
+      <c r="C74">
+        <v>3088400</v>
+      </c>
+      <c r="D74">
+        <v>6500</v>
+      </c>
+      <c r="E74">
+        <v>34994733000</v>
+      </c>
+      <c r="F74">
+        <v>53730464000</v>
+      </c>
+      <c r="G74">
+        <v>98230000</v>
+      </c>
+      <c r="H74">
+        <v>5019100</v>
+      </c>
+      <c r="I74">
+        <v>88823427000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-19T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>4818387668000</v>
+      </c>
+      <c r="L74">
+        <v>268714100</v>
+      </c>
+      <c r="M74">
+        <v>1164200</v>
+      </c>
+      <c r="N74">
+        <v>18735731000</v>
+      </c>
+      <c r="O74">
+        <v>-8285900</v>
+      </c>
+      <c r="P74">
+        <v>93619720000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1674133680000</v>
+      </c>
+      <c r="B75">
+        <v>1492300</v>
+      </c>
+      <c r="C75">
+        <v>1479400</v>
+      </c>
+      <c r="D75">
+        <v>125600</v>
+      </c>
+      <c r="E75">
+        <v>27431573000</v>
+      </c>
+      <c r="F75">
+        <v>27824522000</v>
+      </c>
+      <c r="G75">
+        <v>1960604000</v>
+      </c>
+      <c r="H75">
+        <v>3097300</v>
+      </c>
+      <c r="I75">
+        <v>57216699000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-19T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>4875604367000</v>
+      </c>
+      <c r="L75">
+        <v>271811400</v>
+      </c>
+      <c r="M75">
+        <v>-12900</v>
+      </c>
+      <c r="N75">
+        <v>392949000</v>
+      </c>
+      <c r="O75">
+        <v>-8298800</v>
+      </c>
+      <c r="P75">
+        <v>94012669000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1674133800000</v>
+      </c>
+      <c r="B76">
+        <v>1973200</v>
+      </c>
+      <c r="C76">
+        <v>1880400</v>
+      </c>
+      <c r="D76">
+        <v>23600</v>
+      </c>
+      <c r="E76">
+        <v>36133156000</v>
+      </c>
+      <c r="F76">
+        <v>41108459000</v>
+      </c>
+      <c r="G76">
+        <v>756566000</v>
+      </c>
+      <c r="H76">
+        <v>3877200</v>
+      </c>
+      <c r="I76">
+        <v>77998181000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-19T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>4953602548000</v>
+      </c>
+      <c r="L76">
+        <v>275688600</v>
+      </c>
+      <c r="M76">
+        <v>-92800</v>
+      </c>
+      <c r="N76">
+        <v>4975303000</v>
+      </c>
+      <c r="O76">
+        <v>-8391600</v>
+      </c>
+      <c r="P76">
+        <v>98987972000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1674133920000</v>
+      </c>
+      <c r="B77">
+        <v>1213500</v>
+      </c>
+      <c r="C77">
+        <v>1835200</v>
+      </c>
+      <c r="D77">
+        <v>8700</v>
+      </c>
+      <c r="E77">
+        <v>19049447000</v>
+      </c>
+      <c r="F77">
+        <v>36440411000</v>
+      </c>
+      <c r="G77">
+        <v>116995000.00000001</v>
+      </c>
+      <c r="H77">
+        <v>3057400</v>
+      </c>
+      <c r="I77">
+        <v>55606853000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-19T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>5009209401000</v>
+      </c>
+      <c r="L77">
+        <v>278746000</v>
+      </c>
+      <c r="M77">
+        <v>621700</v>
+      </c>
+      <c r="N77">
+        <v>17390964000</v>
+      </c>
+      <c r="O77">
+        <v>-7769900</v>
+      </c>
+      <c r="P77">
+        <v>116378936000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1674134040000</v>
+      </c>
+      <c r="B78">
+        <v>1089100</v>
+      </c>
+      <c r="C78">
+        <v>2201900</v>
+      </c>
+      <c r="D78">
+        <v>29600</v>
+      </c>
+      <c r="E78">
+        <v>18820389000</v>
+      </c>
+      <c r="F78">
+        <v>41859656000</v>
+      </c>
+      <c r="G78">
+        <v>362860000</v>
+      </c>
+      <c r="H78">
+        <v>3320600</v>
+      </c>
+      <c r="I78">
+        <v>61042905000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-19T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>5070252306000</v>
+      </c>
+      <c r="L78">
+        <v>282066600</v>
+      </c>
+      <c r="M78">
+        <v>1112800</v>
+      </c>
+      <c r="N78">
+        <v>23039267000</v>
+      </c>
+      <c r="O78">
+        <v>-6657100</v>
+      </c>
+      <c r="P78">
+        <v>139418203000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1674134160000</v>
+      </c>
+      <c r="B79">
+        <v>1437300</v>
+      </c>
+      <c r="C79">
+        <v>3469800</v>
+      </c>
+      <c r="D79">
+        <v>21900</v>
+      </c>
+      <c r="E79">
+        <v>22812665000</v>
+      </c>
+      <c r="F79">
+        <v>62097932000</v>
+      </c>
+      <c r="G79">
+        <v>872643000</v>
+      </c>
+      <c r="H79">
+        <v>4929000</v>
+      </c>
+      <c r="I79">
+        <v>85783240000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-19T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>5156035546000</v>
+      </c>
+      <c r="L79">
+        <v>286995600</v>
+      </c>
+      <c r="M79">
+        <v>2032500</v>
+      </c>
+      <c r="N79">
+        <v>39285267000</v>
+      </c>
+      <c r="O79">
+        <v>-4624600</v>
+      </c>
+      <c r="P79">
+        <v>178703470000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1674134280000</v>
+      </c>
+      <c r="B80">
+        <v>1319700</v>
+      </c>
+      <c r="C80">
+        <v>2369600</v>
+      </c>
+      <c r="D80">
+        <v>8600</v>
+      </c>
+      <c r="E80">
+        <v>23329789000</v>
+      </c>
+      <c r="F80">
+        <v>44499521000</v>
+      </c>
+      <c r="G80">
+        <v>209873000</v>
+      </c>
+      <c r="H80">
+        <v>3697900</v>
+      </c>
+      <c r="I80">
+        <v>68039183000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-19T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>5224074729000</v>
+      </c>
+      <c r="L80">
+        <v>290693500</v>
+      </c>
+      <c r="M80">
+        <v>1049900</v>
+      </c>
+      <c r="N80">
+        <v>21169732000</v>
+      </c>
+      <c r="O80">
+        <v>-3574700</v>
+      </c>
+      <c r="P80">
+        <v>199873202000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1674134400000</v>
+      </c>
+      <c r="B81">
+        <v>1921700</v>
+      </c>
+      <c r="C81">
+        <v>1510400</v>
+      </c>
+      <c r="D81">
+        <v>11200</v>
+      </c>
+      <c r="E81">
+        <v>31980035000</v>
+      </c>
+      <c r="F81">
+        <v>32034672000</v>
+      </c>
+      <c r="G81">
+        <v>120912000</v>
+      </c>
+      <c r="H81">
+        <v>3443300</v>
+      </c>
+      <c r="I81">
+        <v>64135619000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-19T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>5288210348000</v>
+      </c>
+      <c r="L81">
+        <v>294136800</v>
+      </c>
+      <c r="M81">
+        <v>-411300</v>
+      </c>
+      <c r="N81">
+        <v>54637000</v>
+      </c>
+      <c r="O81">
+        <v>-3986000</v>
+      </c>
+      <c r="P81">
+        <v>199927839000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1674134520000</v>
+      </c>
+      <c r="B82">
+        <v>1658600</v>
+      </c>
+      <c r="C82">
+        <v>1340500</v>
+      </c>
+      <c r="D82">
+        <v>4700</v>
+      </c>
+      <c r="E82">
+        <v>31336273000</v>
+      </c>
+      <c r="F82">
+        <v>25270605000</v>
+      </c>
+      <c r="G82">
+        <v>84402000</v>
+      </c>
+      <c r="H82">
+        <v>3003800</v>
+      </c>
+      <c r="I82">
+        <v>56691280000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-19T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>5344901628000</v>
+      </c>
+      <c r="L82">
+        <v>297140600</v>
+      </c>
+      <c r="M82">
+        <v>-318100</v>
+      </c>
+      <c r="N82">
+        <v>-6065668000</v>
+      </c>
+      <c r="O82">
+        <v>-4304100</v>
+      </c>
+      <c r="P82">
+        <v>193862171000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1674134640000</v>
+      </c>
+      <c r="B83">
+        <v>1995100</v>
+      </c>
+      <c r="C83">
+        <v>1158100</v>
+      </c>
+      <c r="D83">
+        <v>9400</v>
+      </c>
+      <c r="E83">
+        <v>34052053000</v>
+      </c>
+      <c r="F83">
+        <v>23198833000</v>
+      </c>
+      <c r="G83">
+        <v>194263000</v>
+      </c>
+      <c r="H83">
+        <v>3162600</v>
+      </c>
+      <c r="I83">
+        <v>57445149000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-19T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>5402346777000</v>
+      </c>
+      <c r="L83">
+        <v>300303200</v>
+      </c>
+      <c r="M83">
+        <v>-837000</v>
+      </c>
+      <c r="N83">
+        <v>-10853220000</v>
+      </c>
+      <c r="O83">
+        <v>-5141100</v>
+      </c>
+      <c r="P83">
+        <v>183008951000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1674134760000</v>
+      </c>
+      <c r="B84">
+        <v>2502700</v>
+      </c>
+      <c r="C84">
+        <v>1393800</v>
+      </c>
+      <c r="D84">
+        <v>27800</v>
+      </c>
+      <c r="E84">
+        <v>42927486000</v>
+      </c>
+      <c r="F84">
+        <v>25824756000</v>
+      </c>
+      <c r="G84">
+        <v>415735000</v>
+      </c>
+      <c r="H84">
+        <v>3924300</v>
+      </c>
+      <c r="I84">
+        <v>69167977000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-19T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>5471514754000</v>
+      </c>
+      <c r="L84">
+        <v>304227500</v>
+      </c>
+      <c r="M84">
+        <v>-1108900</v>
+      </c>
+      <c r="N84">
+        <v>-17102730000</v>
+      </c>
+      <c r="O84">
+        <v>-6250000</v>
+      </c>
+      <c r="P84">
+        <v>165906221000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1674134880000</v>
+      </c>
+      <c r="B85">
+        <v>3170100</v>
+      </c>
+      <c r="C85">
+        <v>1830400</v>
+      </c>
+      <c r="D85">
+        <v>22700</v>
+      </c>
+      <c r="E85">
+        <v>55245381000</v>
+      </c>
+      <c r="F85">
+        <v>35374711000</v>
+      </c>
+      <c r="G85">
+        <v>410911000</v>
+      </c>
+      <c r="H85">
+        <v>5023200</v>
+      </c>
+      <c r="I85">
+        <v>91031003000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-19T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>5562545757000</v>
+      </c>
+      <c r="L85">
+        <v>309250700</v>
+      </c>
+      <c r="M85">
+        <v>-1339700</v>
+      </c>
+      <c r="N85">
+        <v>-19870670000</v>
+      </c>
+      <c r="O85">
+        <v>-7589700</v>
+      </c>
+      <c r="P85">
+        <v>146035551000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1674135000000</v>
+      </c>
+      <c r="B86">
+        <v>2094100</v>
+      </c>
+      <c r="C86">
+        <v>2304300</v>
+      </c>
+      <c r="D86">
+        <v>5300</v>
+      </c>
+      <c r="E86">
+        <v>38540406000</v>
+      </c>
+      <c r="F86">
+        <v>47271671000</v>
+      </c>
+      <c r="G86">
+        <v>240379000</v>
+      </c>
+      <c r="H86">
+        <v>4403700</v>
+      </c>
+      <c r="I86">
+        <v>86052456000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-19T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>5648598213000</v>
+      </c>
+      <c r="L86">
+        <v>313654400</v>
+      </c>
+      <c r="M86">
+        <v>210200</v>
+      </c>
+      <c r="N86">
+        <v>8731265000</v>
+      </c>
+      <c r="O86">
+        <v>-7379500</v>
+      </c>
+      <c r="P86">
+        <v>154766816000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1674135120000</v>
+      </c>
+      <c r="B87">
+        <v>1400800</v>
+      </c>
+      <c r="C87">
+        <v>1792700</v>
+      </c>
+      <c r="D87">
+        <v>16700</v>
+      </c>
+      <c r="E87">
+        <v>25683627000</v>
+      </c>
+      <c r="F87">
+        <v>35614092000</v>
+      </c>
+      <c r="G87">
+        <v>150924000</v>
+      </c>
+      <c r="H87">
+        <v>3210200</v>
+      </c>
+      <c r="I87">
+        <v>61448643000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-19T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>5710046856000</v>
+      </c>
+      <c r="L87">
+        <v>316864600</v>
+      </c>
+      <c r="M87">
+        <v>391900</v>
+      </c>
+      <c r="N87">
+        <v>9930465000</v>
+      </c>
+      <c r="O87">
+        <v>-6987600</v>
+      </c>
+      <c r="P87">
+        <v>164697281000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1674135240000</v>
+      </c>
+      <c r="B88">
+        <v>1010100</v>
+      </c>
+      <c r="C88">
+        <v>2530100</v>
+      </c>
+      <c r="D88">
+        <v>7400</v>
+      </c>
+      <c r="E88">
+        <v>17243817000</v>
+      </c>
+      <c r="F88">
+        <v>49706782000</v>
+      </c>
+      <c r="G88">
+        <v>103844000</v>
+      </c>
+      <c r="H88">
+        <v>3547600</v>
+      </c>
+      <c r="I88">
+        <v>67054443000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-19T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>5777101299000</v>
+      </c>
+      <c r="L88">
+        <v>320412200</v>
+      </c>
+      <c r="M88">
+        <v>1520000</v>
+      </c>
+      <c r="N88">
+        <v>32462965000</v>
+      </c>
+      <c r="O88">
+        <v>-5467600</v>
+      </c>
+      <c r="P88">
+        <v>197160246000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1674135360000</v>
+      </c>
+      <c r="B89">
+        <v>1299000</v>
+      </c>
+      <c r="C89">
+        <v>2709800</v>
+      </c>
+      <c r="D89">
+        <v>17900</v>
+      </c>
+      <c r="E89">
+        <v>21037276000</v>
+      </c>
+      <c r="F89">
+        <v>43572784000</v>
+      </c>
+      <c r="G89">
+        <v>298833000</v>
+      </c>
+      <c r="H89">
+        <v>4026700</v>
+      </c>
+      <c r="I89">
+        <v>64908893000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-19T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>5842010192000</v>
+      </c>
+      <c r="L89">
+        <v>324438900</v>
+      </c>
+      <c r="M89">
+        <v>1410800</v>
+      </c>
+      <c r="N89">
+        <v>22535508000</v>
+      </c>
+      <c r="O89">
+        <v>-4056800</v>
+      </c>
+      <c r="P89">
+        <v>219695754000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1674135480000</v>
+      </c>
+      <c r="B90">
+        <v>2161900</v>
+      </c>
+      <c r="C90">
+        <v>2554300</v>
+      </c>
+      <c r="D90">
+        <v>17200</v>
+      </c>
+      <c r="E90">
+        <v>36186333000</v>
+      </c>
+      <c r="F90">
+        <v>48228823000</v>
+      </c>
+      <c r="G90">
+        <v>189352000</v>
+      </c>
+      <c r="H90">
+        <v>4733400</v>
+      </c>
+      <c r="I90">
+        <v>84604508000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-19T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>5926614700000</v>
+      </c>
+      <c r="L90">
+        <v>329172300</v>
+      </c>
+      <c r="M90">
+        <v>392400</v>
+      </c>
+      <c r="N90">
+        <v>12042490000</v>
+      </c>
+      <c r="O90">
+        <v>-3664400</v>
+      </c>
+      <c r="P90">
+        <v>231738244000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1674135600000</v>
+      </c>
+      <c r="B91">
+        <v>1700000</v>
+      </c>
+      <c r="C91">
+        <v>2753800</v>
+      </c>
+      <c r="D91">
+        <v>21100</v>
+      </c>
+      <c r="E91">
+        <v>29404983000</v>
+      </c>
+      <c r="F91">
+        <v>43879204000</v>
+      </c>
+      <c r="G91">
+        <v>217241000</v>
+      </c>
+      <c r="H91">
+        <v>4474900</v>
+      </c>
+      <c r="I91">
+        <v>73501428000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-19T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>6000116128000</v>
+      </c>
+      <c r="L91">
+        <v>333647200</v>
+      </c>
+      <c r="M91">
+        <v>1053800</v>
+      </c>
+      <c r="N91">
+        <v>14474221000</v>
+      </c>
+      <c r="O91">
+        <v>-2610600</v>
+      </c>
+      <c r="P91">
+        <v>246212465000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1674135720000</v>
+      </c>
+      <c r="B92">
+        <v>2408800</v>
+      </c>
+      <c r="C92">
+        <v>3076900</v>
+      </c>
+      <c r="D92">
+        <v>16600</v>
+      </c>
+      <c r="E92">
+        <v>52262590000</v>
+      </c>
+      <c r="F92">
+        <v>48052388000</v>
+      </c>
+      <c r="G92">
+        <v>490125000</v>
+      </c>
+      <c r="H92">
+        <v>5502300</v>
+      </c>
+      <c r="I92">
+        <v>100805103000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-19T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>6100921231000</v>
+      </c>
+      <c r="L92">
+        <v>339149500</v>
+      </c>
+      <c r="M92">
+        <v>668100</v>
+      </c>
+      <c r="N92">
+        <v>-4210202000</v>
+      </c>
+      <c r="O92">
+        <v>-1942500</v>
+      </c>
+      <c r="P92">
+        <v>242002263000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1674135840000</v>
+      </c>
+      <c r="B93">
+        <v>3735700</v>
+      </c>
+      <c r="C93">
+        <v>1790900</v>
+      </c>
+      <c r="D93">
+        <v>23200</v>
+      </c>
+      <c r="E93">
+        <v>61931554000</v>
+      </c>
+      <c r="F93">
+        <v>31129106000</v>
+      </c>
+      <c r="G93">
+        <v>449509000</v>
+      </c>
+      <c r="H93">
+        <v>5549800</v>
+      </c>
+      <c r="I93">
+        <v>93510169000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-19T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>6194431400000</v>
+      </c>
+      <c r="L93">
+        <v>344699300</v>
+      </c>
+      <c r="M93">
+        <v>-1944800</v>
+      </c>
+      <c r="N93">
+        <v>-30802448000</v>
+      </c>
+      <c r="O93">
+        <v>-3887300</v>
+      </c>
+      <c r="P93">
+        <v>211199815000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1674135960000</v>
+      </c>
+      <c r="B94">
+        <v>4954200</v>
+      </c>
+      <c r="C94">
+        <v>1856700</v>
+      </c>
+      <c r="D94">
+        <v>19200</v>
+      </c>
+      <c r="E94">
+        <v>86892720000</v>
+      </c>
+      <c r="F94">
+        <v>30473920000</v>
+      </c>
+      <c r="G94">
+        <v>249626000</v>
+      </c>
+      <c r="H94">
+        <v>6830100</v>
+      </c>
+      <c r="I94">
+        <v>117616266000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-19T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>6312047666000</v>
+      </c>
+      <c r="L94">
+        <v>351529400</v>
+      </c>
+      <c r="M94">
+        <v>-3097500</v>
+      </c>
+      <c r="N94">
+        <v>-56418800000</v>
+      </c>
+      <c r="O94">
+        <v>-6984800</v>
+      </c>
+      <c r="P94">
+        <v>154781015000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1674136080000</v>
+      </c>
+      <c r="B95">
+        <v>7498000</v>
+      </c>
+      <c r="C95">
+        <v>2143900</v>
+      </c>
+      <c r="D95">
+        <v>29900</v>
+      </c>
+      <c r="E95">
+        <v>136468186000</v>
+      </c>
+      <c r="F95">
+        <v>45644862000</v>
+      </c>
+      <c r="G95">
+        <v>533802000</v>
+      </c>
+      <c r="H95">
+        <v>9671800</v>
+      </c>
+      <c r="I95">
+        <v>182646850000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-19T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>6494694516000</v>
+      </c>
+      <c r="L95">
+        <v>361201200</v>
+      </c>
+      <c r="M95">
+        <v>-5354100</v>
+      </c>
+      <c r="N95">
+        <v>-90823324000</v>
+      </c>
+      <c r="O95">
+        <v>-12338900</v>
+      </c>
+      <c r="P95">
+        <v>63957691000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1674136200000</v>
+      </c>
+      <c r="B96">
+        <v>2891400</v>
+      </c>
+      <c r="C96">
+        <v>3346600</v>
+      </c>
+      <c r="D96">
+        <v>26600</v>
+      </c>
+      <c r="E96">
+        <v>46626001000</v>
+      </c>
+      <c r="F96">
+        <v>60241039000</v>
+      </c>
+      <c r="G96">
+        <v>355928000</v>
+      </c>
+      <c r="H96">
+        <v>6264600</v>
+      </c>
+      <c r="I96">
+        <v>107222968000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-19T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>6601917484000</v>
+      </c>
+      <c r="L96">
+        <v>367465800</v>
+      </c>
+      <c r="M96">
+        <v>455200</v>
+      </c>
+      <c r="N96">
+        <v>13615038000</v>
+      </c>
+      <c r="O96">
+        <v>-11883700</v>
+      </c>
+      <c r="P96">
+        <v>77572729000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1674136320000</v>
+      </c>
+      <c r="B97">
+        <v>1744400</v>
+      </c>
+      <c r="C97">
+        <v>2097900</v>
+      </c>
+      <c r="D97">
+        <v>4900</v>
+      </c>
+      <c r="E97">
+        <v>29881023000</v>
+      </c>
+      <c r="F97">
+        <v>38495691000</v>
+      </c>
+      <c r="G97">
+        <v>51968000</v>
+      </c>
+      <c r="H97">
+        <v>3847200</v>
+      </c>
+      <c r="I97">
+        <v>68428682000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-19T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>6670346166000</v>
+      </c>
+      <c r="L97">
+        <v>371313000</v>
+      </c>
+      <c r="M97">
+        <v>353500</v>
+      </c>
+      <c r="N97">
+        <v>8614668000</v>
+      </c>
+      <c r="O97">
+        <v>-11530200</v>
+      </c>
+      <c r="P97">
+        <v>86187397000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1674136440000</v>
+      </c>
+      <c r="B98">
+        <v>1511300</v>
+      </c>
+      <c r="C98">
+        <v>2584400</v>
+      </c>
+      <c r="D98">
+        <v>5500</v>
+      </c>
+      <c r="E98">
+        <v>25340961000</v>
+      </c>
+      <c r="F98">
+        <v>51626474000</v>
+      </c>
+      <c r="G98">
+        <v>153720000</v>
+      </c>
+      <c r="H98">
+        <v>4101200</v>
+      </c>
+      <c r="I98">
+        <v>77121155000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-19T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>6747467321000</v>
+      </c>
+      <c r="L98">
+        <v>375414200</v>
+      </c>
+      <c r="M98">
+        <v>1073100</v>
+      </c>
+      <c r="N98">
+        <v>26285513000</v>
+      </c>
+      <c r="O98">
+        <v>-10457100</v>
+      </c>
+      <c r="P98">
+        <v>112472910000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1674136560000</v>
+      </c>
+      <c r="B99">
+        <v>1733800</v>
+      </c>
+      <c r="C99">
+        <v>1464600</v>
+      </c>
+      <c r="D99">
+        <v>11100</v>
+      </c>
+      <c r="E99">
+        <v>29894548000</v>
+      </c>
+      <c r="F99">
+        <v>25705149000</v>
+      </c>
+      <c r="G99">
+        <v>56981000</v>
+      </c>
+      <c r="H99">
+        <v>3209500</v>
+      </c>
+      <c r="I99">
+        <v>55656678000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-19T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>6803123999000</v>
+      </c>
+      <c r="L99">
+        <v>378623700</v>
+      </c>
+      <c r="M99">
+        <v>-269200</v>
+      </c>
+      <c r="N99">
+        <v>-4189399000</v>
+      </c>
+      <c r="O99">
+        <v>-10726300</v>
+      </c>
+      <c r="P99">
+        <v>108283511000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1674136680000</v>
+      </c>
+      <c r="B100">
+        <v>1219900</v>
+      </c>
+      <c r="C100">
+        <v>2038300</v>
+      </c>
+      <c r="D100">
+        <v>9000</v>
+      </c>
+      <c r="E100">
+        <v>21942797000</v>
+      </c>
+      <c r="F100">
+        <v>37713225000</v>
+      </c>
+      <c r="G100">
+        <v>134799000</v>
+      </c>
+      <c r="H100">
+        <v>3267200</v>
+      </c>
+      <c r="I100">
+        <v>59790821000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-19T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>6862914820000</v>
+      </c>
+      <c r="L100">
+        <v>381890900</v>
+      </c>
+      <c r="M100">
+        <v>818400</v>
+      </c>
+      <c r="N100">
+        <v>15770428000</v>
+      </c>
+      <c r="O100">
+        <v>-9907900</v>
+      </c>
+      <c r="P100">
+        <v>124053939000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1674136800000</v>
+      </c>
+      <c r="B101">
+        <v>1509200</v>
+      </c>
+      <c r="C101">
+        <v>2861600</v>
+      </c>
+      <c r="D101">
+        <v>12700</v>
+      </c>
+      <c r="E101">
+        <v>23176304000</v>
+      </c>
+      <c r="F101">
+        <v>50517987000</v>
+      </c>
+      <c r="G101">
+        <v>448940000</v>
+      </c>
+      <c r="H101">
+        <v>4383500</v>
+      </c>
+      <c r="I101">
+        <v>74143231000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-19T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>6937058051000</v>
+      </c>
+      <c r="L101">
+        <v>386274400</v>
+      </c>
+      <c r="M101">
+        <v>1352400</v>
+      </c>
+      <c r="N101">
+        <v>27341683000</v>
+      </c>
+      <c r="O101">
+        <v>-8555500</v>
+      </c>
+      <c r="P101">
+        <v>151395622000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1674136920000</v>
+      </c>
+      <c r="B102">
+        <v>1504400</v>
+      </c>
+      <c r="C102">
+        <v>2947300</v>
+      </c>
+      <c r="D102">
+        <v>14000</v>
+      </c>
+      <c r="E102">
+        <v>30889191000</v>
+      </c>
+      <c r="F102">
+        <v>54088259000</v>
+      </c>
+      <c r="G102">
+        <v>487619000</v>
+      </c>
+      <c r="H102">
+        <v>4465700</v>
+      </c>
+      <c r="I102">
+        <v>85465069000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-19T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>7022523120000</v>
+      </c>
+      <c r="L102">
+        <v>390740100</v>
+      </c>
+      <c r="M102">
+        <v>1442900</v>
+      </c>
+      <c r="N102">
+        <v>23199068000</v>
+      </c>
+      <c r="O102">
+        <v>-7112600</v>
+      </c>
+      <c r="P102">
+        <v>174594690000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1674137040000</v>
+      </c>
+      <c r="B103">
+        <v>2490400</v>
+      </c>
+      <c r="C103">
+        <v>2252300</v>
+      </c>
+      <c r="D103">
+        <v>40800</v>
+      </c>
+      <c r="E103">
+        <v>49470187000</v>
+      </c>
+      <c r="F103">
+        <v>42897981000</v>
+      </c>
+      <c r="G103">
+        <v>886365000</v>
+      </c>
+      <c r="H103">
+        <v>4783500</v>
+      </c>
+      <c r="I103">
+        <v>93254533000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-19T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>7115777653000</v>
+      </c>
+      <c r="L103">
+        <v>395523600</v>
+      </c>
+      <c r="M103">
+        <v>-238100</v>
+      </c>
+      <c r="N103">
+        <v>-6572206000</v>
+      </c>
+      <c r="O103">
+        <v>-7350700</v>
+      </c>
+      <c r="P103">
+        <v>168022484000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1674137160000</v>
+      </c>
+      <c r="B104">
+        <v>6002900</v>
+      </c>
+      <c r="C104">
+        <v>1475900</v>
+      </c>
+      <c r="D104">
+        <v>42600</v>
+      </c>
+      <c r="E104">
+        <v>122166026000</v>
+      </c>
+      <c r="F104">
+        <v>27416553000</v>
+      </c>
+      <c r="G104">
+        <v>1076155000</v>
+      </c>
+      <c r="H104">
+        <v>7521400</v>
+      </c>
+      <c r="I104">
+        <v>150658734000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-19T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>7266436387000</v>
+      </c>
+      <c r="L104">
+        <v>403045000</v>
+      </c>
+      <c r="M104">
+        <v>-4527000</v>
+      </c>
+      <c r="N104">
+        <v>-94749473000</v>
+      </c>
+      <c r="O104">
+        <v>-11877700</v>
+      </c>
+      <c r="P104">
+        <v>73273011000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1674137280000</v>
+      </c>
+      <c r="B105">
+        <v>5602400</v>
+      </c>
+      <c r="C105">
+        <v>1696000</v>
+      </c>
+      <c r="D105">
+        <v>123900</v>
+      </c>
+      <c r="E105">
+        <v>105021139000</v>
+      </c>
+      <c r="F105">
+        <v>36904647000</v>
+      </c>
+      <c r="G105">
+        <v>1986438000</v>
+      </c>
+      <c r="H105">
+        <v>7422300</v>
+      </c>
+      <c r="I105">
+        <v>143912224000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-19T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>7410348611000</v>
+      </c>
+      <c r="L105">
+        <v>410467300</v>
+      </c>
+      <c r="M105">
+        <v>-3906400</v>
+      </c>
+      <c r="N105">
+        <v>-68116492000</v>
+      </c>
+      <c r="O105">
+        <v>-15784100</v>
+      </c>
+      <c r="P105">
+        <v>5156519000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1674137400000</v>
+      </c>
+      <c r="B106">
+        <v>5332300</v>
+      </c>
+      <c r="C106">
+        <v>2301200</v>
+      </c>
+      <c r="D106">
+        <v>53600</v>
+      </c>
+      <c r="E106">
+        <v>97888114000</v>
+      </c>
+      <c r="F106">
+        <v>49773458000</v>
+      </c>
+      <c r="G106">
+        <v>1048751000</v>
+      </c>
+      <c r="H106">
+        <v>7687100</v>
+      </c>
+      <c r="I106">
+        <v>148710323000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-19T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>7559058934000</v>
+      </c>
+      <c r="L106">
+        <v>418154400</v>
+      </c>
+      <c r="M106">
+        <v>-3031100</v>
+      </c>
+      <c r="N106">
+        <v>-48114656000</v>
+      </c>
+      <c r="O106">
+        <v>-18815200</v>
+      </c>
+      <c r="P106">
+        <v>-42958137000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1674137520000</v>
+      </c>
+      <c r="B107">
+        <v>3456300</v>
+      </c>
+      <c r="C107">
+        <v>2766400</v>
+      </c>
+      <c r="D107">
+        <v>19800</v>
+      </c>
+      <c r="E107">
+        <v>69347517000</v>
+      </c>
+      <c r="F107">
+        <v>65038203000</v>
+      </c>
+      <c r="G107">
+        <v>392353000</v>
+      </c>
+      <c r="H107">
+        <v>6242500</v>
+      </c>
+      <c r="I107">
+        <v>134778073000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-19T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>7693837007000</v>
+      </c>
+      <c r="L107">
+        <v>424396900</v>
+      </c>
+      <c r="M107">
+        <v>-689900</v>
+      </c>
+      <c r="N107">
+        <v>-4309314000</v>
+      </c>
+      <c r="O107">
+        <v>-19505100</v>
+      </c>
+      <c r="P107">
+        <v>-47267451000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1674137640000</v>
+      </c>
+      <c r="B108">
+        <v>3150400</v>
+      </c>
+      <c r="C108">
+        <v>7120600</v>
+      </c>
+      <c r="D108">
+        <v>105500</v>
+      </c>
+      <c r="E108">
+        <v>76454073000</v>
+      </c>
+      <c r="F108">
+        <v>169085504000</v>
+      </c>
+      <c r="G108">
+        <v>3191650000</v>
+      </c>
+      <c r="H108">
+        <v>10376500</v>
+      </c>
+      <c r="I108">
+        <v>248731227000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-19T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>7942568234000</v>
+      </c>
+      <c r="L108">
+        <v>434773400</v>
+      </c>
+      <c r="M108">
+        <v>3970200</v>
+      </c>
+      <c r="N108">
+        <v>92631431000</v>
+      </c>
+      <c r="O108">
+        <v>-15534900</v>
+      </c>
+      <c r="P108">
+        <v>45363980000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1674137760000</v>
+      </c>
+      <c r="B109">
+        <v>2624500</v>
+      </c>
+      <c r="C109">
+        <v>7743400</v>
+      </c>
+      <c r="D109">
+        <v>51300</v>
+      </c>
+      <c r="E109">
+        <v>73311349000</v>
+      </c>
+      <c r="F109">
+        <v>174969755000</v>
+      </c>
+      <c r="G109">
+        <v>1838335000</v>
+      </c>
+      <c r="H109">
+        <v>10419200</v>
+      </c>
+      <c r="I109">
+        <v>250119439000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-19T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>8192687673000</v>
+      </c>
+      <c r="L109">
+        <v>445192600</v>
+      </c>
+      <c r="M109">
+        <v>5118900</v>
+      </c>
+      <c r="N109">
+        <v>101658406000</v>
+      </c>
+      <c r="O109">
+        <v>-10416000</v>
+      </c>
+      <c r="P109">
+        <v>147022386000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1674137880000</v>
+      </c>
+      <c r="B110">
+        <v>4070800</v>
+      </c>
+      <c r="C110">
+        <v>8618600</v>
+      </c>
+      <c r="D110">
+        <v>60300</v>
+      </c>
+      <c r="E110">
+        <v>104546273000</v>
+      </c>
+      <c r="F110">
+        <v>192488252000</v>
+      </c>
+      <c r="G110">
+        <v>2423062000</v>
+      </c>
+      <c r="H110">
+        <v>12749700</v>
+      </c>
+      <c r="I110">
+        <v>299457587000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-19T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>8492145260000</v>
+      </c>
+      <c r="L110">
+        <v>457942300</v>
+      </c>
+      <c r="M110">
+        <v>4547800</v>
+      </c>
+      <c r="N110">
+        <v>87941979000</v>
+      </c>
+      <c r="O110">
+        <v>-5868200</v>
+      </c>
+      <c r="P110">
+        <v>234964365000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1674138000000</v>
+      </c>
+      <c r="B111">
+        <v>4639500</v>
+      </c>
+      <c r="C111">
+        <v>5941700</v>
+      </c>
+      <c r="D111">
+        <v>82000</v>
+      </c>
+      <c r="E111">
+        <v>113147139000</v>
+      </c>
+      <c r="F111">
+        <v>135637349000</v>
+      </c>
+      <c r="G111">
+        <v>1795706000</v>
+      </c>
+      <c r="H111">
+        <v>10663200</v>
+      </c>
+      <c r="I111">
+        <v>250580194000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-19T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>8742725454000</v>
+      </c>
+      <c r="L111">
+        <v>468605500</v>
+      </c>
+      <c r="M111">
+        <v>1302200</v>
+      </c>
+      <c r="N111">
+        <v>22490210000</v>
+      </c>
+      <c r="O111">
+        <v>-4566000</v>
+      </c>
+      <c r="P111">
+        <v>257454575000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1674138120000</v>
+      </c>
+      <c r="B112">
+        <v>4348100</v>
+      </c>
+      <c r="C112">
+        <v>5803500</v>
+      </c>
+      <c r="D112">
+        <v>53100</v>
+      </c>
+      <c r="E112">
+        <v>98779911000</v>
+      </c>
+      <c r="F112">
+        <v>135190736000</v>
+      </c>
+      <c r="G112">
+        <v>1566292000</v>
+      </c>
+      <c r="H112">
+        <v>10204700</v>
+      </c>
+      <c r="I112">
+        <v>235536939000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-19T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>8978262393000</v>
+      </c>
+      <c r="L112">
+        <v>478810200</v>
+      </c>
+      <c r="M112">
+        <v>1455400</v>
+      </c>
+      <c r="N112">
+        <v>36410825000</v>
+      </c>
+      <c r="O112">
+        <v>-3110600</v>
+      </c>
+      <c r="P112">
+        <v>293865400000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1674138240000</v>
+      </c>
+      <c r="B113">
+        <v>4760000</v>
+      </c>
+      <c r="C113">
+        <v>5984100</v>
+      </c>
+      <c r="D113">
+        <v>12000</v>
+      </c>
+      <c r="E113">
+        <v>113027146000</v>
+      </c>
+      <c r="F113">
+        <v>133933568000</v>
+      </c>
+      <c r="G113">
+        <v>395322000</v>
+      </c>
+      <c r="H113">
+        <v>10756100</v>
+      </c>
+      <c r="I113">
+        <v>247356036000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-19T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>9225618429000</v>
+      </c>
+      <c r="L113">
+        <v>489566300</v>
+      </c>
+      <c r="M113">
+        <v>1224100</v>
+      </c>
+      <c r="N113">
+        <v>20906422000</v>
+      </c>
+      <c r="O113">
+        <v>-1886500</v>
+      </c>
+      <c r="P113">
+        <v>314771822000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1674138360000</v>
+      </c>
+      <c r="B114">
+        <v>6129800</v>
+      </c>
+      <c r="C114">
+        <v>5901500</v>
+      </c>
+      <c r="D114">
+        <v>79900</v>
+      </c>
+      <c r="E114">
+        <v>129986314000</v>
+      </c>
+      <c r="F114">
+        <v>128719594000</v>
+      </c>
+      <c r="G114">
+        <v>1774314000</v>
+      </c>
+      <c r="H114">
+        <v>12111200</v>
+      </c>
+      <c r="I114">
+        <v>260480222000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-19T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>9486098651000</v>
+      </c>
+      <c r="L114">
+        <v>501677500</v>
+      </c>
+      <c r="M114">
+        <v>-228300</v>
+      </c>
+      <c r="N114">
+        <v>-1266720000</v>
+      </c>
+      <c r="O114">
+        <v>-2114800</v>
+      </c>
+      <c r="P114">
+        <v>313505102000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1674138480000</v>
+      </c>
+      <c r="B115">
+        <v>6085500</v>
+      </c>
+      <c r="C115">
+        <v>6823200</v>
+      </c>
+      <c r="D115">
+        <v>96200</v>
+      </c>
+      <c r="E115">
+        <v>116087031000</v>
+      </c>
+      <c r="F115">
+        <v>140547912000</v>
+      </c>
+      <c r="G115">
+        <v>1662821000</v>
+      </c>
+      <c r="H115">
+        <v>13004900</v>
+      </c>
+      <c r="I115">
+        <v>258297764000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-19T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>9744396415000</v>
+      </c>
+      <c r="L115">
+        <v>514682400</v>
+      </c>
+      <c r="M115">
+        <v>737700</v>
+      </c>
+      <c r="N115">
+        <v>24460881000</v>
+      </c>
+      <c r="O115">
+        <v>-1377100</v>
+      </c>
+      <c r="P115">
+        <v>337965983000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1674138600000</v>
+      </c>
+      <c r="B116">
+        <v>4000</v>
+      </c>
+      <c r="C116">
+        <v>44100</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>72570000</v>
+      </c>
+      <c r="F116">
+        <v>908955000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>48100</v>
+      </c>
+      <c r="I116">
+        <v>981525000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-19T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>9745377940000</v>
+      </c>
+      <c r="L116">
+        <v>514730500</v>
+      </c>
+      <c r="M116">
+        <v>40100</v>
+      </c>
+      <c r="N116">
+        <v>836385000</v>
+      </c>
+      <c r="O116">
+        <v>-1337000</v>
+      </c>
+      <c r="P116">
+        <v>338802368000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1674139440000</v>
+      </c>
+      <c r="B117">
         <v>5618800</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>12390300</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>20194100</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>133906118000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>241247020000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>356916376000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>38203200</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>732069514000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-01-19T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-01-19T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>10477447454000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>552933700</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>6771500</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>107340902000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>5434500</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>446143270000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230119/VNINDEX_HOSE_5p_20230119.xlsx
+++ b/name/vnindex/20230119/VNINDEX_HOSE_5p_20230119.xlsx
@@ -466,25 +466,25 @@
         <v>2289000</v>
       </c>
       <c r="E2">
-        <v>48553066000</v>
+        <v>44404019200</v>
       </c>
       <c r="F2">
-        <v>44513129000</v>
+        <v>37368181100</v>
       </c>
       <c r="G2">
-        <v>32497403000</v>
+        <v>31772928200</v>
       </c>
       <c r="H2">
         <v>7876800</v>
       </c>
       <c r="I2">
-        <v>125563598000</v>
+        <v>113545128500</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-19T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>125563598000</v>
+        <v>113545128500</v>
       </c>
       <c r="L2">
         <v>7876800</v>
@@ -493,13 +493,13 @@
         <v>-149600</v>
       </c>
       <c r="N2">
-        <v>-4039937000</v>
+        <v>-7035838100</v>
       </c>
       <c r="O2">
         <v>-149600</v>
       </c>
       <c r="P2">
-        <v>-4039937000</v>
+        <v>-7035838100</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>49800</v>
       </c>
       <c r="E3">
-        <v>42743071000</v>
+        <v>39187130500</v>
       </c>
       <c r="F3">
-        <v>29710325000</v>
+        <v>25509530000</v>
       </c>
       <c r="G3">
-        <v>941669000</v>
+        <v>933677000</v>
       </c>
       <c r="H3">
         <v>4794400</v>
       </c>
       <c r="I3">
-        <v>73395065000</v>
+        <v>65630337500</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-19T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>198958663000</v>
+        <v>179175466000</v>
       </c>
       <c r="L3">
         <v>12671200</v>
@@ -543,13 +543,13 @@
         <v>-792000</v>
       </c>
       <c r="N3">
-        <v>-13032746000</v>
+        <v>-13677600500</v>
       </c>
       <c r="O3">
         <v>-941600</v>
       </c>
       <c r="P3">
-        <v>-17072683000</v>
+        <v>-20713438600</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>51200</v>
       </c>
       <c r="E4">
-        <v>36317385000</v>
+        <v>31527679500</v>
       </c>
       <c r="F4">
-        <v>35634460000</v>
+        <v>30629470000</v>
       </c>
       <c r="G4">
         <v>1048806000</v>
@@ -578,13 +578,13 @@
         <v>4145400</v>
       </c>
       <c r="I4">
-        <v>73000651000</v>
+        <v>63205955500</v>
       </c>
       <c r="J4" t="str">
         <v>2023-01-19T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>271959314000</v>
+        <v>242381421500</v>
       </c>
       <c r="L4">
         <v>16816600</v>
@@ -593,13 +593,13 @@
         <v>-81400</v>
       </c>
       <c r="N4">
-        <v>-682925000</v>
+        <v>-898209500</v>
       </c>
       <c r="O4">
         <v>-1023000</v>
       </c>
       <c r="P4">
-        <v>-17755608000</v>
+        <v>-21611648100</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>23100</v>
       </c>
       <c r="E5">
-        <v>27527010000</v>
+        <v>26560877100</v>
       </c>
       <c r="F5">
-        <v>64783380000</v>
+        <v>58235334600</v>
       </c>
       <c r="G5">
         <v>281141000</v>
@@ -628,13 +628,13 @@
         <v>5439400</v>
       </c>
       <c r="I5">
-        <v>92591531000</v>
+        <v>85077352700</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-19T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>364550845000</v>
+        <v>327458774200</v>
       </c>
       <c r="L5">
         <v>22256000</v>
@@ -643,13 +643,13 @@
         <v>1736300</v>
       </c>
       <c r="N5">
-        <v>37256370000</v>
+        <v>31674457500</v>
       </c>
       <c r="O5">
         <v>713300</v>
       </c>
       <c r="P5">
-        <v>19500762000</v>
+        <v>10062809400</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>20700</v>
       </c>
       <c r="E6">
-        <v>27103418000</v>
+        <v>26268653600</v>
       </c>
       <c r="F6">
-        <v>58853092000</v>
+        <v>50876276800</v>
       </c>
       <c r="G6">
-        <v>336365000</v>
+        <v>311390000</v>
       </c>
       <c r="H6">
         <v>4825200</v>
       </c>
       <c r="I6">
-        <v>86292875000</v>
+        <v>77456320400</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-19T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>450843720000</v>
+        <v>404915094600</v>
       </c>
       <c r="L6">
         <v>27081200</v>
@@ -693,13 +693,13 @@
         <v>1506300</v>
       </c>
       <c r="N6">
-        <v>31749674000</v>
+        <v>24607623200</v>
       </c>
       <c r="O6">
         <v>2219600</v>
       </c>
       <c r="P6">
-        <v>51250436000</v>
+        <v>34670432600</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>53400</v>
       </c>
       <c r="E7">
-        <v>27676298000</v>
+        <v>26337338300</v>
       </c>
       <c r="F7">
-        <v>52404223000</v>
+        <v>47097934600</v>
       </c>
       <c r="G7">
-        <v>556848000</v>
+        <v>471433500</v>
       </c>
       <c r="H7">
         <v>4670600</v>
       </c>
       <c r="I7">
-        <v>80637369000</v>
+        <v>73906706400</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-19T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>531481089000</v>
+        <v>478821801000</v>
       </c>
       <c r="L7">
         <v>31751800</v>
@@ -743,13 +743,13 @@
         <v>1389800</v>
       </c>
       <c r="N7">
-        <v>24727925000</v>
+        <v>20760596300</v>
       </c>
       <c r="O7">
         <v>3609400</v>
       </c>
       <c r="P7">
-        <v>75978361000</v>
+        <v>55431028900</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>19000</v>
       </c>
       <c r="E8">
-        <v>30477437000</v>
+        <v>29864550500</v>
       </c>
       <c r="F8">
-        <v>35053722000</v>
+        <v>32989788000</v>
       </c>
       <c r="G8">
-        <v>402123000</v>
+        <v>383142000</v>
       </c>
       <c r="H8">
         <v>3791300</v>
       </c>
       <c r="I8">
-        <v>65933282000</v>
+        <v>63237480500</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-19T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>597414371000</v>
+        <v>542059281500</v>
       </c>
       <c r="L8">
         <v>35543100</v>
@@ -793,13 +793,13 @@
         <v>10300</v>
       </c>
       <c r="N8">
-        <v>4576285000</v>
+        <v>3125237500</v>
       </c>
       <c r="O8">
         <v>3619700</v>
       </c>
       <c r="P8">
-        <v>80554646000</v>
+        <v>58556266400</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>20000</v>
       </c>
       <c r="E9">
-        <v>21268048000</v>
+        <v>18865053400</v>
       </c>
       <c r="F9">
-        <v>36655049000</v>
+        <v>34584122000</v>
       </c>
       <c r="G9">
         <v>272553000</v>
@@ -828,13 +828,13 @@
         <v>3693300</v>
       </c>
       <c r="I9">
-        <v>58195650000</v>
+        <v>53721728400</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-19T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>655610021000</v>
+        <v>595781009900</v>
       </c>
       <c r="L9">
         <v>39236400</v>
@@ -843,13 +843,13 @@
         <v>930700</v>
       </c>
       <c r="N9">
-        <v>15387001000</v>
+        <v>15719068600</v>
       </c>
       <c r="O9">
         <v>4550400</v>
       </c>
       <c r="P9">
-        <v>95941647000</v>
+        <v>74275335000</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>32100</v>
       </c>
       <c r="E10">
-        <v>21908981000</v>
+        <v>20338153400</v>
       </c>
       <c r="F10">
-        <v>34241217000</v>
+        <v>33232526700</v>
       </c>
       <c r="G10">
         <v>802687000</v>
@@ -878,13 +878,13 @@
         <v>3034400</v>
       </c>
       <c r="I10">
-        <v>56952885000</v>
+        <v>54373367100</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-19T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>712562906000</v>
+        <v>650154377000</v>
       </c>
       <c r="L10">
         <v>42270800</v>
@@ -893,13 +893,13 @@
         <v>439300</v>
       </c>
       <c r="N10">
-        <v>12332236000</v>
+        <v>12894373300</v>
       </c>
       <c r="O10">
         <v>4989700</v>
       </c>
       <c r="P10">
-        <v>108273883000</v>
+        <v>87169708300</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>35300</v>
       </c>
       <c r="E11">
-        <v>29062291000</v>
+        <v>27917337100</v>
       </c>
       <c r="F11">
-        <v>29509637000</v>
+        <v>26666782700</v>
       </c>
       <c r="G11">
-        <v>430625000</v>
+        <v>407847800</v>
       </c>
       <c r="H11">
         <v>3101100</v>
       </c>
       <c r="I11">
-        <v>59002553000</v>
+        <v>54991967600</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-19T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>771565459000</v>
+        <v>705146344600</v>
       </c>
       <c r="L11">
         <v>45371900</v>
@@ -943,13 +943,13 @@
         <v>-314000</v>
       </c>
       <c r="N11">
-        <v>447346000</v>
+        <v>-1250554400</v>
       </c>
       <c r="O11">
         <v>4675700</v>
       </c>
       <c r="P11">
-        <v>108721229000</v>
+        <v>85919153900</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>7600</v>
       </c>
       <c r="E12">
-        <v>24300174000</v>
+        <v>24025049400</v>
       </c>
       <c r="F12">
-        <v>33544332000</v>
+        <v>31132146600</v>
       </c>
       <c r="G12">
         <v>146734000</v>
@@ -978,13 +978,13 @@
         <v>3278300</v>
       </c>
       <c r="I12">
-        <v>57991240000</v>
+        <v>55303930000</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-19T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>829556699000</v>
+        <v>760450274600</v>
       </c>
       <c r="L12">
         <v>48650200</v>
@@ -993,13 +993,13 @@
         <v>-55100</v>
       </c>
       <c r="N12">
-        <v>9244158000</v>
+        <v>7107097200</v>
       </c>
       <c r="O12">
         <v>4620600</v>
       </c>
       <c r="P12">
-        <v>117965387000</v>
+        <v>93026251100</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>8400</v>
       </c>
       <c r="E13">
-        <v>19952776000</v>
+        <v>19084744900</v>
       </c>
       <c r="F13">
-        <v>37718333000</v>
+        <v>36075677300</v>
       </c>
       <c r="G13">
         <v>546917000</v>
@@ -1028,13 +1028,13 @@
         <v>3088400</v>
       </c>
       <c r="I13">
-        <v>58218026000</v>
+        <v>55707339200</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-19T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>887774725000</v>
+        <v>816157613800</v>
       </c>
       <c r="L13">
         <v>51738600</v>
@@ -1043,13 +1043,13 @@
         <v>686400</v>
       </c>
       <c r="N13">
-        <v>17765557000</v>
+        <v>16990932400</v>
       </c>
       <c r="O13">
         <v>5307000</v>
       </c>
       <c r="P13">
-        <v>135730944000</v>
+        <v>110017183500</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>55900</v>
       </c>
       <c r="E14">
-        <v>17282098000</v>
+        <v>14469513400</v>
       </c>
       <c r="F14">
-        <v>49080432000</v>
+        <v>43219898400</v>
       </c>
       <c r="G14">
-        <v>528196000</v>
+        <v>524399800</v>
       </c>
       <c r="H14">
         <v>3456100</v>
       </c>
       <c r="I14">
-        <v>66890726000</v>
+        <v>58213811600</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-19T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>954665451000</v>
+        <v>874371425400</v>
       </c>
       <c r="L14">
         <v>55194700</v>
@@ -1093,13 +1093,13 @@
         <v>1417600</v>
       </c>
       <c r="N14">
-        <v>31798334000</v>
+        <v>28750385000</v>
       </c>
       <c r="O14">
         <v>6724600</v>
       </c>
       <c r="P14">
-        <v>167529278000</v>
+        <v>138767568500</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>6500</v>
       </c>
       <c r="E15">
-        <v>19845814000</v>
+        <v>18829930900</v>
       </c>
       <c r="F15">
-        <v>72248595000</v>
+        <v>64815335700</v>
       </c>
       <c r="G15">
         <v>161585000</v>
@@ -1128,13 +1128,13 @@
         <v>5256300</v>
       </c>
       <c r="I15">
-        <v>92255994000</v>
+        <v>83806851600</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-19T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1046921445000</v>
+        <v>958178277000</v>
       </c>
       <c r="L15">
         <v>60451000</v>
@@ -1143,13 +1143,13 @@
         <v>2722600</v>
       </c>
       <c r="N15">
-        <v>52402781000</v>
+        <v>45985404800</v>
       </c>
       <c r="O15">
         <v>9447200</v>
       </c>
       <c r="P15">
-        <v>219932059000</v>
+        <v>184752973300</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>25000</v>
       </c>
       <c r="E16">
-        <v>26469116000</v>
+        <v>21293796500</v>
       </c>
       <c r="F16">
-        <v>63540170000</v>
+        <v>59593420700</v>
       </c>
       <c r="G16">
-        <v>1254308000</v>
+        <v>375188000</v>
       </c>
       <c r="H16">
         <v>4937800</v>
       </c>
       <c r="I16">
-        <v>91263594000</v>
+        <v>81262405200</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-19T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1138185039000</v>
+        <v>1039440682200</v>
       </c>
       <c r="L16">
         <v>65388800</v>
@@ -1193,13 +1193,13 @@
         <v>2198400</v>
       </c>
       <c r="N16">
-        <v>37071054000</v>
+        <v>38299624200</v>
       </c>
       <c r="O16">
         <v>11645600</v>
       </c>
       <c r="P16">
-        <v>257003113000</v>
+        <v>223052597500</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>28600</v>
       </c>
       <c r="E17">
-        <v>25697635000</v>
+        <v>25332500500</v>
       </c>
       <c r="F17">
-        <v>63157468000</v>
+        <v>60449378800</v>
       </c>
       <c r="G17">
         <v>354582000</v>
@@ -1228,13 +1228,13 @@
         <v>5039900</v>
       </c>
       <c r="I17">
-        <v>89209685000</v>
+        <v>86136461300</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-19T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1227394724000</v>
+        <v>1125577143500</v>
       </c>
       <c r="L17">
         <v>70428700</v>
@@ -1243,13 +1243,13 @@
         <v>2070300</v>
       </c>
       <c r="N17">
-        <v>37459833000</v>
+        <v>35116878300</v>
       </c>
       <c r="O17">
         <v>13715900</v>
       </c>
       <c r="P17">
-        <v>294462946000</v>
+        <v>258169475800</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>7900</v>
       </c>
       <c r="E18">
-        <v>43177440000</v>
+        <v>42731086800</v>
       </c>
       <c r="F18">
-        <v>44713367000</v>
+        <v>41431052600</v>
       </c>
       <c r="G18">
         <v>92608000</v>
@@ -1278,13 +1278,13 @@
         <v>5171600</v>
       </c>
       <c r="I18">
-        <v>87983415000</v>
+        <v>84254747400</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-19T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1315378139000</v>
+        <v>1209831890900</v>
       </c>
       <c r="L18">
         <v>75600300</v>
@@ -1293,13 +1293,13 @@
         <v>-310300</v>
       </c>
       <c r="N18">
-        <v>1535927000</v>
+        <v>-1300034200</v>
       </c>
       <c r="O18">
         <v>13405600</v>
       </c>
       <c r="P18">
-        <v>295998873000</v>
+        <v>256869441600</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>11600</v>
       </c>
       <c r="E19">
-        <v>31107268000</v>
+        <v>30870505000</v>
       </c>
       <c r="F19">
-        <v>34153211000</v>
+        <v>32980984400</v>
       </c>
       <c r="G19">
         <v>239529000</v>
@@ -1328,13 +1328,13 @@
         <v>3717600</v>
       </c>
       <c r="I19">
-        <v>65500008000</v>
+        <v>64091018400</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-19T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1380878147000</v>
+        <v>1273922909300</v>
       </c>
       <c r="L19">
         <v>79317900</v>
@@ -1343,13 +1343,13 @@
         <v>-50600</v>
       </c>
       <c r="N19">
-        <v>3045943000</v>
+        <v>2110479400</v>
       </c>
       <c r="O19">
         <v>13355000</v>
       </c>
       <c r="P19">
-        <v>299044816000</v>
+        <v>258979921000</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>4300</v>
       </c>
       <c r="E20">
-        <v>34874163000</v>
+        <v>33574563900</v>
       </c>
       <c r="F20">
-        <v>31763279000</v>
+        <v>30348395300</v>
       </c>
       <c r="G20">
-        <v>64969000</v>
+        <v>54479500</v>
       </c>
       <c r="H20">
         <v>3960100</v>
       </c>
       <c r="I20">
-        <v>66702411000</v>
+        <v>63977438700</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-19T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1447580558000</v>
+        <v>1337900348000</v>
       </c>
       <c r="L20">
         <v>83278000</v>
@@ -1393,13 +1393,13 @@
         <v>-492400</v>
       </c>
       <c r="N20">
-        <v>-3110884000</v>
+        <v>-3226168600</v>
       </c>
       <c r="O20">
         <v>12862600</v>
       </c>
       <c r="P20">
-        <v>295933932000</v>
+        <v>255753752400</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>57800</v>
       </c>
       <c r="E21">
-        <v>25663989000</v>
+        <v>23755899000</v>
       </c>
       <c r="F21">
-        <v>37615200000</v>
+        <v>36655760400</v>
       </c>
       <c r="G21">
         <v>703482000</v>
@@ -1428,13 +1428,13 @@
         <v>3418500</v>
       </c>
       <c r="I21">
-        <v>63982671000</v>
+        <v>61115141400</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-19T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1511563229000</v>
+        <v>1399015489400</v>
       </c>
       <c r="L21">
         <v>86696500</v>
@@ -1443,13 +1443,13 @@
         <v>421700</v>
       </c>
       <c r="N21">
-        <v>11951211000</v>
+        <v>12899861400</v>
       </c>
       <c r="O21">
         <v>13284300</v>
       </c>
       <c r="P21">
-        <v>307885143000</v>
+        <v>268653613800</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>4600</v>
       </c>
       <c r="E22">
-        <v>30128207000</v>
+        <v>25948690700</v>
       </c>
       <c r="F22">
-        <v>30054094000</v>
+        <v>29085863200</v>
       </c>
       <c r="G22">
         <v>101047000</v>
@@ -1478,13 +1478,13 @@
         <v>3045700</v>
       </c>
       <c r="I22">
-        <v>60283348000</v>
+        <v>55135600900</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-19T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1571846577000</v>
+        <v>1454151090300</v>
       </c>
       <c r="L22">
         <v>89742200</v>
@@ -1493,13 +1493,13 @@
         <v>-146900</v>
       </c>
       <c r="N22">
-        <v>-74113000</v>
+        <v>3137172500</v>
       </c>
       <c r="O22">
         <v>13137400</v>
       </c>
       <c r="P22">
-        <v>307811030000</v>
+        <v>271790786300</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>37800</v>
       </c>
       <c r="E23">
-        <v>29589487000</v>
+        <v>28413664000</v>
       </c>
       <c r="F23">
-        <v>28015498000</v>
+        <v>26519595400</v>
       </c>
       <c r="G23">
         <v>254629000</v>
@@ -1528,13 +1528,13 @@
         <v>3252600</v>
       </c>
       <c r="I23">
-        <v>57859614000</v>
+        <v>55187888400</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-19T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1629706191000</v>
+        <v>1509338978700</v>
       </c>
       <c r="L23">
         <v>92994800</v>
@@ -1543,13 +1543,13 @@
         <v>-170200</v>
       </c>
       <c r="N23">
-        <v>-1573989000</v>
+        <v>-1894068600</v>
       </c>
       <c r="O23">
         <v>12967200</v>
       </c>
       <c r="P23">
-        <v>306237041000</v>
+        <v>269896717700</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>6100</v>
       </c>
       <c r="E24">
-        <v>27436752000</v>
+        <v>26070219900</v>
       </c>
       <c r="F24">
-        <v>38929896000</v>
+        <v>34195135500</v>
       </c>
       <c r="G24">
         <v>183943000</v>
@@ -1578,13 +1578,13 @@
         <v>3221400</v>
       </c>
       <c r="I24">
-        <v>66550591000</v>
+        <v>60449298400</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-19T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1696256782000</v>
+        <v>1569788277100</v>
       </c>
       <c r="L24">
         <v>96216200</v>
@@ -1593,13 +1593,13 @@
         <v>381900</v>
       </c>
       <c r="N24">
-        <v>11493144000</v>
+        <v>8124915600</v>
       </c>
       <c r="O24">
         <v>13349100</v>
       </c>
       <c r="P24">
-        <v>317730185000</v>
+        <v>278021633300</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>34600</v>
       </c>
       <c r="E25">
-        <v>18174812000</v>
+        <v>17347240400</v>
       </c>
       <c r="F25">
-        <v>31835341000</v>
+        <v>29213065900</v>
       </c>
       <c r="G25">
         <v>343670000</v>
@@ -1628,13 +1628,13 @@
         <v>2620600</v>
       </c>
       <c r="I25">
-        <v>50353823000</v>
+        <v>46903976300</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-19T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1746610605000</v>
+        <v>1616692253400</v>
       </c>
       <c r="L25">
         <v>98836800</v>
@@ -1643,13 +1643,13 @@
         <v>713800</v>
       </c>
       <c r="N25">
-        <v>13660529000</v>
+        <v>11865825500</v>
       </c>
       <c r="O25">
         <v>14062900</v>
       </c>
       <c r="P25">
-        <v>331390714000</v>
+        <v>289887458800</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>21700</v>
       </c>
       <c r="E26">
-        <v>28154789000</v>
+        <v>25644601700</v>
       </c>
       <c r="F26">
-        <v>27329127000</v>
+        <v>24433225800</v>
       </c>
       <c r="G26">
         <v>340235000</v>
@@ -1678,13 +1678,13 @@
         <v>2852600</v>
       </c>
       <c r="I26">
-        <v>55824151000</v>
+        <v>50418062500</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-19T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1802434756000</v>
+        <v>1667110315900</v>
       </c>
       <c r="L26">
         <v>101689400</v>
@@ -1693,13 +1693,13 @@
         <v>-190100</v>
       </c>
       <c r="N26">
-        <v>-825662000</v>
+        <v>-1211375900</v>
       </c>
       <c r="O26">
         <v>13872800</v>
       </c>
       <c r="P26">
-        <v>330565052000</v>
+        <v>288676082900</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>20600</v>
       </c>
       <c r="E27">
-        <v>24256049000</v>
+        <v>21656551100</v>
       </c>
       <c r="F27">
-        <v>41014717000</v>
+        <v>37799935000</v>
       </c>
       <c r="G27">
         <v>522345000</v>
@@ -1728,13 +1728,13 @@
         <v>3156100</v>
       </c>
       <c r="I27">
-        <v>65793111000</v>
+        <v>59978831100</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-19T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1868227867000</v>
+        <v>1727089147000</v>
       </c>
       <c r="L27">
         <v>104845500</v>
@@ -1743,13 +1743,13 @@
         <v>752100</v>
       </c>
       <c r="N27">
-        <v>16758668000</v>
+        <v>16143383900</v>
       </c>
       <c r="O27">
         <v>14624900</v>
       </c>
       <c r="P27">
-        <v>347323720000</v>
+        <v>304819466800</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>11700</v>
       </c>
       <c r="E28">
-        <v>13534270000</v>
+        <v>12771034000</v>
       </c>
       <c r="F28">
-        <v>32880718000</v>
+        <v>32303995300</v>
       </c>
       <c r="G28">
         <v>119251000</v>
@@ -1778,13 +1778,13 @@
         <v>2633300</v>
       </c>
       <c r="I28">
-        <v>46534239000</v>
+        <v>45194280300</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-19T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1914762106000</v>
+        <v>1772283427300</v>
       </c>
       <c r="L28">
         <v>107478800</v>
@@ -1793,13 +1793,13 @@
         <v>1014400</v>
       </c>
       <c r="N28">
-        <v>19346448000</v>
+        <v>19532961300</v>
       </c>
       <c r="O28">
         <v>15639300</v>
       </c>
       <c r="P28">
-        <v>366670168000</v>
+        <v>324352428100</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>7500</v>
       </c>
       <c r="E29">
-        <v>18509819000</v>
+        <v>18049779500</v>
       </c>
       <c r="F29">
-        <v>55655249000</v>
+        <v>53594611700</v>
       </c>
       <c r="G29">
         <v>224375000</v>
@@ -1828,13 +1828,13 @@
         <v>4125100</v>
       </c>
       <c r="I29">
-        <v>74389443000</v>
+        <v>71868766200</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-19T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1989151549000</v>
+        <v>1844152193500</v>
       </c>
       <c r="L29">
         <v>111603900</v>
@@ -1843,13 +1843,13 @@
         <v>1902400</v>
       </c>
       <c r="N29">
-        <v>37145430000</v>
+        <v>35544832200</v>
       </c>
       <c r="O29">
         <v>17541700</v>
       </c>
       <c r="P29">
-        <v>403815598000</v>
+        <v>359897260300</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>59600</v>
       </c>
       <c r="E30">
-        <v>18679805000</v>
+        <v>18197787500</v>
       </c>
       <c r="F30">
-        <v>65900082000</v>
+        <v>61415071500</v>
       </c>
       <c r="G30">
         <v>983170000</v>
@@ -1878,13 +1878,13 @@
         <v>5081800</v>
       </c>
       <c r="I30">
-        <v>85563057000</v>
+        <v>80596029000</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-19T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2074714606000</v>
+        <v>1924748222500</v>
       </c>
       <c r="L30">
         <v>116685700</v>
@@ -1893,13 +1893,13 @@
         <v>2747600</v>
       </c>
       <c r="N30">
-        <v>47220277000</v>
+        <v>43217284000</v>
       </c>
       <c r="O30">
         <v>20289300</v>
       </c>
       <c r="P30">
-        <v>451035875000</v>
+        <v>403114544300</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>30100</v>
       </c>
       <c r="E31">
-        <v>21643116000</v>
+        <v>20657202900</v>
       </c>
       <c r="F31">
-        <v>57458935000</v>
+        <v>51756443200</v>
       </c>
       <c r="G31">
         <v>859214000</v>
@@ -1928,13 +1928,13 @@
         <v>4220500</v>
       </c>
       <c r="I31">
-        <v>79961265000</v>
+        <v>73272860100</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-19T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2154675871000</v>
+        <v>1998021082600</v>
       </c>
       <c r="L31">
         <v>120906200</v>
@@ -1943,13 +1943,13 @@
         <v>1865800</v>
       </c>
       <c r="N31">
-        <v>35815819000</v>
+        <v>31099240300</v>
       </c>
       <c r="O31">
         <v>22155100</v>
       </c>
       <c r="P31">
-        <v>486851694000</v>
+        <v>434213784600</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>1400</v>
       </c>
       <c r="E32">
-        <v>21846732000</v>
+        <v>21528350700</v>
       </c>
       <c r="F32">
-        <v>45460148000</v>
+        <v>40922390300</v>
       </c>
       <c r="G32">
         <v>32003000</v>
@@ -1978,13 +1978,13 @@
         <v>3767100</v>
       </c>
       <c r="I32">
-        <v>67338883000</v>
+        <v>62482744000</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-19T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2222014754000</v>
+        <v>2060503826600</v>
       </c>
       <c r="L32">
         <v>124673300</v>
@@ -1993,13 +1993,13 @@
         <v>1146900</v>
       </c>
       <c r="N32">
-        <v>23613416000</v>
+        <v>19394039600</v>
       </c>
       <c r="O32">
         <v>23302000</v>
       </c>
       <c r="P32">
-        <v>510465110000</v>
+        <v>453607824200</v>
       </c>
     </row>
     <row r="33">
@@ -2016,25 +2016,25 @@
         <v>13400</v>
       </c>
       <c r="E33">
-        <v>25171434000</v>
+        <v>22219089300</v>
       </c>
       <c r="F33">
-        <v>52505098000</v>
+        <v>46718390500</v>
       </c>
       <c r="G33">
-        <v>280752000</v>
+        <v>268764000</v>
       </c>
       <c r="H33">
         <v>3907100</v>
       </c>
       <c r="I33">
-        <v>77957284000</v>
+        <v>69206243800</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-19T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2299972038000</v>
+        <v>2129710070400</v>
       </c>
       <c r="L33">
         <v>128580400</v>
@@ -2043,13 +2043,13 @@
         <v>1258900</v>
       </c>
       <c r="N33">
-        <v>27333664000</v>
+        <v>24499301200</v>
       </c>
       <c r="O33">
         <v>24560900</v>
       </c>
       <c r="P33">
-        <v>537798774000</v>
+        <v>478107125400</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>12500</v>
       </c>
       <c r="E34">
-        <v>30617612000</v>
+        <v>29330200700</v>
       </c>
       <c r="F34">
-        <v>38441795000</v>
+        <v>31205338700</v>
       </c>
       <c r="G34">
         <v>107811000</v>
@@ -2078,13 +2078,13 @@
         <v>3890400</v>
       </c>
       <c r="I34">
-        <v>69167218000</v>
+        <v>60643350400</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-19T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2369139256000</v>
+        <v>2190353420800</v>
       </c>
       <c r="L34">
         <v>132470800</v>
@@ -2093,13 +2093,13 @@
         <v>450500</v>
       </c>
       <c r="N34">
-        <v>7824183000</v>
+        <v>1875138000</v>
       </c>
       <c r="O34">
         <v>25011400</v>
       </c>
       <c r="P34">
-        <v>545622957000</v>
+        <v>479982263400</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>13700</v>
       </c>
       <c r="E35">
-        <v>45819271000</v>
+        <v>44203188700</v>
       </c>
       <c r="F35">
-        <v>31416316000</v>
+        <v>28739995000</v>
       </c>
       <c r="G35">
         <v>153194000</v>
@@ -2128,13 +2128,13 @@
         <v>4384400</v>
       </c>
       <c r="I35">
-        <v>77388781000</v>
+        <v>73096377700</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-19T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2446528037000</v>
+        <v>2263449798500</v>
       </c>
       <c r="L35">
         <v>136855200</v>
@@ -2143,13 +2143,13 @@
         <v>-1134500</v>
       </c>
       <c r="N35">
-        <v>-14402955000</v>
+        <v>-15463193700</v>
       </c>
       <c r="O35">
         <v>23876900</v>
       </c>
       <c r="P35">
-        <v>531220002000</v>
+        <v>464519069700</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>15200</v>
       </c>
       <c r="E36">
-        <v>28951129000</v>
+        <v>27862618600</v>
       </c>
       <c r="F36">
-        <v>36872350000</v>
+        <v>32774751700</v>
       </c>
       <c r="G36">
         <v>510897000</v>
@@ -2178,13 +2178,13 @@
         <v>3304900</v>
       </c>
       <c r="I36">
-        <v>66334376000</v>
+        <v>61148267300</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-19T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>2512862413000</v>
+        <v>2324598065800</v>
       </c>
       <c r="L36">
         <v>140160100</v>
@@ -2193,13 +2193,13 @@
         <v>-130500</v>
       </c>
       <c r="N36">
-        <v>7921221000</v>
+        <v>4912133100</v>
       </c>
       <c r="O36">
         <v>23746400</v>
       </c>
       <c r="P36">
-        <v>539141223000</v>
+        <v>469431202800</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>41300</v>
       </c>
       <c r="E37">
-        <v>28655655000</v>
+        <v>28170840300</v>
       </c>
       <c r="F37">
-        <v>30413638000</v>
+        <v>28285568200</v>
       </c>
       <c r="G37">
         <v>818309000</v>
@@ -2228,13 +2228,13 @@
         <v>3268700</v>
       </c>
       <c r="I37">
-        <v>59887602000</v>
+        <v>57274717500</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-19T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>2572750015000</v>
+        <v>2381872783300</v>
       </c>
       <c r="L37">
         <v>143428800</v>
@@ -2243,13 +2243,13 @@
         <v>-223800</v>
       </c>
       <c r="N37">
-        <v>1757983000</v>
+        <v>114727900</v>
       </c>
       <c r="O37">
         <v>23522600</v>
       </c>
       <c r="P37">
-        <v>540899206000</v>
+        <v>469545930700</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>10700</v>
       </c>
       <c r="E38">
-        <v>24173618000</v>
+        <v>21926267600</v>
       </c>
       <c r="F38">
-        <v>35915786000</v>
+        <v>34477925300</v>
       </c>
       <c r="G38">
-        <v>151075000</v>
+        <v>131894200</v>
       </c>
       <c r="H38">
         <v>3077500</v>
       </c>
       <c r="I38">
-        <v>60240479000</v>
+        <v>56536087100</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-19T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>2632990494000</v>
+        <v>2438408870400</v>
       </c>
       <c r="L38">
         <v>146506300</v>
@@ -2293,13 +2293,13 @@
         <v>347400</v>
       </c>
       <c r="N38">
-        <v>11742168000</v>
+        <v>12551657700</v>
       </c>
       <c r="O38">
         <v>23870000</v>
       </c>
       <c r="P38">
-        <v>552641374000</v>
+        <v>482097588400</v>
       </c>
     </row>
     <row r="39">
@@ -2316,25 +2316,25 @@
         <v>14900</v>
       </c>
       <c r="E39">
-        <v>29702830000</v>
+        <v>28452581500</v>
       </c>
       <c r="F39">
-        <v>27106739000</v>
+        <v>25315831700</v>
       </c>
       <c r="G39">
-        <v>329510000</v>
+        <v>321118400</v>
       </c>
       <c r="H39">
         <v>3167200</v>
       </c>
       <c r="I39">
-        <v>57139079000</v>
+        <v>54089531600</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-19T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>2690129573000</v>
+        <v>2492498402000</v>
       </c>
       <c r="L39">
         <v>149673500</v>
@@ -2343,13 +2343,13 @@
         <v>-138700</v>
       </c>
       <c r="N39">
-        <v>-2596091000</v>
+        <v>-3136749800</v>
       </c>
       <c r="O39">
         <v>23731300</v>
       </c>
       <c r="P39">
-        <v>550045283000</v>
+        <v>478960838600</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>29700</v>
       </c>
       <c r="E40">
-        <v>35751355000</v>
+        <v>33879928300</v>
       </c>
       <c r="F40">
-        <v>24355124000</v>
+        <v>21588593300</v>
       </c>
       <c r="G40">
         <v>423080000</v>
@@ -2378,13 +2378,13 @@
         <v>3164100</v>
       </c>
       <c r="I40">
-        <v>60529559000</v>
+        <v>55891601600</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-19T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>2750659132000</v>
+        <v>2548390003600</v>
       </c>
       <c r="L40">
         <v>152837600</v>
@@ -2393,13 +2393,13 @@
         <v>-756600</v>
       </c>
       <c r="N40">
-        <v>-11396231000</v>
+        <v>-12291335000</v>
       </c>
       <c r="O40">
         <v>22974700</v>
       </c>
       <c r="P40">
-        <v>538649052000</v>
+        <v>466669503600</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>28000</v>
       </c>
       <c r="E41">
-        <v>36540875000</v>
+        <v>34241976200</v>
       </c>
       <c r="F41">
-        <v>23881178000</v>
+        <v>21642019400</v>
       </c>
       <c r="G41">
         <v>687587000</v>
@@ -2428,13 +2428,13 @@
         <v>3565700</v>
       </c>
       <c r="I41">
-        <v>61109640000</v>
+        <v>56571582600</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-19T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>2811768772000</v>
+        <v>2604961586200</v>
       </c>
       <c r="L41">
         <v>156403300</v>
@@ -2443,13 +2443,13 @@
         <v>-949300</v>
       </c>
       <c r="N41">
-        <v>-12659697000</v>
+        <v>-12599956800</v>
       </c>
       <c r="O41">
         <v>22025400</v>
       </c>
       <c r="P41">
-        <v>525989355000</v>
+        <v>454069546800</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>23900</v>
       </c>
       <c r="E42">
-        <v>52983202000</v>
+        <v>43216378600</v>
       </c>
       <c r="F42">
-        <v>22789307000</v>
+        <v>19776622700</v>
       </c>
       <c r="G42">
         <v>471663000</v>
@@ -2478,13 +2478,13 @@
         <v>4303200</v>
       </c>
       <c r="I42">
-        <v>76244172000</v>
+        <v>63464664300</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-19T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2888012944000</v>
+        <v>2668426250500</v>
       </c>
       <c r="L42">
         <v>160706500</v>
@@ -2493,13 +2493,13 @@
         <v>-1941100</v>
       </c>
       <c r="N42">
-        <v>-30193895000</v>
+        <v>-23439755900</v>
       </c>
       <c r="O42">
         <v>20084300</v>
       </c>
       <c r="P42">
-        <v>495795460000</v>
+        <v>430629790900</v>
       </c>
     </row>
     <row r="43">
@@ -2516,25 +2516,25 @@
         <v>37900</v>
       </c>
       <c r="E43">
-        <v>28335032000</v>
+        <v>27568099700</v>
       </c>
       <c r="F43">
-        <v>33273622000</v>
+        <v>29781317800</v>
       </c>
       <c r="G43">
-        <v>966115000</v>
+        <v>524557000</v>
       </c>
       <c r="H43">
         <v>3364900</v>
       </c>
       <c r="I43">
-        <v>62574769000</v>
+        <v>57873974500</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-19T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>2950587713000</v>
+        <v>2726300225000</v>
       </c>
       <c r="L43">
         <v>164071400</v>
@@ -2543,13 +2543,13 @@
         <v>-79800</v>
       </c>
       <c r="N43">
-        <v>4938590000</v>
+        <v>2213218100</v>
       </c>
       <c r="O43">
         <v>20004500</v>
       </c>
       <c r="P43">
-        <v>500734050000</v>
+        <v>432843009000</v>
       </c>
     </row>
     <row r="44">
@@ -2566,25 +2566,25 @@
         <v>6900</v>
       </c>
       <c r="E44">
-        <v>19736105000</v>
+        <v>17856686300</v>
       </c>
       <c r="F44">
-        <v>31338944000</v>
+        <v>29829554900</v>
       </c>
       <c r="G44">
-        <v>187895000</v>
+        <v>14069000</v>
       </c>
       <c r="H44">
         <v>2722100</v>
       </c>
       <c r="I44">
-        <v>51262944000</v>
+        <v>47700310200</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-19T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3001850657000</v>
+        <v>2774000535200</v>
       </c>
       <c r="L44">
         <v>166793500</v>
@@ -2593,13 +2593,13 @@
         <v>-119800</v>
       </c>
       <c r="N44">
-        <v>11602839000</v>
+        <v>11972868600</v>
       </c>
       <c r="O44">
         <v>19884700</v>
       </c>
       <c r="P44">
-        <v>512336889000</v>
+        <v>444815877600</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>15000</v>
       </c>
       <c r="E45">
-        <v>19156930000</v>
+        <v>18438948700</v>
       </c>
       <c r="F45">
-        <v>18592272000</v>
+        <v>17289975600</v>
       </c>
       <c r="G45">
         <v>365676000</v>
@@ -2628,13 +2628,13 @@
         <v>2263900</v>
       </c>
       <c r="I45">
-        <v>38114878000</v>
+        <v>36094600300</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-19T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3039965535000</v>
+        <v>2810095135500</v>
       </c>
       <c r="L45">
         <v>169057400</v>
@@ -2643,13 +2643,13 @@
         <v>-239300</v>
       </c>
       <c r="N45">
-        <v>-564658000</v>
+        <v>-1148973100</v>
       </c>
       <c r="O45">
         <v>19645400</v>
       </c>
       <c r="P45">
-        <v>511772231000</v>
+        <v>443666904500</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>4200</v>
       </c>
       <c r="E46">
-        <v>25727241000</v>
+        <v>22396674900</v>
       </c>
       <c r="F46">
-        <v>18366862000</v>
+        <v>17856872500</v>
       </c>
       <c r="G46">
-        <v>59099000</v>
+        <v>57600500</v>
       </c>
       <c r="H46">
         <v>2618600</v>
       </c>
       <c r="I46">
-        <v>44153202000</v>
+        <v>40311147900</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-19T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>3084118737000</v>
+        <v>2850406283400</v>
       </c>
       <c r="L46">
         <v>171676000</v>
@@ -2693,13 +2693,13 @@
         <v>-648000</v>
       </c>
       <c r="N46">
-        <v>-7360379000</v>
+        <v>-4539802400</v>
       </c>
       <c r="O46">
         <v>18997400</v>
       </c>
       <c r="P46">
-        <v>504411852000</v>
+        <v>439127102100</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>900</v>
       </c>
       <c r="E47">
-        <v>25763630000</v>
+        <v>22585311500</v>
       </c>
       <c r="F47">
-        <v>14350161000</v>
+        <v>13695416400</v>
       </c>
       <c r="G47">
         <v>8991000</v>
@@ -2728,13 +2728,13 @@
         <v>2181000</v>
       </c>
       <c r="I47">
-        <v>40122782000</v>
+        <v>36289718900</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-19T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>3124241519000</v>
+        <v>2886696002300</v>
       </c>
       <c r="L47">
         <v>173857000</v>
@@ -2743,13 +2743,13 @@
         <v>-582100</v>
       </c>
       <c r="N47">
-        <v>-11413469000</v>
+        <v>-8889895100</v>
       </c>
       <c r="O47">
         <v>18415300</v>
       </c>
       <c r="P47">
-        <v>492998383000</v>
+        <v>430237207000</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>1800</v>
       </c>
       <c r="E48">
-        <v>26189094000</v>
+        <v>21485702100</v>
       </c>
       <c r="F48">
-        <v>17941069000</v>
+        <v>15469642900</v>
       </c>
       <c r="G48">
         <v>46599000</v>
@@ -2778,13 +2778,13 @@
         <v>2458900</v>
       </c>
       <c r="I48">
-        <v>44176762000</v>
+        <v>37001944000</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-19T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>3168418281000</v>
+        <v>2923697946300</v>
       </c>
       <c r="L48">
         <v>176315900</v>
@@ -2793,13 +2793,13 @@
         <v>-623700</v>
       </c>
       <c r="N48">
-        <v>-8248025000</v>
+        <v>-6016059200</v>
       </c>
       <c r="O48">
         <v>17791600</v>
       </c>
       <c r="P48">
-        <v>484750358000</v>
+        <v>424221147800</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>2600</v>
       </c>
       <c r="E49">
-        <v>39738812000</v>
+        <v>35621533400</v>
       </c>
       <c r="F49">
-        <v>15805872000</v>
+        <v>14761217700</v>
       </c>
       <c r="G49">
         <v>87167000</v>
@@ -2828,13 +2828,13 @@
         <v>3046500</v>
       </c>
       <c r="I49">
-        <v>55631851000</v>
+        <v>50469918100</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-19T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>3224050132000</v>
+        <v>2974167864400</v>
       </c>
       <c r="L49">
         <v>179362400</v>
@@ -2843,13 +2843,13 @@
         <v>-1417900</v>
       </c>
       <c r="N49">
-        <v>-23932940000</v>
+        <v>-20860315700</v>
       </c>
       <c r="O49">
         <v>16373700</v>
       </c>
       <c r="P49">
-        <v>460817418000</v>
+        <v>403360832100</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>1600</v>
       </c>
       <c r="E50">
-        <v>23173098000</v>
+        <v>20352321600</v>
       </c>
       <c r="F50">
-        <v>24369715000</v>
+        <v>22332054700</v>
       </c>
       <c r="G50">
         <v>12908000</v>
@@ -2878,13 +2878,13 @@
         <v>2547400</v>
       </c>
       <c r="I50">
-        <v>47555721000</v>
+        <v>42697284300</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-19T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>3271605853000</v>
+        <v>3016865148700</v>
       </c>
       <c r="L50">
         <v>181909800</v>
@@ -2893,13 +2893,13 @@
         <v>-285400</v>
       </c>
       <c r="N50">
-        <v>1196617000</v>
+        <v>1979733100</v>
       </c>
       <c r="O50">
         <v>16088300</v>
       </c>
       <c r="P50">
-        <v>462014035000</v>
+        <v>405340565200</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>31700</v>
       </c>
       <c r="E51">
-        <v>18652891000</v>
+        <v>16181265100</v>
       </c>
       <c r="F51">
-        <v>15714714000</v>
+        <v>14172757500</v>
       </c>
       <c r="G51">
         <v>504840999.99999994</v>
@@ -2928,13 +2928,13 @@
         <v>1994400</v>
       </c>
       <c r="I51">
-        <v>34872446000</v>
+        <v>30858863600</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-19T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>3306478299000</v>
+        <v>3047724012300</v>
       </c>
       <c r="L51">
         <v>183904200</v>
@@ -2943,13 +2943,13 @@
         <v>-251900</v>
       </c>
       <c r="N51">
-        <v>-2938177000</v>
+        <v>-2008507600</v>
       </c>
       <c r="O51">
         <v>15836400</v>
       </c>
       <c r="P51">
-        <v>459075858000</v>
+        <v>403332057600</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>10100</v>
       </c>
       <c r="E52">
-        <v>17257094000</v>
+        <v>15972979400</v>
       </c>
       <c r="F52">
-        <v>38851687000</v>
+        <v>36978062500</v>
       </c>
       <c r="G52">
         <v>205749000</v>
@@ -2978,13 +2978,13 @@
         <v>3014000</v>
       </c>
       <c r="I52">
-        <v>56314530000</v>
+        <v>53156790900</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-19T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>3362792829000</v>
+        <v>3100880803200</v>
       </c>
       <c r="L52">
         <v>186918200</v>
@@ -2993,13 +2993,13 @@
         <v>951700</v>
       </c>
       <c r="N52">
-        <v>21594593000</v>
+        <v>21005083100</v>
       </c>
       <c r="O52">
         <v>16788100</v>
       </c>
       <c r="P52">
-        <v>480670451000</v>
+        <v>424337140700</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>7100</v>
       </c>
       <c r="E53">
-        <v>24762131000</v>
+        <v>24271222400</v>
       </c>
       <c r="F53">
-        <v>23324118000</v>
+        <v>21591352500</v>
       </c>
       <c r="G53">
         <v>154489000</v>
@@ -3028,13 +3028,13 @@
         <v>2615900</v>
       </c>
       <c r="I53">
-        <v>48240738000</v>
+        <v>46017063900</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-19T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>3411033567000</v>
+        <v>3146897867100</v>
       </c>
       <c r="L53">
         <v>189534100</v>
@@ -3043,13 +3043,13 @@
         <v>-91600</v>
       </c>
       <c r="N53">
-        <v>-1438013000</v>
+        <v>-2679869900</v>
       </c>
       <c r="O53">
         <v>16696500</v>
       </c>
       <c r="P53">
-        <v>479232438000</v>
+        <v>421657270800</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>85300</v>
       </c>
       <c r="E54">
-        <v>22112329000</v>
+        <v>21900341200</v>
       </c>
       <c r="F54">
-        <v>15050666000</v>
+        <v>11805314600</v>
       </c>
       <c r="G54">
         <v>3121885000</v>
@@ -3078,13 +3078,13 @@
         <v>2021800</v>
       </c>
       <c r="I54">
-        <v>40284880000</v>
+        <v>36827540800</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-19T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>3451318447000</v>
+        <v>3183725407900</v>
       </c>
       <c r="L54">
         <v>191555900</v>
@@ -3093,13 +3093,13 @@
         <v>-460300</v>
       </c>
       <c r="N54">
-        <v>-7061663000</v>
+        <v>-10095026600</v>
       </c>
       <c r="O54">
         <v>16236200</v>
       </c>
       <c r="P54">
-        <v>472170775000</v>
+        <v>411562244200</v>
       </c>
     </row>
     <row r="55">
@@ -3116,25 +3116,25 @@
         <v>13600</v>
       </c>
       <c r="E55">
-        <v>54805025000</v>
+        <v>53085346400</v>
       </c>
       <c r="F55">
-        <v>21467636000</v>
+        <v>18705900500</v>
       </c>
       <c r="G55">
-        <v>610640000</v>
+        <v>468182600</v>
       </c>
       <c r="H55">
         <v>4007500</v>
       </c>
       <c r="I55">
-        <v>76883301000</v>
+        <v>72259429500</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-19T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>3528201748000</v>
+        <v>3255984837400</v>
       </c>
       <c r="L55">
         <v>195563400</v>
@@ -3143,13 +3143,13 @@
         <v>-2071300</v>
       </c>
       <c r="N55">
-        <v>-33337389000</v>
+        <v>-34379445900</v>
       </c>
       <c r="O55">
         <v>14164900</v>
       </c>
       <c r="P55">
-        <v>438833386000</v>
+        <v>377182798300</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>30700</v>
       </c>
       <c r="E56">
-        <v>46603813000</v>
+        <v>44040778600</v>
       </c>
       <c r="F56">
-        <v>15655225000</v>
+        <v>14698882300</v>
       </c>
       <c r="G56">
         <v>297824000</v>
@@ -3178,13 +3178,13 @@
         <v>3673500</v>
       </c>
       <c r="I56">
-        <v>62556862000</v>
+        <v>59037484900</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-19T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>3590758610000</v>
+        <v>3315022322300</v>
       </c>
       <c r="L56">
         <v>199236900</v>
@@ -3193,13 +3193,13 @@
         <v>-2140800</v>
       </c>
       <c r="N56">
-        <v>-30948588000</v>
+        <v>-29341896300</v>
       </c>
       <c r="O56">
         <v>12024100</v>
       </c>
       <c r="P56">
-        <v>407884798000</v>
+        <v>347840902000</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>18000</v>
       </c>
       <c r="E57">
-        <v>74716380000</v>
+        <v>67767535800</v>
       </c>
       <c r="F57">
-        <v>12690252000</v>
+        <v>12072270600</v>
       </c>
       <c r="G57">
         <v>495158000</v>
@@ -3228,13 +3228,13 @@
         <v>4983200</v>
       </c>
       <c r="I57">
-        <v>87901790000</v>
+        <v>80334964400</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-19T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>3678660400000</v>
+        <v>3395357286700</v>
       </c>
       <c r="L57">
         <v>204220100</v>
@@ -3243,13 +3243,13 @@
         <v>-3715200</v>
       </c>
       <c r="N57">
-        <v>-62026128000</v>
+        <v>-55695265200</v>
       </c>
       <c r="O57">
         <v>8308900</v>
       </c>
       <c r="P57">
-        <v>345858670000</v>
+        <v>292145636800</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>1900</v>
       </c>
       <c r="E58">
-        <v>88885008000</v>
+        <v>79933068900</v>
       </c>
       <c r="F58">
-        <v>16804182000</v>
+        <v>15258029700</v>
       </c>
       <c r="G58">
         <v>31184000</v>
@@ -3278,13 +3278,13 @@
         <v>6277300</v>
       </c>
       <c r="I58">
-        <v>105720374000</v>
+        <v>95222282600</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-19T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>3784380774000</v>
+        <v>3490579569300</v>
       </c>
       <c r="L58">
         <v>210497400</v>
@@ -3293,13 +3293,13 @@
         <v>-4367000</v>
       </c>
       <c r="N58">
-        <v>-72080826000</v>
+        <v>-64675039200</v>
       </c>
       <c r="O58">
         <v>3941900</v>
       </c>
       <c r="P58">
-        <v>273777844000</v>
+        <v>227470597600</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>29300</v>
       </c>
       <c r="E59">
-        <v>51172796000</v>
+        <v>49550719700</v>
       </c>
       <c r="F59">
-        <v>21104708000</v>
+        <v>17991024800</v>
       </c>
       <c r="G59">
         <v>340558000</v>
@@ -3328,13 +3328,13 @@
         <v>4268500</v>
       </c>
       <c r="I59">
-        <v>72618062000</v>
+        <v>67882302500</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-19T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>3856998836000</v>
+        <v>3558461871800</v>
       </c>
       <c r="L59">
         <v>214765900</v>
@@ -3343,13 +3343,13 @@
         <v>-2173600</v>
       </c>
       <c r="N59">
-        <v>-30068088000</v>
+        <v>-31559694900</v>
       </c>
       <c r="O59">
         <v>1768300</v>
       </c>
       <c r="P59">
-        <v>243709756000</v>
+        <v>195910902700</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>1900</v>
       </c>
       <c r="E60">
-        <v>42710476000</v>
+        <v>40995292900</v>
       </c>
       <c r="F60">
-        <v>23631918000</v>
+        <v>21306345900</v>
       </c>
       <c r="G60">
         <v>9791000</v>
@@ -3378,13 +3378,13 @@
         <v>3871900</v>
       </c>
       <c r="I60">
-        <v>66352185000</v>
+        <v>62311429800</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-19T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>3923351021000</v>
+        <v>3620773301600</v>
       </c>
       <c r="L60">
         <v>218637800</v>
@@ -3393,13 +3393,13 @@
         <v>-1493600</v>
       </c>
       <c r="N60">
-        <v>-19078558000</v>
+        <v>-19688947000</v>
       </c>
       <c r="O60">
         <v>274700</v>
       </c>
       <c r="P60">
-        <v>224631198000</v>
+        <v>176221955700</v>
       </c>
     </row>
     <row r="61">
@@ -3416,25 +3416,25 @@
         <v>55000</v>
       </c>
       <c r="E61">
-        <v>27769711000</v>
+        <v>27208872400</v>
       </c>
       <c r="F61">
-        <v>48933625000</v>
+        <v>44181182200</v>
       </c>
       <c r="G61">
-        <v>1215892000</v>
+        <v>857151100</v>
       </c>
       <c r="H61">
         <v>3895900</v>
       </c>
       <c r="I61">
-        <v>77919228000</v>
+        <v>72247205700</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-19T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>4001270249000</v>
+        <v>3693020507300</v>
       </c>
       <c r="L61">
         <v>222533700</v>
@@ -3443,13 +3443,13 @@
         <v>505500</v>
       </c>
       <c r="N61">
-        <v>21163914000</v>
+        <v>16972309800</v>
       </c>
       <c r="O61">
         <v>780200</v>
       </c>
       <c r="P61">
-        <v>245795112000</v>
+        <v>193194265500</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>3900</v>
       </c>
       <c r="E62">
-        <v>21036667000</v>
+        <v>20512791400</v>
       </c>
       <c r="F62">
-        <v>31167356000</v>
+        <v>28038787700</v>
       </c>
       <c r="G62">
         <v>64645000</v>
@@ -3478,13 +3478,13 @@
         <v>2989800</v>
       </c>
       <c r="I62">
-        <v>52268668000</v>
+        <v>48616224100</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-19T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>4053538917000</v>
+        <v>3741636731400</v>
       </c>
       <c r="L62">
         <v>225523500</v>
@@ -3493,13 +3493,13 @@
         <v>652300</v>
       </c>
       <c r="N62">
-        <v>10130689000</v>
+        <v>7525996300</v>
       </c>
       <c r="O62">
         <v>1432500</v>
       </c>
       <c r="P62">
-        <v>255925801000</v>
+        <v>200720261800</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>4200</v>
       </c>
       <c r="E63">
-        <v>17541724000</v>
+        <v>16558508200</v>
       </c>
       <c r="F63">
-        <v>22469812000</v>
+        <v>18064921300</v>
       </c>
       <c r="G63">
         <v>40447000</v>
@@ -3528,13 +3528,13 @@
         <v>2317000</v>
       </c>
       <c r="I63">
-        <v>40051983000</v>
+        <v>34663876500</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-19T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>4093590900000</v>
+        <v>3776300607900</v>
       </c>
       <c r="L63">
         <v>227840500</v>
@@ -3543,13 +3543,13 @@
         <v>663800</v>
       </c>
       <c r="N63">
-        <v>4928088000</v>
+        <v>1506413100</v>
       </c>
       <c r="O63">
         <v>2096300</v>
       </c>
       <c r="P63">
-        <v>260853889000</v>
+        <v>202226674900</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>5000</v>
       </c>
       <c r="E64">
-        <v>18250144000</v>
+        <v>17566927900</v>
       </c>
       <c r="F64">
-        <v>16926437000</v>
+        <v>15429235700</v>
       </c>
       <c r="G64">
         <v>31476000</v>
@@ -3578,13 +3578,13 @@
         <v>1842100</v>
       </c>
       <c r="I64">
-        <v>35208057000</v>
+        <v>33027639600</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-19T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>4128798957000</v>
+        <v>3809328247500</v>
       </c>
       <c r="L64">
         <v>229682600</v>
@@ -3593,13 +3593,13 @@
         <v>-207500</v>
       </c>
       <c r="N64">
-        <v>-1323707000</v>
+        <v>-2137692200</v>
       </c>
       <c r="O64">
         <v>1888800</v>
       </c>
       <c r="P64">
-        <v>259530182000</v>
+        <v>200088982700</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>3000</v>
       </c>
       <c r="E65">
-        <v>21779498000</v>
+        <v>20837241200</v>
       </c>
       <c r="F65">
-        <v>14576770000</v>
+        <v>12646702000</v>
       </c>
       <c r="G65">
         <v>38257000</v>
@@ -3628,13 +3628,13 @@
         <v>1802500</v>
       </c>
       <c r="I65">
-        <v>36394525000</v>
+        <v>33522200200</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-19T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>4165193482000</v>
+        <v>3842850447700</v>
       </c>
       <c r="L65">
         <v>231485100</v>
@@ -3643,13 +3643,13 @@
         <v>-509700</v>
       </c>
       <c r="N65">
-        <v>-7202728000</v>
+        <v>-8190539200</v>
       </c>
       <c r="O65">
         <v>1379100</v>
       </c>
       <c r="P65">
-        <v>252327454000</v>
+        <v>191898443500</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>22600</v>
       </c>
       <c r="E66">
-        <v>26989877000</v>
+        <v>25223645000</v>
       </c>
       <c r="F66">
-        <v>8293369000</v>
+        <v>6581083000</v>
       </c>
       <c r="G66">
         <v>327750000</v>
@@ -3678,13 +3678,13 @@
         <v>1914500</v>
       </c>
       <c r="I66">
-        <v>35610996000</v>
+        <v>32132478000</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-19T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>4200804478000</v>
+        <v>3874982925700</v>
       </c>
       <c r="L66">
         <v>233399600</v>
@@ -3693,13 +3693,13 @@
         <v>-857500</v>
       </c>
       <c r="N66">
-        <v>-18696508000</v>
+        <v>-18642562000</v>
       </c>
       <c r="O66">
         <v>521600</v>
       </c>
       <c r="P66">
-        <v>233630946000</v>
+        <v>173255881500</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>72600</v>
       </c>
       <c r="E67">
-        <v>33989737000</v>
+        <v>30755974000</v>
       </c>
       <c r="F67">
-        <v>11199937000</v>
+        <v>10247490400</v>
       </c>
       <c r="G67">
         <v>432542000</v>
@@ -3728,13 +3728,13 @@
         <v>2503700</v>
       </c>
       <c r="I67">
-        <v>45622216000</v>
+        <v>41436006400</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-19T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>4246426694000</v>
+        <v>3916418932100</v>
       </c>
       <c r="L67">
         <v>235903300</v>
@@ -3743,13 +3743,13 @@
         <v>-1228500</v>
       </c>
       <c r="N67">
-        <v>-22789800000</v>
+        <v>-20508483600</v>
       </c>
       <c r="O67">
         <v>-706900</v>
       </c>
       <c r="P67">
-        <v>210841146000</v>
+        <v>152747397900</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>7900</v>
       </c>
       <c r="E68">
-        <v>38443571000</v>
+        <v>37783731500</v>
       </c>
       <c r="F68">
-        <v>12990088000</v>
+        <v>11406373300</v>
       </c>
       <c r="G68">
         <v>276540000</v>
@@ -3778,13 +3778,13 @@
         <v>2725200</v>
       </c>
       <c r="I68">
-        <v>51710199000</v>
+        <v>49466644800</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-19T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>4298136893000</v>
+        <v>3965885576900</v>
       </c>
       <c r="L68">
         <v>238628500</v>
@@ -3793,13 +3793,13 @@
         <v>-1459900</v>
       </c>
       <c r="N68">
-        <v>-25453483000</v>
+        <v>-26377358200</v>
       </c>
       <c r="O68">
         <v>-2166800</v>
       </c>
       <c r="P68">
-        <v>185387663000</v>
+        <v>126370039700</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>18200</v>
       </c>
       <c r="E69">
-        <v>23956744000</v>
+        <v>23267034400</v>
       </c>
       <c r="F69">
-        <v>15835741000</v>
+        <v>12222657700</v>
       </c>
       <c r="G69">
         <v>279440000</v>
@@ -3828,13 +3828,13 @@
         <v>2625900</v>
       </c>
       <c r="I69">
-        <v>40071925000</v>
+        <v>35769132100</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-19T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>4338208818000</v>
+        <v>4001654709000</v>
       </c>
       <c r="L69">
         <v>241254400</v>
@@ -3843,13 +3843,13 @@
         <v>-1010700</v>
       </c>
       <c r="N69">
-        <v>-8121003000</v>
+        <v>-11044376700</v>
       </c>
       <c r="O69">
         <v>-3177500</v>
       </c>
       <c r="P69">
-        <v>177266660000</v>
+        <v>115325663000</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2023-01-19T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>4338234063000</v>
+        <v>4001679954000</v>
       </c>
       <c r="L70">
         <v>241255300</v>
@@ -3899,7 +3899,7 @@
         <v>-3176600</v>
       </c>
       <c r="P70">
-        <v>177291905000</v>
+        <v>115350908000</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>263200</v>
       </c>
       <c r="E71">
-        <v>143706142000</v>
+        <v>133476082300</v>
       </c>
       <c r="F71">
-        <v>60705624000</v>
+        <v>60044186100</v>
       </c>
       <c r="G71">
-        <v>4742639000</v>
+        <v>4707174500</v>
       </c>
       <c r="H71">
         <v>12520900</v>
       </c>
       <c r="I71">
-        <v>209154405000</v>
+        <v>198227442900</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-19T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>4547388468000</v>
+        <v>4199907396900</v>
       </c>
       <c r="L71">
         <v>253776200</v>
@@ -3943,13 +3943,13 @@
         <v>-4816900</v>
       </c>
       <c r="N71">
-        <v>-83000518000</v>
+        <v>-73431896200</v>
       </c>
       <c r="O71">
         <v>-7993500</v>
       </c>
       <c r="P71">
-        <v>94291387000</v>
+        <v>41919011800</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>10400</v>
       </c>
       <c r="E72">
-        <v>61979044000</v>
+        <v>57286741000</v>
       </c>
       <c r="F72">
-        <v>29656061000</v>
+        <v>28966850900</v>
       </c>
       <c r="G72">
         <v>87475000</v>
@@ -3978,13 +3978,13 @@
         <v>4947100</v>
       </c>
       <c r="I72">
-        <v>91722580000</v>
+        <v>86341066900</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-19T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>4639111048000</v>
+        <v>4286248463800</v>
       </c>
       <c r="L72">
         <v>258723300</v>
@@ -3993,13 +3993,13 @@
         <v>-1787900</v>
       </c>
       <c r="N72">
-        <v>-32322983000</v>
+        <v>-28319890100</v>
       </c>
       <c r="O72">
         <v>-9781400</v>
       </c>
       <c r="P72">
-        <v>61968404000</v>
+        <v>13599121700</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>8600</v>
       </c>
       <c r="E73">
-        <v>38733255000</v>
+        <v>35669821500</v>
       </c>
       <c r="F73">
-        <v>51648840000</v>
+        <v>48719272500</v>
       </c>
       <c r="G73">
         <v>71098000</v>
@@ -4028,13 +4028,13 @@
         <v>4971700</v>
       </c>
       <c r="I73">
-        <v>90453193000</v>
+        <v>84460192000</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-19T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>4729564241000</v>
+        <v>4370708655800</v>
       </c>
       <c r="L73">
         <v>263695000</v>
@@ -4043,13 +4043,13 @@
         <v>331300</v>
       </c>
       <c r="N73">
-        <v>12915585000</v>
+        <v>13049451000</v>
       </c>
       <c r="O73">
         <v>-9450100</v>
       </c>
       <c r="P73">
-        <v>74883989000</v>
+        <v>26648572700</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>6500</v>
       </c>
       <c r="E74">
-        <v>34994733000</v>
+        <v>33696932100</v>
       </c>
       <c r="F74">
-        <v>53730464000</v>
+        <v>51355141700</v>
       </c>
       <c r="G74">
-        <v>98230000</v>
+        <v>56272000</v>
       </c>
       <c r="H74">
         <v>5019100</v>
       </c>
       <c r="I74">
-        <v>88823427000</v>
+        <v>85108345800</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-19T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>4818387668000</v>
+        <v>4455817001600</v>
       </c>
       <c r="L74">
         <v>268714100</v>
@@ -4093,13 +4093,13 @@
         <v>1164200</v>
       </c>
       <c r="N74">
-        <v>18735731000</v>
+        <v>17658209600</v>
       </c>
       <c r="O74">
         <v>-8285900</v>
       </c>
       <c r="P74">
-        <v>93619720000</v>
+        <v>44306782300</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>125600</v>
       </c>
       <c r="E75">
-        <v>27431573000</v>
+        <v>25965140900</v>
       </c>
       <c r="F75">
-        <v>27824522000</v>
+        <v>25056193100</v>
       </c>
       <c r="G75">
         <v>1960604000</v>
@@ -4128,13 +4128,13 @@
         <v>3097300</v>
       </c>
       <c r="I75">
-        <v>57216699000</v>
+        <v>52981938000</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-19T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>4875604367000</v>
+        <v>4508798939600</v>
       </c>
       <c r="L75">
         <v>271811400</v>
@@ -4143,13 +4143,13 @@
         <v>-12900</v>
       </c>
       <c r="N75">
-        <v>392949000</v>
+        <v>-908947800</v>
       </c>
       <c r="O75">
         <v>-8298800</v>
       </c>
       <c r="P75">
-        <v>94012669000</v>
+        <v>43397834500</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>23600</v>
       </c>
       <c r="E76">
-        <v>36133156000</v>
+        <v>34649141500</v>
       </c>
       <c r="F76">
-        <v>41108459000</v>
+        <v>37225645700</v>
       </c>
       <c r="G76">
-        <v>756566000</v>
+        <v>738384200</v>
       </c>
       <c r="H76">
         <v>3877200</v>
       </c>
       <c r="I76">
-        <v>77998181000</v>
+        <v>72613171400</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-19T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>4953602548000</v>
+        <v>4581412111000</v>
       </c>
       <c r="L76">
         <v>275688600</v>
@@ -4193,13 +4193,13 @@
         <v>-92800</v>
       </c>
       <c r="N76">
-        <v>4975303000</v>
+        <v>2576504200</v>
       </c>
       <c r="O76">
         <v>-8391600</v>
       </c>
       <c r="P76">
-        <v>98987972000</v>
+        <v>45974338700</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>8700</v>
       </c>
       <c r="E77">
-        <v>19049447000</v>
+        <v>18800895800</v>
       </c>
       <c r="F77">
-        <v>36440411000</v>
+        <v>32361494000</v>
       </c>
       <c r="G77">
         <v>116995000.00000001</v>
@@ -4228,13 +4228,13 @@
         <v>3057400</v>
       </c>
       <c r="I77">
-        <v>55606853000</v>
+        <v>51279384800</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-19T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>5009209401000</v>
+        <v>4632691495800</v>
       </c>
       <c r="L77">
         <v>278746000</v>
@@ -4243,13 +4243,13 @@
         <v>621700</v>
       </c>
       <c r="N77">
-        <v>17390964000</v>
+        <v>13560598200</v>
       </c>
       <c r="O77">
         <v>-7769900</v>
       </c>
       <c r="P77">
-        <v>116378936000</v>
+        <v>59534936900</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>29600</v>
       </c>
       <c r="E78">
-        <v>18820389000</v>
+        <v>18684824700</v>
       </c>
       <c r="F78">
-        <v>41859656000</v>
+        <v>37700819000</v>
       </c>
       <c r="G78">
-        <v>362860000</v>
+        <v>353269600</v>
       </c>
       <c r="H78">
         <v>3320600</v>
       </c>
       <c r="I78">
-        <v>61042905000</v>
+        <v>56738913300</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-19T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>5070252306000</v>
+        <v>4689430409100</v>
       </c>
       <c r="L78">
         <v>282066600</v>
@@ -4293,13 +4293,13 @@
         <v>1112800</v>
       </c>
       <c r="N78">
-        <v>23039267000</v>
+        <v>19015994300</v>
       </c>
       <c r="O78">
         <v>-6657100</v>
       </c>
       <c r="P78">
-        <v>139418203000</v>
+        <v>78550931200</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>21900</v>
       </c>
       <c r="E79">
-        <v>22812665000</v>
+        <v>21449629400</v>
       </c>
       <c r="F79">
-        <v>62097932000</v>
+        <v>56908526600</v>
       </c>
       <c r="G79">
         <v>872643000</v>
@@ -4328,13 +4328,13 @@
         <v>4929000</v>
       </c>
       <c r="I79">
-        <v>85783240000</v>
+        <v>79230799000</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-19T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>5156035546000</v>
+        <v>4768661208100</v>
       </c>
       <c r="L79">
         <v>286995600</v>
@@ -4343,13 +4343,13 @@
         <v>2032500</v>
       </c>
       <c r="N79">
-        <v>39285267000</v>
+        <v>35458897200</v>
       </c>
       <c r="O79">
         <v>-4624600</v>
       </c>
       <c r="P79">
-        <v>178703470000</v>
+        <v>114009828400</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>8600</v>
       </c>
       <c r="E80">
-        <v>23329789000</v>
+        <v>22595524000</v>
       </c>
       <c r="F80">
-        <v>44499521000</v>
+        <v>39435889700</v>
       </c>
       <c r="G80">
         <v>209873000</v>
@@ -4378,13 +4378,13 @@
         <v>3697900</v>
       </c>
       <c r="I80">
-        <v>68039183000</v>
+        <v>62241286700</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-19T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>5224074729000</v>
+        <v>4830902494800</v>
       </c>
       <c r="L80">
         <v>290693500</v>
@@ -4393,13 +4393,13 @@
         <v>1049900</v>
       </c>
       <c r="N80">
-        <v>21169732000</v>
+        <v>16840365700</v>
       </c>
       <c r="O80">
         <v>-3574700</v>
       </c>
       <c r="P80">
-        <v>199873202000</v>
+        <v>130850194100</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>11200</v>
       </c>
       <c r="E81">
-        <v>31980035000</v>
+        <v>31417897700</v>
       </c>
       <c r="F81">
-        <v>32034672000</v>
+        <v>27692118900</v>
       </c>
       <c r="G81">
         <v>120912000</v>
@@ -4428,13 +4428,13 @@
         <v>3443300</v>
       </c>
       <c r="I81">
-        <v>64135619000</v>
+        <v>59230928600</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-19T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>5288210348000</v>
+        <v>4890133423400</v>
       </c>
       <c r="L81">
         <v>294136800</v>
@@ -4443,13 +4443,13 @@
         <v>-411300</v>
       </c>
       <c r="N81">
-        <v>54637000</v>
+        <v>-3725778800</v>
       </c>
       <c r="O81">
         <v>-3986000</v>
       </c>
       <c r="P81">
-        <v>199927839000</v>
+        <v>127124415300</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>4700</v>
       </c>
       <c r="E82">
-        <v>31336273000</v>
+        <v>29695615300</v>
       </c>
       <c r="F82">
-        <v>25270605000</v>
+        <v>23249827800</v>
       </c>
       <c r="G82">
         <v>84402000</v>
@@ -4478,13 +4478,13 @@
         <v>3003800</v>
       </c>
       <c r="I82">
-        <v>56691280000</v>
+        <v>53029845100</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-19T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>5344901628000</v>
+        <v>4943163268500</v>
       </c>
       <c r="L82">
         <v>297140600</v>
@@ -4493,13 +4493,13 @@
         <v>-318100</v>
       </c>
       <c r="N82">
-        <v>-6065668000</v>
+        <v>-6445787500</v>
       </c>
       <c r="O82">
         <v>-4304100</v>
       </c>
       <c r="P82">
-        <v>193862171000</v>
+        <v>120678627800</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>9400</v>
       </c>
       <c r="E83">
-        <v>34052053000</v>
+        <v>29249060800</v>
       </c>
       <c r="F83">
-        <v>23198833000</v>
+        <v>21776257000</v>
       </c>
       <c r="G83">
         <v>194263000</v>
@@ -4528,13 +4528,13 @@
         <v>3162600</v>
       </c>
       <c r="I83">
-        <v>57445149000</v>
+        <v>51219580800</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-19T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>5402346777000</v>
+        <v>4994382849300</v>
       </c>
       <c r="L83">
         <v>300303200</v>
@@ -4543,13 +4543,13 @@
         <v>-837000</v>
       </c>
       <c r="N83">
-        <v>-10853220000</v>
+        <v>-7472803800</v>
       </c>
       <c r="O83">
         <v>-5141100</v>
       </c>
       <c r="P83">
-        <v>183008951000</v>
+        <v>113205824000</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>27800</v>
       </c>
       <c r="E84">
-        <v>42927486000</v>
+        <v>40366050000</v>
       </c>
       <c r="F84">
-        <v>25824756000</v>
+        <v>24741640200</v>
       </c>
       <c r="G84">
-        <v>415735000</v>
+        <v>406744000</v>
       </c>
       <c r="H84">
         <v>3924300</v>
       </c>
       <c r="I84">
-        <v>69167977000</v>
+        <v>65514434200</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-19T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>5471514754000</v>
+        <v>5059897283500</v>
       </c>
       <c r="L84">
         <v>304227500</v>
@@ -4593,13 +4593,13 @@
         <v>-1108900</v>
       </c>
       <c r="N84">
-        <v>-17102730000</v>
+        <v>-15624409800</v>
       </c>
       <c r="O84">
         <v>-6250000</v>
       </c>
       <c r="P84">
-        <v>165906221000</v>
+        <v>97581414200</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>22700</v>
       </c>
       <c r="E85">
-        <v>55245381000</v>
+        <v>53933494200</v>
       </c>
       <c r="F85">
-        <v>35374711000</v>
+        <v>25540255300</v>
       </c>
       <c r="G85">
-        <v>410911000</v>
+        <v>350371600</v>
       </c>
       <c r="H85">
         <v>5023200</v>
       </c>
       <c r="I85">
-        <v>91031003000</v>
+        <v>79824121100</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-19T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>5562545757000</v>
+        <v>5139721404600</v>
       </c>
       <c r="L85">
         <v>309250700</v>
@@ -4643,13 +4643,13 @@
         <v>-1339700</v>
       </c>
       <c r="N85">
-        <v>-19870670000</v>
+        <v>-28393238900</v>
       </c>
       <c r="O85">
         <v>-7589700</v>
       </c>
       <c r="P85">
-        <v>146035551000</v>
+        <v>69188175300</v>
       </c>
     </row>
     <row r="86">
@@ -4666,25 +4666,25 @@
         <v>5300</v>
       </c>
       <c r="E86">
-        <v>38540406000</v>
+        <v>37422724800</v>
       </c>
       <c r="F86">
-        <v>47271671000</v>
+        <v>42249797900</v>
       </c>
       <c r="G86">
-        <v>240379000</v>
+        <v>205414000</v>
       </c>
       <c r="H86">
         <v>4403700</v>
       </c>
       <c r="I86">
-        <v>86052456000</v>
+        <v>79877936700</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-19T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>5648598213000</v>
+        <v>5219599341300</v>
       </c>
       <c r="L86">
         <v>313654400</v>
@@ -4693,13 +4693,13 @@
         <v>210200</v>
       </c>
       <c r="N86">
-        <v>8731265000</v>
+        <v>4827073100</v>
       </c>
       <c r="O86">
         <v>-7379500</v>
       </c>
       <c r="P86">
-        <v>154766816000</v>
+        <v>74015248400</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>16700</v>
       </c>
       <c r="E87">
-        <v>25683627000</v>
+        <v>24803607900</v>
       </c>
       <c r="F87">
-        <v>35614092000</v>
+        <v>28789623300</v>
       </c>
       <c r="G87">
         <v>150924000</v>
@@ -4728,13 +4728,13 @@
         <v>3210200</v>
       </c>
       <c r="I87">
-        <v>61448643000</v>
+        <v>53744155200</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-19T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>5710046856000</v>
+        <v>5273343496500</v>
       </c>
       <c r="L87">
         <v>316864600</v>
@@ -4743,13 +4743,13 @@
         <v>391900</v>
       </c>
       <c r="N87">
-        <v>9930465000</v>
+        <v>3986015400</v>
       </c>
       <c r="O87">
         <v>-6987600</v>
       </c>
       <c r="P87">
-        <v>164697281000</v>
+        <v>78001263800</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>7400</v>
       </c>
       <c r="E88">
-        <v>17243817000</v>
+        <v>15690671700</v>
       </c>
       <c r="F88">
-        <v>49706782000</v>
+        <v>41213284000</v>
       </c>
       <c r="G88">
         <v>103844000</v>
@@ -4778,13 +4778,13 @@
         <v>3547600</v>
       </c>
       <c r="I88">
-        <v>67054443000</v>
+        <v>57007799700</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-19T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>5777101299000</v>
+        <v>5330351296200</v>
       </c>
       <c r="L88">
         <v>320412200</v>
@@ -4793,13 +4793,13 @@
         <v>1520000</v>
       </c>
       <c r="N88">
-        <v>32462965000</v>
+        <v>25522612300</v>
       </c>
       <c r="O88">
         <v>-5467600</v>
       </c>
       <c r="P88">
-        <v>197160246000</v>
+        <v>103523876100</v>
       </c>
     </row>
     <row r="89">
@@ -4816,25 +4816,25 @@
         <v>17900</v>
       </c>
       <c r="E89">
-        <v>21037276000</v>
+        <v>18405210700</v>
       </c>
       <c r="F89">
-        <v>43572784000</v>
+        <v>36806756800</v>
       </c>
       <c r="G89">
-        <v>298833000</v>
+        <v>291840000</v>
       </c>
       <c r="H89">
         <v>4026700</v>
       </c>
       <c r="I89">
-        <v>64908893000</v>
+        <v>55503807500</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-19T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>5842010192000</v>
+        <v>5385855103700</v>
       </c>
       <c r="L89">
         <v>324438900</v>
@@ -4843,13 +4843,13 @@
         <v>1410800</v>
       </c>
       <c r="N89">
-        <v>22535508000</v>
+        <v>18401546100</v>
       </c>
       <c r="O89">
         <v>-4056800</v>
       </c>
       <c r="P89">
-        <v>219695754000</v>
+        <v>121925422200</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>17200</v>
       </c>
       <c r="E90">
-        <v>36186333000</v>
+        <v>33424897200</v>
       </c>
       <c r="F90">
-        <v>48228823000</v>
+        <v>43332724000</v>
       </c>
       <c r="G90">
         <v>189352000</v>
@@ -4878,13 +4878,13 @@
         <v>4733400</v>
       </c>
       <c r="I90">
-        <v>84604508000</v>
+        <v>76946973200</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-19T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>5926614700000</v>
+        <v>5462802076900</v>
       </c>
       <c r="L90">
         <v>329172300</v>
@@ -4893,13 +4893,13 @@
         <v>392400</v>
       </c>
       <c r="N90">
-        <v>12042490000</v>
+        <v>9907826800</v>
       </c>
       <c r="O90">
         <v>-3664400</v>
       </c>
       <c r="P90">
-        <v>231738244000</v>
+        <v>131833249000</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>21100</v>
       </c>
       <c r="E91">
-        <v>29404983000</v>
+        <v>26245945200</v>
       </c>
       <c r="F91">
-        <v>43879204000</v>
+        <v>41748936400</v>
       </c>
       <c r="G91">
-        <v>217241000</v>
+        <v>188270000</v>
       </c>
       <c r="H91">
         <v>4474900</v>
       </c>
       <c r="I91">
-        <v>73501428000</v>
+        <v>68183151600</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-19T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>6000116128000</v>
+        <v>5530985228500</v>
       </c>
       <c r="L91">
         <v>333647200</v>
@@ -4943,13 +4943,13 @@
         <v>1053800</v>
       </c>
       <c r="N91">
-        <v>14474221000</v>
+        <v>15502991200</v>
       </c>
       <c r="O91">
         <v>-2610600</v>
       </c>
       <c r="P91">
-        <v>246212465000</v>
+        <v>147336240200</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>16600</v>
       </c>
       <c r="E92">
-        <v>52262590000</v>
+        <v>48149707000</v>
       </c>
       <c r="F92">
-        <v>48052388000</v>
+        <v>45114628700</v>
       </c>
       <c r="G92">
-        <v>490125000</v>
+        <v>292323000</v>
       </c>
       <c r="H92">
         <v>5502300</v>
       </c>
       <c r="I92">
-        <v>100805103000</v>
+        <v>93556658700</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-19T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>6100921231000</v>
+        <v>5624541887200</v>
       </c>
       <c r="L92">
         <v>339149500</v>
@@ -4993,13 +4993,13 @@
         <v>668100</v>
       </c>
       <c r="N92">
-        <v>-4210202000</v>
+        <v>-3035078300</v>
       </c>
       <c r="O92">
         <v>-1942500</v>
       </c>
       <c r="P92">
-        <v>242002263000</v>
+        <v>144301161900</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>23200</v>
       </c>
       <c r="E93">
-        <v>61931554000</v>
+        <v>56932558000</v>
       </c>
       <c r="F93">
-        <v>31129106000</v>
+        <v>26324715200</v>
       </c>
       <c r="G93">
         <v>449509000</v>
@@ -5028,13 +5028,13 @@
         <v>5549800</v>
       </c>
       <c r="I93">
-        <v>93510169000</v>
+        <v>83706782200</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-19T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>6194431400000</v>
+        <v>5708248669400</v>
       </c>
       <c r="L93">
         <v>344699300</v>
@@ -5043,13 +5043,13 @@
         <v>-1944800</v>
       </c>
       <c r="N93">
-        <v>-30802448000</v>
+        <v>-30607842800</v>
       </c>
       <c r="O93">
         <v>-3887300</v>
       </c>
       <c r="P93">
-        <v>211199815000</v>
+        <v>113693319100</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>19200</v>
       </c>
       <c r="E94">
-        <v>86892720000</v>
+        <v>82740376500</v>
       </c>
       <c r="F94">
-        <v>30473920000</v>
+        <v>25548450400</v>
       </c>
       <c r="G94">
         <v>249626000</v>
@@ -5078,13 +5078,13 @@
         <v>6830100</v>
       </c>
       <c r="I94">
-        <v>117616266000</v>
+        <v>108538452900</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-19T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>6312047666000</v>
+        <v>5816787122300</v>
       </c>
       <c r="L94">
         <v>351529400</v>
@@ -5093,13 +5093,13 @@
         <v>-3097500</v>
       </c>
       <c r="N94">
-        <v>-56418800000</v>
+        <v>-57191926100</v>
       </c>
       <c r="O94">
         <v>-6984800</v>
       </c>
       <c r="P94">
-        <v>154781015000</v>
+        <v>56501393000</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>29900</v>
       </c>
       <c r="E95">
-        <v>136468186000</v>
+        <v>97788104800</v>
       </c>
       <c r="F95">
-        <v>45644862000</v>
+        <v>38674639200</v>
       </c>
       <c r="G95">
         <v>533802000</v>
@@ -5128,13 +5128,13 @@
         <v>9671800</v>
       </c>
       <c r="I95">
-        <v>182646850000</v>
+        <v>136996546000</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-19T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>6494694516000</v>
+        <v>5953783668300</v>
       </c>
       <c r="L95">
         <v>361201200</v>
@@ -5143,13 +5143,13 @@
         <v>-5354100</v>
       </c>
       <c r="N95">
-        <v>-90823324000</v>
+        <v>-59113465600</v>
       </c>
       <c r="O95">
         <v>-12338900</v>
       </c>
       <c r="P95">
-        <v>63957691000</v>
+        <v>-2612072600</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>26600</v>
       </c>
       <c r="E96">
-        <v>46626001000</v>
+        <v>45838988800</v>
       </c>
       <c r="F96">
-        <v>60241039000</v>
+        <v>43310886100</v>
       </c>
       <c r="G96">
         <v>355928000</v>
@@ -5178,13 +5178,13 @@
         <v>6264600</v>
       </c>
       <c r="I96">
-        <v>107222968000</v>
+        <v>89505802900</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-19T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>6601917484000</v>
+        <v>6043289471200</v>
       </c>
       <c r="L96">
         <v>367465800</v>
@@ -5193,13 +5193,13 @@
         <v>455200</v>
       </c>
       <c r="N96">
-        <v>13615038000</v>
+        <v>-2528102700</v>
       </c>
       <c r="O96">
         <v>-11883700</v>
       </c>
       <c r="P96">
-        <v>77572729000</v>
+        <v>-5140175300</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>4900</v>
       </c>
       <c r="E97">
-        <v>29881023000</v>
+        <v>28260645000</v>
       </c>
       <c r="F97">
-        <v>38495691000</v>
+        <v>31652840700</v>
       </c>
       <c r="G97">
         <v>51968000</v>
@@ -5228,13 +5228,13 @@
         <v>3847200</v>
       </c>
       <c r="I97">
-        <v>68428682000</v>
+        <v>59965453700</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-19T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>6670346166000</v>
+        <v>6103254924900</v>
       </c>
       <c r="L97">
         <v>371313000</v>
@@ -5243,13 +5243,13 @@
         <v>353500</v>
       </c>
       <c r="N97">
-        <v>8614668000</v>
+        <v>3392195700</v>
       </c>
       <c r="O97">
         <v>-11530200</v>
       </c>
       <c r="P97">
-        <v>86187397000</v>
+        <v>-1747979600</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>5500</v>
       </c>
       <c r="E98">
-        <v>25340961000</v>
+        <v>23679424200</v>
       </c>
       <c r="F98">
-        <v>51626474000</v>
+        <v>43237970900</v>
       </c>
       <c r="G98">
-        <v>153720000</v>
+        <v>146227500</v>
       </c>
       <c r="H98">
         <v>4101200</v>
       </c>
       <c r="I98">
-        <v>77121155000</v>
+        <v>67063622600</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-19T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>6747467321000</v>
+        <v>6170318547500</v>
       </c>
       <c r="L98">
         <v>375414200</v>
@@ -5293,13 +5293,13 @@
         <v>1073100</v>
       </c>
       <c r="N98">
-        <v>26285513000</v>
+        <v>19558546700</v>
       </c>
       <c r="O98">
         <v>-10457100</v>
       </c>
       <c r="P98">
-        <v>112472910000</v>
+        <v>17810567100</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>11100</v>
       </c>
       <c r="E99">
-        <v>29894548000</v>
+        <v>28957486000</v>
       </c>
       <c r="F99">
-        <v>25705149000</v>
+        <v>23123932800</v>
       </c>
       <c r="G99">
         <v>56981000</v>
@@ -5328,13 +5328,13 @@
         <v>3209500</v>
       </c>
       <c r="I99">
-        <v>55656678000</v>
+        <v>52138399800</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-19T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>6803123999000</v>
+        <v>6222456947300</v>
       </c>
       <c r="L99">
         <v>378623700</v>
@@ -5343,13 +5343,13 @@
         <v>-269200</v>
       </c>
       <c r="N99">
-        <v>-4189399000</v>
+        <v>-5833553200</v>
       </c>
       <c r="O99">
         <v>-10726300</v>
       </c>
       <c r="P99">
-        <v>108283511000</v>
+        <v>11977013900</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>9000</v>
       </c>
       <c r="E100">
-        <v>21942797000</v>
+        <v>20022119600</v>
       </c>
       <c r="F100">
-        <v>37713225000</v>
+        <v>35691848400</v>
       </c>
       <c r="G100">
         <v>134799000</v>
@@ -5378,13 +5378,13 @@
         <v>3267200</v>
       </c>
       <c r="I100">
-        <v>59790821000</v>
+        <v>55848767000</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-19T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>6862914820000</v>
+        <v>6278305714300</v>
       </c>
       <c r="L100">
         <v>381890900</v>
@@ -5393,13 +5393,13 @@
         <v>818400</v>
       </c>
       <c r="N100">
-        <v>15770428000</v>
+        <v>15669728800</v>
       </c>
       <c r="O100">
         <v>-9907900</v>
       </c>
       <c r="P100">
-        <v>124053939000</v>
+        <v>27646742700</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>12700</v>
       </c>
       <c r="E101">
-        <v>23176304000</v>
+        <v>22311669500</v>
       </c>
       <c r="F101">
-        <v>50517987000</v>
+        <v>48821185500</v>
       </c>
       <c r="G101">
         <v>448940000</v>
@@ -5428,13 +5428,13 @@
         <v>4383500</v>
       </c>
       <c r="I101">
-        <v>74143231000</v>
+        <v>71581795000</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-19T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>6937058051000</v>
+        <v>6349887509300</v>
       </c>
       <c r="L101">
         <v>386274400</v>
@@ -5443,13 +5443,13 @@
         <v>1352400</v>
       </c>
       <c r="N101">
-        <v>27341683000</v>
+        <v>26509516000</v>
       </c>
       <c r="O101">
         <v>-8555500</v>
       </c>
       <c r="P101">
-        <v>151395622000</v>
+        <v>54156258700</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>14000</v>
       </c>
       <c r="E102">
-        <v>30889191000</v>
+        <v>28707974400</v>
       </c>
       <c r="F102">
-        <v>54088259000</v>
+        <v>47597556200</v>
       </c>
       <c r="G102">
         <v>487619000</v>
@@ -5478,13 +5478,13 @@
         <v>4465700</v>
       </c>
       <c r="I102">
-        <v>85465069000</v>
+        <v>76793149600</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-19T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>7022523120000</v>
+        <v>6426680658900</v>
       </c>
       <c r="L102">
         <v>390740100</v>
@@ -5493,13 +5493,13 @@
         <v>1442900</v>
       </c>
       <c r="N102">
-        <v>23199068000</v>
+        <v>18889581800</v>
       </c>
       <c r="O102">
         <v>-7112600</v>
       </c>
       <c r="P102">
-        <v>174594690000</v>
+        <v>73045840500</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>40800</v>
       </c>
       <c r="E103">
-        <v>49470187000</v>
+        <v>44179682800</v>
       </c>
       <c r="F103">
-        <v>42897981000</v>
+        <v>40750930200</v>
       </c>
       <c r="G103">
         <v>886365000</v>
@@ -5528,13 +5528,13 @@
         <v>4783500</v>
       </c>
       <c r="I103">
-        <v>93254533000</v>
+        <v>85816978000</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-19T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>7115777653000</v>
+        <v>6512497636900</v>
       </c>
       <c r="L103">
         <v>395523600</v>
@@ -5543,13 +5543,13 @@
         <v>-238100</v>
       </c>
       <c r="N103">
-        <v>-6572206000</v>
+        <v>-3428752600</v>
       </c>
       <c r="O103">
         <v>-7350700</v>
       </c>
       <c r="P103">
-        <v>168022484000</v>
+        <v>69617087900</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>42600</v>
       </c>
       <c r="E104">
-        <v>122166026000</v>
+        <v>107733972500</v>
       </c>
       <c r="F104">
-        <v>27416553000</v>
+        <v>25662009300</v>
       </c>
       <c r="G104">
-        <v>1076155000</v>
+        <v>957473800</v>
       </c>
       <c r="H104">
         <v>7521400</v>
       </c>
       <c r="I104">
-        <v>150658734000</v>
+        <v>134353455600</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-19T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>7266436387000</v>
+        <v>6646851092500</v>
       </c>
       <c r="L104">
         <v>403045000</v>
@@ -5593,13 +5593,13 @@
         <v>-4527000</v>
       </c>
       <c r="N104">
-        <v>-94749473000</v>
+        <v>-82071963200</v>
       </c>
       <c r="O104">
         <v>-11877700</v>
       </c>
       <c r="P104">
-        <v>73273011000</v>
+        <v>-12454875300</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>123900</v>
       </c>
       <c r="E105">
-        <v>105021139000</v>
+        <v>97570896700</v>
       </c>
       <c r="F105">
-        <v>36904647000</v>
+        <v>31275881400</v>
       </c>
       <c r="G105">
-        <v>1986438000</v>
+        <v>1984639800</v>
       </c>
       <c r="H105">
         <v>7422300</v>
       </c>
       <c r="I105">
-        <v>143912224000</v>
+        <v>130831417900</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-19T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>7410348611000</v>
+        <v>6777682510400</v>
       </c>
       <c r="L105">
         <v>410467300</v>
@@ -5643,13 +5643,13 @@
         <v>-3906400</v>
       </c>
       <c r="N105">
-        <v>-68116492000</v>
+        <v>-66295015300</v>
       </c>
       <c r="O105">
         <v>-15784100</v>
       </c>
       <c r="P105">
-        <v>5156519000</v>
+        <v>-78749890600</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>53600</v>
       </c>
       <c r="E106">
-        <v>97888114000</v>
+        <v>94094411500</v>
       </c>
       <c r="F106">
-        <v>49773458000</v>
+        <v>47057676500</v>
       </c>
       <c r="G106">
         <v>1048751000</v>
@@ -5678,13 +5678,13 @@
         <v>7687100</v>
       </c>
       <c r="I106">
-        <v>148710323000</v>
+        <v>142200839000</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-19T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>7559058934000</v>
+        <v>6919883349400</v>
       </c>
       <c r="L106">
         <v>418154400</v>
@@ -5693,13 +5693,13 @@
         <v>-3031100</v>
       </c>
       <c r="N106">
-        <v>-48114656000</v>
+        <v>-47036735000</v>
       </c>
       <c r="O106">
         <v>-18815200</v>
       </c>
       <c r="P106">
-        <v>-42958137000</v>
+        <v>-125786625600</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>19800</v>
       </c>
       <c r="E107">
-        <v>69347517000</v>
+        <v>65926141800</v>
       </c>
       <c r="F107">
-        <v>65038203000</v>
+        <v>51619035600</v>
       </c>
       <c r="G107">
         <v>392353000</v>
@@ -5728,13 +5728,13 @@
         <v>6242500</v>
       </c>
       <c r="I107">
-        <v>134778073000</v>
+        <v>117937530400</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-19T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>7693837007000</v>
+        <v>7037820879800</v>
       </c>
       <c r="L107">
         <v>424396900</v>
@@ -5743,13 +5743,13 @@
         <v>-689900</v>
       </c>
       <c r="N107">
-        <v>-4309314000</v>
+        <v>-14307106200</v>
       </c>
       <c r="O107">
         <v>-19505100</v>
       </c>
       <c r="P107">
-        <v>-47267451000</v>
+        <v>-140093731800</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>105500</v>
       </c>
       <c r="E108">
-        <v>76454073000</v>
+        <v>72551179800</v>
       </c>
       <c r="F108">
-        <v>169085504000</v>
+        <v>150742265600</v>
       </c>
       <c r="G108">
-        <v>3191650000</v>
+        <v>2996845000</v>
       </c>
       <c r="H108">
         <v>10376500</v>
       </c>
       <c r="I108">
-        <v>248731227000</v>
+        <v>226290290400</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-19T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>7942568234000</v>
+        <v>7264111170200</v>
       </c>
       <c r="L108">
         <v>434773400</v>
@@ -5793,13 +5793,13 @@
         <v>3970200</v>
       </c>
       <c r="N108">
-        <v>92631431000</v>
+        <v>78191085800</v>
       </c>
       <c r="O108">
         <v>-15534900</v>
       </c>
       <c r="P108">
-        <v>45363980000</v>
+        <v>-61902646000</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>51300</v>
       </c>
       <c r="E109">
-        <v>73311349000</v>
+        <v>66749917000</v>
       </c>
       <c r="F109">
-        <v>174969755000</v>
+        <v>152581965200</v>
       </c>
       <c r="G109">
-        <v>1838335000</v>
+        <v>1817056300</v>
       </c>
       <c r="H109">
         <v>10419200</v>
       </c>
       <c r="I109">
-        <v>250119439000</v>
+        <v>221148938500</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-19T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>8192687673000</v>
+        <v>7485260108700</v>
       </c>
       <c r="L109">
         <v>445192600</v>
@@ -5843,13 +5843,13 @@
         <v>5118900</v>
       </c>
       <c r="N109">
-        <v>101658406000</v>
+        <v>85832048200</v>
       </c>
       <c r="O109">
         <v>-10416000</v>
       </c>
       <c r="P109">
-        <v>147022386000</v>
+        <v>23929402200</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>60300</v>
       </c>
       <c r="E110">
-        <v>104546273000</v>
+        <v>95013515300</v>
       </c>
       <c r="F110">
-        <v>192488252000</v>
+        <v>160717854200</v>
       </c>
       <c r="G110">
-        <v>2423062000</v>
+        <v>2382502600</v>
       </c>
       <c r="H110">
         <v>12749700</v>
       </c>
       <c r="I110">
-        <v>299457587000</v>
+        <v>258113872100</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-19T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>8492145260000</v>
+        <v>7743373980800</v>
       </c>
       <c r="L110">
         <v>457942300</v>
@@ -5893,13 +5893,13 @@
         <v>4547800</v>
       </c>
       <c r="N110">
-        <v>87941979000</v>
+        <v>65704338900</v>
       </c>
       <c r="O110">
         <v>-5868200</v>
       </c>
       <c r="P110">
-        <v>234964365000</v>
+        <v>89633741100</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>82000</v>
       </c>
       <c r="E111">
-        <v>113147139000</v>
+        <v>105580713000</v>
       </c>
       <c r="F111">
-        <v>135637349000</v>
+        <v>105827688500</v>
       </c>
       <c r="G111">
-        <v>1795706000</v>
+        <v>1735666100</v>
       </c>
       <c r="H111">
         <v>10663200</v>
       </c>
       <c r="I111">
-        <v>250580194000</v>
+        <v>213144067600</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-19T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>8742725454000</v>
+        <v>7956518048400</v>
       </c>
       <c r="L111">
         <v>468605500</v>
@@ -5943,13 +5943,13 @@
         <v>1302200</v>
       </c>
       <c r="N111">
-        <v>22490210000</v>
+        <v>246975500</v>
       </c>
       <c r="O111">
         <v>-4566000</v>
       </c>
       <c r="P111">
-        <v>257454575000</v>
+        <v>89880716600</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>53100</v>
       </c>
       <c r="E112">
-        <v>98779911000</v>
+        <v>95703590400</v>
       </c>
       <c r="F112">
-        <v>135190736000</v>
+        <v>101030230700</v>
       </c>
       <c r="G112">
         <v>1566292000</v>
@@ -5978,13 +5978,13 @@
         <v>10204700</v>
       </c>
       <c r="I112">
-        <v>235536939000</v>
+        <v>198300113100</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-19T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>8978262393000</v>
+        <v>8154818161500</v>
       </c>
       <c r="L112">
         <v>478810200</v>
@@ -5993,13 +5993,13 @@
         <v>1455400</v>
       </c>
       <c r="N112">
-        <v>36410825000</v>
+        <v>5326640300</v>
       </c>
       <c r="O112">
         <v>-3110600</v>
       </c>
       <c r="P112">
-        <v>293865400000</v>
+        <v>95207356900</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>12000</v>
       </c>
       <c r="E113">
-        <v>113027146000</v>
+        <v>102168515500</v>
       </c>
       <c r="F113">
-        <v>133933568000</v>
+        <v>115855364300</v>
       </c>
       <c r="G113">
-        <v>395322000</v>
+        <v>181536000</v>
       </c>
       <c r="H113">
         <v>10756100</v>
       </c>
       <c r="I113">
-        <v>247356036000</v>
+        <v>218205415800</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-19T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>9225618429000</v>
+        <v>8373023577300</v>
       </c>
       <c r="L113">
         <v>489566300</v>
@@ -6043,13 +6043,13 @@
         <v>1224100</v>
       </c>
       <c r="N113">
-        <v>20906422000</v>
+        <v>13686848800</v>
       </c>
       <c r="O113">
         <v>-1886500</v>
       </c>
       <c r="P113">
-        <v>314771822000</v>
+        <v>108894205700</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>79900</v>
       </c>
       <c r="E114">
-        <v>129986314000</v>
+        <v>117364148800</v>
       </c>
       <c r="F114">
-        <v>128719594000</v>
+        <v>113492935900</v>
       </c>
       <c r="G114">
-        <v>1774314000</v>
+        <v>1725562800</v>
       </c>
       <c r="H114">
         <v>12111200</v>
       </c>
       <c r="I114">
-        <v>260480222000</v>
+        <v>232582647500</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-19T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>9486098651000</v>
+        <v>8605606224800</v>
       </c>
       <c r="L114">
         <v>501677500</v>
@@ -6093,13 +6093,13 @@
         <v>-228300</v>
       </c>
       <c r="N114">
-        <v>-1266720000</v>
+        <v>-3871212900</v>
       </c>
       <c r="O114">
         <v>-2114800</v>
       </c>
       <c r="P114">
-        <v>313505102000</v>
+        <v>105022992800</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>96200</v>
       </c>
       <c r="E115">
-        <v>116087031000</v>
+        <v>106835192100</v>
       </c>
       <c r="F115">
-        <v>140547912000</v>
+        <v>114558827100</v>
       </c>
       <c r="G115">
-        <v>1662821000</v>
+        <v>1659724100</v>
       </c>
       <c r="H115">
         <v>13004900</v>
       </c>
       <c r="I115">
-        <v>258297764000</v>
+        <v>223053743300</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-19T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>9744396415000</v>
+        <v>8828659968100</v>
       </c>
       <c r="L115">
         <v>514682400</v>
@@ -6143,13 +6143,13 @@
         <v>737700</v>
       </c>
       <c r="N115">
-        <v>24460881000</v>
+        <v>7723635000</v>
       </c>
       <c r="O115">
         <v>-1377100</v>
       </c>
       <c r="P115">
-        <v>337965983000</v>
+        <v>112746627800</v>
       </c>
     </row>
     <row r="116">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>72570000</v>
+        <v>50991599.99999999</v>
       </c>
       <c r="F116">
         <v>908955000</v>
@@ -6178,13 +6178,13 @@
         <v>48100</v>
       </c>
       <c r="I116">
-        <v>981525000</v>
+        <v>959946600</v>
       </c>
       <c r="J116" t="str">
         <v>2023-01-19T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>9745377940000</v>
+        <v>8829619914700</v>
       </c>
       <c r="L116">
         <v>514730500</v>
@@ -6193,13 +6193,13 @@
         <v>40100</v>
       </c>
       <c r="N116">
-        <v>836385000</v>
+        <v>857963400</v>
       </c>
       <c r="O116">
         <v>-1337000</v>
       </c>
       <c r="P116">
-        <v>338802368000</v>
+        <v>113604591200</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>20194100</v>
       </c>
       <c r="E117">
-        <v>133906118000</v>
+        <v>113227617200</v>
       </c>
       <c r="F117">
-        <v>241247020000</v>
+        <v>204521782000</v>
       </c>
       <c r="G117">
-        <v>356916376000</v>
+        <v>341184323800</v>
       </c>
       <c r="H117">
         <v>38203200</v>
       </c>
       <c r="I117">
-        <v>732069514000</v>
+        <v>658933723000</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-19T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>10477447454000</v>
+        <v>9488553637700</v>
       </c>
       <c r="L117">
         <v>552933700</v>
@@ -6243,13 +6243,13 @@
         <v>6771500</v>
       </c>
       <c r="N117">
-        <v>107340902000</v>
+        <v>91294164800</v>
       </c>
       <c r="O117">
         <v>5434500</v>
       </c>
       <c r="P117">
-        <v>446143270000</v>
+        <v>204898756000</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230119/VNINDEX_HOSE_5p_20230119.xlsx
+++ b/name/vnindex/20230119/VNINDEX_HOSE_5p_20230119.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-7035838100</v>
       </c>
+      <c r="Q2">
+        <v>37368181100</v>
+      </c>
+      <c r="R2">
+        <v>44404019200</v>
+      </c>
+      <c r="S2">
+        <v>2719100</v>
+      </c>
+      <c r="T2">
+        <v>2868700</v>
+      </c>
+      <c r="U2">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V2">
+        <v>38153573950</v>
+      </c>
+      <c r="W2">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X2">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y2">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z2">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA2">
+        <v>46849.1</v>
+      </c>
+      <c r="AB2">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-20713438600</v>
       </c>
+      <c r="Q3">
+        <v>62877711100</v>
+      </c>
+      <c r="R3">
+        <v>83591149700</v>
+      </c>
+      <c r="S3">
+        <v>4695400</v>
+      </c>
+      <c r="T3">
+        <v>5637000</v>
+      </c>
+      <c r="U3">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V3">
+        <v>38153573950</v>
+      </c>
+      <c r="W3">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X3">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y3">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z3">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA3">
+        <v>46849.1</v>
+      </c>
+      <c r="AB3">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC3">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-21611648100</v>
       </c>
+      <c r="Q4">
+        <v>93507181100</v>
+      </c>
+      <c r="R4">
+        <v>115118829200</v>
+      </c>
+      <c r="S4">
+        <v>6701800</v>
+      </c>
+      <c r="T4">
+        <v>7724800</v>
+      </c>
+      <c r="U4">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V4">
+        <v>38153573950</v>
+      </c>
+      <c r="W4">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X4">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y4">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z4">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA4">
+        <v>46849.1</v>
+      </c>
+      <c r="AB4">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>10062809400</v>
       </c>
+      <c r="Q5">
+        <v>151742515700</v>
+      </c>
+      <c r="R5">
+        <v>141679706300</v>
+      </c>
+      <c r="S5">
+        <v>10278100</v>
+      </c>
+      <c r="T5">
+        <v>9564800</v>
+      </c>
+      <c r="U5">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V5">
+        <v>38153573950</v>
+      </c>
+      <c r="W5">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X5">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y5">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z5">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA5">
+        <v>46849.1</v>
+      </c>
+      <c r="AB5">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC5">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>34670432600</v>
       </c>
+      <c r="Q6">
+        <v>202618792500</v>
+      </c>
+      <c r="R6">
+        <v>167948359900</v>
+      </c>
+      <c r="S6">
+        <v>13433500</v>
+      </c>
+      <c r="T6">
+        <v>11213900</v>
+      </c>
+      <c r="U6">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V6">
+        <v>38153573950</v>
+      </c>
+      <c r="W6">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X6">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y6">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z6">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA6">
+        <v>46849.1</v>
+      </c>
+      <c r="AB6">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC6">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>55431028900</v>
       </c>
+      <c r="Q7">
+        <v>249716727100</v>
+      </c>
+      <c r="R7">
+        <v>194285698200</v>
+      </c>
+      <c r="S7">
+        <v>16437000</v>
+      </c>
+      <c r="T7">
+        <v>12827600</v>
+      </c>
+      <c r="U7">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V7">
+        <v>38153573950</v>
+      </c>
+      <c r="W7">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X7">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y7">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z7">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA7">
+        <v>46849.1</v>
+      </c>
+      <c r="AB7">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC7">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>58556266400</v>
       </c>
+      <c r="Q8">
+        <v>282706515100</v>
+      </c>
+      <c r="R8">
+        <v>224150248700</v>
+      </c>
+      <c r="S8">
+        <v>18328300</v>
+      </c>
+      <c r="T8">
+        <v>14708600</v>
+      </c>
+      <c r="U8">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V8">
+        <v>38153573950</v>
+      </c>
+      <c r="W8">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X8">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y8">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z8">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA8">
+        <v>46849.1</v>
+      </c>
+      <c r="AB8">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC8">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>74275335000</v>
       </c>
+      <c r="Q9">
+        <v>317290637100</v>
+      </c>
+      <c r="R9">
+        <v>243015302100</v>
+      </c>
+      <c r="S9">
+        <v>20630300</v>
+      </c>
+      <c r="T9">
+        <v>16079900</v>
+      </c>
+      <c r="U9">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V9">
+        <v>38153573950</v>
+      </c>
+      <c r="W9">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X9">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y9">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z9">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA9">
+        <v>46849.1</v>
+      </c>
+      <c r="AB9">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC9">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>87169708300</v>
       </c>
+      <c r="Q10">
+        <v>350523163800</v>
+      </c>
+      <c r="R10">
+        <v>263353455500</v>
+      </c>
+      <c r="S10">
+        <v>22351100</v>
+      </c>
+      <c r="T10">
+        <v>17361400</v>
+      </c>
+      <c r="U10">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V10">
+        <v>38153573950</v>
+      </c>
+      <c r="W10">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X10">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y10">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z10">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA10">
+        <v>46849.1</v>
+      </c>
+      <c r="AB10">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC10">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>85919153900</v>
       </c>
+      <c r="Q11">
+        <v>377189946500</v>
+      </c>
+      <c r="R11">
+        <v>291270792600</v>
+      </c>
+      <c r="S11">
+        <v>23727000</v>
+      </c>
+      <c r="T11">
+        <v>19051300</v>
+      </c>
+      <c r="U11">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V11">
+        <v>38153573950</v>
+      </c>
+      <c r="W11">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X11">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y11">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z11">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA11">
+        <v>46849.1</v>
+      </c>
+      <c r="AB11">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC11">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>93026251100</v>
       </c>
+      <c r="Q12">
+        <v>408322093100</v>
+      </c>
+      <c r="R12">
+        <v>315295842000</v>
+      </c>
+      <c r="S12">
+        <v>25334800</v>
+      </c>
+      <c r="T12">
+        <v>20714200</v>
+      </c>
+      <c r="U12">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V12">
+        <v>38153573950</v>
+      </c>
+      <c r="W12">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X12">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y12">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z12">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA12">
+        <v>46849.1</v>
+      </c>
+      <c r="AB12">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>110017183500</v>
       </c>
+      <c r="Q13">
+        <v>444397770400</v>
+      </c>
+      <c r="R13">
+        <v>334380586900</v>
+      </c>
+      <c r="S13">
+        <v>27218000</v>
+      </c>
+      <c r="T13">
+        <v>21911000</v>
+      </c>
+      <c r="U13">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V13">
+        <v>38153573950</v>
+      </c>
+      <c r="W13">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X13">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y13">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z13">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA13">
+        <v>46849.1</v>
+      </c>
+      <c r="AB13">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC13">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>138767568500</v>
       </c>
+      <c r="Q14">
+        <v>487617668800</v>
+      </c>
+      <c r="R14">
+        <v>348850100300</v>
+      </c>
+      <c r="S14">
+        <v>29626900</v>
+      </c>
+      <c r="T14">
+        <v>22902300</v>
+      </c>
+      <c r="U14">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V14">
+        <v>38153573950</v>
+      </c>
+      <c r="W14">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X14">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y14">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z14">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA14">
+        <v>46849.1</v>
+      </c>
+      <c r="AB14">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC14">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>184752973300</v>
       </c>
+      <c r="Q15">
+        <v>552433004500</v>
+      </c>
+      <c r="R15">
+        <v>367680031200</v>
+      </c>
+      <c r="S15">
+        <v>33613100</v>
+      </c>
+      <c r="T15">
+        <v>24165900</v>
+      </c>
+      <c r="U15">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V15">
+        <v>38153573950</v>
+      </c>
+      <c r="W15">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X15">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y15">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z15">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA15">
+        <v>46849.1</v>
+      </c>
+      <c r="AB15">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC15">
+        <v>26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>223052597500</v>
       </c>
+      <c r="Q16">
+        <v>612026425200</v>
+      </c>
+      <c r="R16">
+        <v>388973827700</v>
+      </c>
+      <c r="S16">
+        <v>37168700</v>
+      </c>
+      <c r="T16">
+        <v>25523100</v>
+      </c>
+      <c r="U16">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V16">
+        <v>38153573950</v>
+      </c>
+      <c r="W16">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X16">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y16">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z16">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA16">
+        <v>46849.1</v>
+      </c>
+      <c r="AB16">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC16">
+        <v>21.7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>258169475800</v>
       </c>
+      <c r="Q17">
+        <v>672475804000</v>
+      </c>
+      <c r="R17">
+        <v>414306328200</v>
+      </c>
+      <c r="S17">
+        <v>40709500</v>
+      </c>
+      <c r="T17">
+        <v>26993600</v>
+      </c>
+      <c r="U17">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V17">
+        <v>38153573950</v>
+      </c>
+      <c r="W17">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X17">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y17">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z17">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA17">
+        <v>46849.1</v>
+      </c>
+      <c r="AB17">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC17">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>256869441600</v>
       </c>
+      <c r="Q18">
+        <v>713906856600</v>
+      </c>
+      <c r="R18">
+        <v>457037415000</v>
+      </c>
+      <c r="S18">
+        <v>43136200</v>
+      </c>
+      <c r="T18">
+        <v>29730600</v>
+      </c>
+      <c r="U18">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V18">
+        <v>38153573950</v>
+      </c>
+      <c r="W18">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X18">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y18">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z18">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA18">
+        <v>46849.1</v>
+      </c>
+      <c r="AB18">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC18">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>258979921000</v>
       </c>
+      <c r="Q19">
+        <v>746887841000</v>
+      </c>
+      <c r="R19">
+        <v>487907920000</v>
+      </c>
+      <c r="S19">
+        <v>44963900</v>
+      </c>
+      <c r="T19">
+        <v>31608900</v>
+      </c>
+      <c r="U19">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V19">
+        <v>38153573950</v>
+      </c>
+      <c r="W19">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X19">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y19">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z19">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA19">
+        <v>46849.1</v>
+      </c>
+      <c r="AB19">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC19">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>255753752400</v>
       </c>
+      <c r="Q20">
+        <v>777236236300</v>
+      </c>
+      <c r="R20">
+        <v>521482483900</v>
+      </c>
+      <c r="S20">
+        <v>46695600</v>
+      </c>
+      <c r="T20">
+        <v>33833000</v>
+      </c>
+      <c r="U20">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V20">
+        <v>38153573950</v>
+      </c>
+      <c r="W20">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X20">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y20">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z20">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA20">
+        <v>46849.1</v>
+      </c>
+      <c r="AB20">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC20">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>268653613800</v>
       </c>
+      <c r="Q21">
+        <v>813891996700</v>
+      </c>
+      <c r="R21">
+        <v>545238382900</v>
+      </c>
+      <c r="S21">
+        <v>48586800</v>
+      </c>
+      <c r="T21">
+        <v>35302500</v>
+      </c>
+      <c r="U21">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V21">
+        <v>38153573950</v>
+      </c>
+      <c r="W21">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X21">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y21">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z21">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA21">
+        <v>46849.1</v>
+      </c>
+      <c r="AB21">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC21">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>271790786300</v>
       </c>
+      <c r="Q22">
+        <v>842977859900</v>
+      </c>
+      <c r="R22">
+        <v>571187073600</v>
+      </c>
+      <c r="S22">
+        <v>50033900</v>
+      </c>
+      <c r="T22">
+        <v>36896500</v>
+      </c>
+      <c r="U22">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V22">
+        <v>38153573950</v>
+      </c>
+      <c r="W22">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X22">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y22">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z22">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA22">
+        <v>46849.1</v>
+      </c>
+      <c r="AB22">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC22">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>269896717700</v>
       </c>
+      <c r="Q23">
+        <v>869497455300</v>
+      </c>
+      <c r="R23">
+        <v>599600737600</v>
+      </c>
+      <c r="S23">
+        <v>51556200</v>
+      </c>
+      <c r="T23">
+        <v>38589000</v>
+      </c>
+      <c r="U23">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V23">
+        <v>38153573950</v>
+      </c>
+      <c r="W23">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X23">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y23">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z23">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA23">
+        <v>46849.1</v>
+      </c>
+      <c r="AB23">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC23">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>278021633300</v>
       </c>
+      <c r="Q24">
+        <v>903692590800</v>
+      </c>
+      <c r="R24">
+        <v>625670957500</v>
+      </c>
+      <c r="S24">
+        <v>53354800</v>
+      </c>
+      <c r="T24">
+        <v>40005700</v>
+      </c>
+      <c r="U24">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V24">
+        <v>38153573950</v>
+      </c>
+      <c r="W24">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X24">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y24">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z24">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA24">
+        <v>46849.1</v>
+      </c>
+      <c r="AB24">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC24">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>289887458800</v>
       </c>
+      <c r="Q25">
+        <v>932905656700</v>
+      </c>
+      <c r="R25">
+        <v>643018197900</v>
+      </c>
+      <c r="S25">
+        <v>55004700</v>
+      </c>
+      <c r="T25">
+        <v>40941800</v>
+      </c>
+      <c r="U25">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V25">
+        <v>38153573950</v>
+      </c>
+      <c r="W25">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X25">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y25">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z25">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA25">
+        <v>46849.1</v>
+      </c>
+      <c r="AB25">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC25">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>288676082900</v>
       </c>
+      <c r="Q26">
+        <v>957338882500</v>
+      </c>
+      <c r="R26">
+        <v>668662799600</v>
+      </c>
+      <c r="S26">
+        <v>56325100</v>
+      </c>
+      <c r="T26">
+        <v>42452300</v>
+      </c>
+      <c r="U26">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V26">
+        <v>38153573950</v>
+      </c>
+      <c r="W26">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X26">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y26">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z26">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA26">
+        <v>46849.1</v>
+      </c>
+      <c r="AB26">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC26">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>304819466800</v>
       </c>
+      <c r="Q27">
+        <v>995138817500</v>
+      </c>
+      <c r="R27">
+        <v>690319350700</v>
+      </c>
+      <c r="S27">
+        <v>58268900</v>
+      </c>
+      <c r="T27">
+        <v>43644000</v>
+      </c>
+      <c r="U27">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V27">
+        <v>38153573950</v>
+      </c>
+      <c r="W27">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X27">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y27">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z27">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA27">
+        <v>46849.1</v>
+      </c>
+      <c r="AB27">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC27">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>324352428100</v>
       </c>
+      <c r="Q28">
+        <v>1027442812800</v>
+      </c>
+      <c r="R28">
+        <v>703090384700</v>
+      </c>
+      <c r="S28">
+        <v>60086900</v>
+      </c>
+      <c r="T28">
+        <v>44447600</v>
+      </c>
+      <c r="U28">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V28">
+        <v>38153573950</v>
+      </c>
+      <c r="W28">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X28">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y28">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z28">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA28">
+        <v>46849.1</v>
+      </c>
+      <c r="AB28">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC28">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>359897260300</v>
       </c>
+      <c r="Q29">
+        <v>1081037424500</v>
+      </c>
+      <c r="R29">
+        <v>721140164200</v>
+      </c>
+      <c r="S29">
+        <v>63096900</v>
+      </c>
+      <c r="T29">
+        <v>45555200</v>
+      </c>
+      <c r="U29">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V29">
+        <v>38153573950</v>
+      </c>
+      <c r="W29">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X29">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y29">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z29">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA29">
+        <v>46849.1</v>
+      </c>
+      <c r="AB29">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC29">
+        <v>20.1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>403114544300</v>
       </c>
+      <c r="Q30">
+        <v>1142452496000</v>
+      </c>
+      <c r="R30">
+        <v>739337951700</v>
+      </c>
+      <c r="S30">
+        <v>66981800</v>
+      </c>
+      <c r="T30">
+        <v>46692500</v>
+      </c>
+      <c r="U30">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V30">
+        <v>38153573950</v>
+      </c>
+      <c r="W30">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X30">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y30">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z30">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA30">
+        <v>46849.1</v>
+      </c>
+      <c r="AB30">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC30">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>434213784600</v>
       </c>
+      <c r="Q31">
+        <v>1194208939200</v>
+      </c>
+      <c r="R31">
+        <v>759995154600</v>
+      </c>
+      <c r="S31">
+        <v>70009900</v>
+      </c>
+      <c r="T31">
+        <v>47854800</v>
+      </c>
+      <c r="U31">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V31">
+        <v>38153573950</v>
+      </c>
+      <c r="W31">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X31">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y31">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z31">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA31">
+        <v>46849.1</v>
+      </c>
+      <c r="AB31">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC31">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>453607824200</v>
       </c>
+      <c r="Q32">
+        <v>1235131329500</v>
+      </c>
+      <c r="R32">
+        <v>781523505300</v>
+      </c>
+      <c r="S32">
+        <v>72466200</v>
+      </c>
+      <c r="T32">
+        <v>49164200</v>
+      </c>
+      <c r="U32">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V32">
+        <v>38153573950</v>
+      </c>
+      <c r="W32">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X32">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y32">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z32">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA32">
+        <v>46849.1</v>
+      </c>
+      <c r="AB32">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>478107125400</v>
       </c>
+      <c r="Q33">
+        <v>1281849720000</v>
+      </c>
+      <c r="R33">
+        <v>803742594600</v>
+      </c>
+      <c r="S33">
+        <v>75042500</v>
+      </c>
+      <c r="T33">
+        <v>50481600</v>
+      </c>
+      <c r="U33">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V33">
+        <v>38153573950</v>
+      </c>
+      <c r="W33">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X33">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y33">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z33">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA33">
+        <v>46849.1</v>
+      </c>
+      <c r="AB33">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC33">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>479982263400</v>
       </c>
+      <c r="Q34">
+        <v>1313055058700</v>
+      </c>
+      <c r="R34">
+        <v>833072795300</v>
+      </c>
+      <c r="S34">
+        <v>77206700</v>
+      </c>
+      <c r="T34">
+        <v>52195300</v>
+      </c>
+      <c r="U34">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V34">
+        <v>38153573950</v>
+      </c>
+      <c r="W34">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X34">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y34">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z34">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA34">
+        <v>46849.1</v>
+      </c>
+      <c r="AB34">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC34">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>464519069700</v>
       </c>
+      <c r="Q35">
+        <v>1341795053700</v>
+      </c>
+      <c r="R35">
+        <v>877275984000</v>
+      </c>
+      <c r="S35">
+        <v>78824800</v>
+      </c>
+      <c r="T35">
+        <v>54947900</v>
+      </c>
+      <c r="U35">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V35">
+        <v>38153573950</v>
+      </c>
+      <c r="W35">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X35">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y35">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z35">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA35">
+        <v>46849.1</v>
+      </c>
+      <c r="AB35">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC35">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>469431202800</v>
       </c>
+      <c r="Q36">
+        <v>1374569805400</v>
+      </c>
+      <c r="R36">
+        <v>905138602600</v>
+      </c>
+      <c r="S36">
+        <v>80404400</v>
+      </c>
+      <c r="T36">
+        <v>56658000</v>
+      </c>
+      <c r="U36">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V36">
+        <v>38153573950</v>
+      </c>
+      <c r="W36">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X36">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y36">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z36">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA36">
+        <v>46849.1</v>
+      </c>
+      <c r="AB36">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC36">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>469545930700</v>
       </c>
+      <c r="Q37">
+        <v>1402855373600</v>
+      </c>
+      <c r="R37">
+        <v>933309442900</v>
+      </c>
+      <c r="S37">
+        <v>81906200</v>
+      </c>
+      <c r="T37">
+        <v>58383600</v>
+      </c>
+      <c r="U37">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V37">
+        <v>38153573950</v>
+      </c>
+      <c r="W37">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X37">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y37">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z37">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA37">
+        <v>46849.1</v>
+      </c>
+      <c r="AB37">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC37">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>482097588400</v>
       </c>
+      <c r="Q38">
+        <v>1437333298900</v>
+      </c>
+      <c r="R38">
+        <v>955235710500</v>
+      </c>
+      <c r="S38">
+        <v>83613300</v>
+      </c>
+      <c r="T38">
+        <v>59743300</v>
+      </c>
+      <c r="U38">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V38">
+        <v>38153573950</v>
+      </c>
+      <c r="W38">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X38">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y38">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z38">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA38">
+        <v>46849.1</v>
+      </c>
+      <c r="AB38">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC38">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>478960838600</v>
       </c>
+      <c r="Q39">
+        <v>1462649130600</v>
+      </c>
+      <c r="R39">
+        <v>983688292000</v>
+      </c>
+      <c r="S39">
+        <v>85120100</v>
+      </c>
+      <c r="T39">
+        <v>61388800</v>
+      </c>
+      <c r="U39">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V39">
+        <v>38153573950</v>
+      </c>
+      <c r="W39">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X39">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y39">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z39">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA39">
+        <v>46849.1</v>
+      </c>
+      <c r="AB39">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC39">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>466669503600</v>
       </c>
+      <c r="Q40">
+        <v>1484237723900</v>
+      </c>
+      <c r="R40">
+        <v>1017568220300</v>
+      </c>
+      <c r="S40">
+        <v>86309000</v>
+      </c>
+      <c r="T40">
+        <v>63334300</v>
+      </c>
+      <c r="U40">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V40">
+        <v>38153573950</v>
+      </c>
+      <c r="W40">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X40">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y40">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z40">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA40">
+        <v>46849.1</v>
+      </c>
+      <c r="AB40">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC40">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>454069546800</v>
       </c>
+      <c r="Q41">
+        <v>1505879743300</v>
+      </c>
+      <c r="R41">
+        <v>1051810196500</v>
+      </c>
+      <c r="S41">
+        <v>87603200</v>
+      </c>
+      <c r="T41">
+        <v>65577800</v>
+      </c>
+      <c r="U41">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V41">
+        <v>38153573950</v>
+      </c>
+      <c r="W41">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X41">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y41">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z41">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA41">
+        <v>46849.1</v>
+      </c>
+      <c r="AB41">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC41">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>430629790900</v>
       </c>
+      <c r="Q42">
+        <v>1525656366000</v>
+      </c>
+      <c r="R42">
+        <v>1095026575100</v>
+      </c>
+      <c r="S42">
+        <v>88772300</v>
+      </c>
+      <c r="T42">
+        <v>68688000</v>
+      </c>
+      <c r="U42">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V42">
+        <v>38153573950</v>
+      </c>
+      <c r="W42">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X42">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y42">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z42">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA42">
+        <v>46849.1</v>
+      </c>
+      <c r="AB42">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC42">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>432843009000</v>
       </c>
+      <c r="Q43">
+        <v>1555437683800</v>
+      </c>
+      <c r="R43">
+        <v>1122594674800</v>
+      </c>
+      <c r="S43">
+        <v>90395900</v>
+      </c>
+      <c r="T43">
+        <v>70391400</v>
+      </c>
+      <c r="U43">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V43">
+        <v>38153573950</v>
+      </c>
+      <c r="W43">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X43">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y43">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z43">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA43">
+        <v>46849.1</v>
+      </c>
+      <c r="AB43">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC43">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>444815877600</v>
       </c>
+      <c r="Q44">
+        <v>1585267238700</v>
+      </c>
+      <c r="R44">
+        <v>1140451361100</v>
+      </c>
+      <c r="S44">
+        <v>91693600</v>
+      </c>
+      <c r="T44">
+        <v>71808900</v>
+      </c>
+      <c r="U44">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V44">
+        <v>38153573950</v>
+      </c>
+      <c r="W44">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X44">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y44">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z44">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA44">
+        <v>46849.1</v>
+      </c>
+      <c r="AB44">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC44">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>443666904500</v>
       </c>
+      <c r="Q45">
+        <v>1602557214300</v>
+      </c>
+      <c r="R45">
+        <v>1158890309800</v>
+      </c>
+      <c r="S45">
+        <v>92698400</v>
+      </c>
+      <c r="T45">
+        <v>73053000</v>
+      </c>
+      <c r="U45">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V45">
+        <v>38153573950</v>
+      </c>
+      <c r="W45">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X45">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y45">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z45">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA45">
+        <v>46849.1</v>
+      </c>
+      <c r="AB45">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC45">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>439127102100</v>
       </c>
+      <c r="Q46">
+        <v>1620414086800</v>
+      </c>
+      <c r="R46">
+        <v>1181286984700</v>
+      </c>
+      <c r="S46">
+        <v>93681600</v>
+      </c>
+      <c r="T46">
+        <v>74684200</v>
+      </c>
+      <c r="U46">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V46">
+        <v>38153573950</v>
+      </c>
+      <c r="W46">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X46">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y46">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z46">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA46">
+        <v>46849.1</v>
+      </c>
+      <c r="AB46">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC46">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>430237207000</v>
       </c>
+      <c r="Q47">
+        <v>1634109503200</v>
+      </c>
+      <c r="R47">
+        <v>1203872296200</v>
+      </c>
+      <c r="S47">
+        <v>94480600</v>
+      </c>
+      <c r="T47">
+        <v>76065300</v>
+      </c>
+      <c r="U47">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V47">
+        <v>38153573950</v>
+      </c>
+      <c r="W47">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X47">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y47">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z47">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA47">
+        <v>46849.1</v>
+      </c>
+      <c r="AB47">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC47">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>424221147800</v>
       </c>
+      <c r="Q48">
+        <v>1649579146100</v>
+      </c>
+      <c r="R48">
+        <v>1225357998300</v>
+      </c>
+      <c r="S48">
+        <v>95397300</v>
+      </c>
+      <c r="T48">
+        <v>77605700</v>
+      </c>
+      <c r="U48">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V48">
+        <v>38153573950</v>
+      </c>
+      <c r="W48">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X48">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y48">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z48">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA48">
+        <v>46849.1</v>
+      </c>
+      <c r="AB48">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC48">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>403360832100</v>
       </c>
+      <c r="Q49">
+        <v>1664340363800</v>
+      </c>
+      <c r="R49">
+        <v>1260979531700</v>
+      </c>
+      <c r="S49">
+        <v>96210300</v>
+      </c>
+      <c r="T49">
+        <v>79836600</v>
+      </c>
+      <c r="U49">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V49">
+        <v>38153573950</v>
+      </c>
+      <c r="W49">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X49">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y49">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z49">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA49">
+        <v>46849.1</v>
+      </c>
+      <c r="AB49">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC49">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>405340565200</v>
       </c>
+      <c r="Q50">
+        <v>1686672418500</v>
+      </c>
+      <c r="R50">
+        <v>1281331853300</v>
+      </c>
+      <c r="S50">
+        <v>97340500</v>
+      </c>
+      <c r="T50">
+        <v>81252200</v>
+      </c>
+      <c r="U50">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V50">
+        <v>38153573950</v>
+      </c>
+      <c r="W50">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X50">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y50">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z50">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA50">
+        <v>46849.1</v>
+      </c>
+      <c r="AB50">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC50">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>403332057600</v>
       </c>
+      <c r="Q51">
+        <v>1700845176000</v>
+      </c>
+      <c r="R51">
+        <v>1297513118400</v>
+      </c>
+      <c r="S51">
+        <v>98195900</v>
+      </c>
+      <c r="T51">
+        <v>82359500</v>
+      </c>
+      <c r="U51">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V51">
+        <v>38153573950</v>
+      </c>
+      <c r="W51">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X51">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y51">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z51">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA51">
+        <v>46849.1</v>
+      </c>
+      <c r="AB51">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC51">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>424337140700</v>
       </c>
+      <c r="Q52">
+        <v>1737823238500</v>
+      </c>
+      <c r="R52">
+        <v>1313486097800</v>
+      </c>
+      <c r="S52">
+        <v>100173700</v>
+      </c>
+      <c r="T52">
+        <v>83385600</v>
+      </c>
+      <c r="U52">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V52">
+        <v>38153573950</v>
+      </c>
+      <c r="W52">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X52">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y52">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z52">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA52">
+        <v>46849.1</v>
+      </c>
+      <c r="AB52">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC52">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>421657270800</v>
       </c>
+      <c r="Q53">
+        <v>1759414591000</v>
+      </c>
+      <c r="R53">
+        <v>1337757320200</v>
+      </c>
+      <c r="S53">
+        <v>101432300</v>
+      </c>
+      <c r="T53">
+        <v>84735800</v>
+      </c>
+      <c r="U53">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V53">
+        <v>38153573950</v>
+      </c>
+      <c r="W53">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X53">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y53">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z53">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA53">
+        <v>46849.1</v>
+      </c>
+      <c r="AB53">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC53">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>411562244200</v>
       </c>
+      <c r="Q54">
+        <v>1771219905600</v>
+      </c>
+      <c r="R54">
+        <v>1359657661400</v>
+      </c>
+      <c r="S54">
+        <v>102170400</v>
+      </c>
+      <c r="T54">
+        <v>85934200</v>
+      </c>
+      <c r="U54">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V54">
+        <v>38153573950</v>
+      </c>
+      <c r="W54">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X54">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y54">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z54">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA54">
+        <v>46849.1</v>
+      </c>
+      <c r="AB54">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC54">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>377182798300</v>
       </c>
+      <c r="Q55">
+        <v>1789925806100</v>
+      </c>
+      <c r="R55">
+        <v>1412743007800</v>
+      </c>
+      <c r="S55">
+        <v>103131700</v>
+      </c>
+      <c r="T55">
+        <v>88966800</v>
+      </c>
+      <c r="U55">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V55">
+        <v>38153573950</v>
+      </c>
+      <c r="W55">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X55">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y55">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z55">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA55">
+        <v>46849.1</v>
+      </c>
+      <c r="AB55">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC55">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>347840902000</v>
       </c>
+      <c r="Q56">
+        <v>1804624688400</v>
+      </c>
+      <c r="R56">
+        <v>1456783786400</v>
+      </c>
+      <c r="S56">
+        <v>103882700</v>
+      </c>
+      <c r="T56">
+        <v>91858600</v>
+      </c>
+      <c r="U56">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V56">
+        <v>38153573950</v>
+      </c>
+      <c r="W56">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X56">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y56">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z56">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA56">
+        <v>46849.1</v>
+      </c>
+      <c r="AB56">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC56">
+        <v>16.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>292145636800</v>
       </c>
+      <c r="Q57">
+        <v>1816696959000</v>
+      </c>
+      <c r="R57">
+        <v>1524551322200</v>
+      </c>
+      <c r="S57">
+        <v>104507700</v>
+      </c>
+      <c r="T57">
+        <v>96198800</v>
+      </c>
+      <c r="U57">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V57">
+        <v>38153573950</v>
+      </c>
+      <c r="W57">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X57">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y57">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z57">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA57">
+        <v>46849.1</v>
+      </c>
+      <c r="AB57">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC57">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>227470597600</v>
       </c>
+      <c r="Q58">
+        <v>1831954988700</v>
+      </c>
+      <c r="R58">
+        <v>1604484391100</v>
+      </c>
+      <c r="S58">
+        <v>105461900</v>
+      </c>
+      <c r="T58">
+        <v>101520000</v>
+      </c>
+      <c r="U58">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V58">
+        <v>38153573950</v>
+      </c>
+      <c r="W58">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X58">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y58">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z58">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA58">
+        <v>46849.1</v>
+      </c>
+      <c r="AB58">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC58">
+        <v>36.6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>195910902700</v>
       </c>
+      <c r="Q59">
+        <v>1849946013500</v>
+      </c>
+      <c r="R59">
+        <v>1654035110800</v>
+      </c>
+      <c r="S59">
+        <v>106494700</v>
+      </c>
+      <c r="T59">
+        <v>104726400</v>
+      </c>
+      <c r="U59">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V59">
+        <v>38153573950</v>
+      </c>
+      <c r="W59">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X59">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y59">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z59">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA59">
+        <v>46849.1</v>
+      </c>
+      <c r="AB59">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC59">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>176221955700</v>
       </c>
+      <c r="Q60">
+        <v>1871252359400</v>
+      </c>
+      <c r="R60">
+        <v>1695030403700</v>
+      </c>
+      <c r="S60">
+        <v>107682900</v>
+      </c>
+      <c r="T60">
+        <v>107408200</v>
+      </c>
+      <c r="U60">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V60">
+        <v>38153573950</v>
+      </c>
+      <c r="W60">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X60">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y60">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z60">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA60">
+        <v>46849.1</v>
+      </c>
+      <c r="AB60">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC60">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>193194265500</v>
       </c>
+      <c r="Q61">
+        <v>1915433541600</v>
+      </c>
+      <c r="R61">
+        <v>1722239276100</v>
+      </c>
+      <c r="S61">
+        <v>109856100</v>
+      </c>
+      <c r="T61">
+        <v>109075900</v>
+      </c>
+      <c r="U61">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V61">
+        <v>38153573950</v>
+      </c>
+      <c r="W61">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X61">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y61">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z61">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA61">
+        <v>46849.1</v>
+      </c>
+      <c r="AB61">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC61">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>200720261800</v>
       </c>
+      <c r="Q62">
+        <v>1943472329300</v>
+      </c>
+      <c r="R62">
+        <v>1742752067500</v>
+      </c>
+      <c r="S62">
+        <v>111675200</v>
+      </c>
+      <c r="T62">
+        <v>110242700</v>
+      </c>
+      <c r="U62">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V62">
+        <v>38153573950</v>
+      </c>
+      <c r="W62">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X62">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y62">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z62">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA62">
+        <v>46849.1</v>
+      </c>
+      <c r="AB62">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC62">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>202226674900</v>
       </c>
+      <c r="Q63">
+        <v>1961537250600</v>
+      </c>
+      <c r="R63">
+        <v>1759310575700</v>
+      </c>
+      <c r="S63">
+        <v>113163500</v>
+      </c>
+      <c r="T63">
+        <v>111067200</v>
+      </c>
+      <c r="U63">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V63">
+        <v>38153573950</v>
+      </c>
+      <c r="W63">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X63">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y63">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z63">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA63">
+        <v>46849.1</v>
+      </c>
+      <c r="AB63">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC63">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>200088982700</v>
       </c>
+      <c r="Q64">
+        <v>1976966486300</v>
+      </c>
+      <c r="R64">
+        <v>1776877503600</v>
+      </c>
+      <c r="S64">
+        <v>113978300</v>
+      </c>
+      <c r="T64">
+        <v>112089500</v>
+      </c>
+      <c r="U64">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V64">
+        <v>38153573950</v>
+      </c>
+      <c r="W64">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X64">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y64">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z64">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA64">
+        <v>46849.1</v>
+      </c>
+      <c r="AB64">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC64">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>191898443500</v>
       </c>
+      <c r="Q65">
+        <v>1989613188300</v>
+      </c>
+      <c r="R65">
+        <v>1797714744800</v>
+      </c>
+      <c r="S65">
+        <v>114623200</v>
+      </c>
+      <c r="T65">
+        <v>113244100</v>
+      </c>
+      <c r="U65">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V65">
+        <v>38153573950</v>
+      </c>
+      <c r="W65">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X65">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y65">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z65">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA65">
+        <v>46849.1</v>
+      </c>
+      <c r="AB65">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC65">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>173255881500</v>
       </c>
+      <c r="Q66">
+        <v>1996194271300</v>
+      </c>
+      <c r="R66">
+        <v>1822938389800</v>
+      </c>
+      <c r="S66">
+        <v>115140400</v>
+      </c>
+      <c r="T66">
+        <v>114618800</v>
+      </c>
+      <c r="U66">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V66">
+        <v>38153573950</v>
+      </c>
+      <c r="W66">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X66">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y66">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z66">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA66">
+        <v>46849.1</v>
+      </c>
+      <c r="AB66">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC66">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>152747397900</v>
       </c>
+      <c r="Q67">
+        <v>2006441761700</v>
+      </c>
+      <c r="R67">
+        <v>1853694363800</v>
+      </c>
+      <c r="S67">
+        <v>115741700</v>
+      </c>
+      <c r="T67">
+        <v>116448600</v>
+      </c>
+      <c r="U67">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V67">
+        <v>38153573950</v>
+      </c>
+      <c r="W67">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X67">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y67">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z67">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA67">
+        <v>46849.1</v>
+      </c>
+      <c r="AB67">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC67">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>126370039700</v>
       </c>
+      <c r="Q68">
+        <v>2017848135000</v>
+      </c>
+      <c r="R68">
+        <v>1891478095300</v>
+      </c>
+      <c r="S68">
+        <v>116370400</v>
+      </c>
+      <c r="T68">
+        <v>118537200</v>
+      </c>
+      <c r="U68">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V68">
+        <v>38153573950</v>
+      </c>
+      <c r="W68">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X68">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y68">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z68">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA68">
+        <v>46849.1</v>
+      </c>
+      <c r="AB68">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC68">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>115325663000</v>
       </c>
+      <c r="Q69">
+        <v>2030070792700</v>
+      </c>
+      <c r="R69">
+        <v>1914745129700</v>
+      </c>
+      <c r="S69">
+        <v>117168900</v>
+      </c>
+      <c r="T69">
+        <v>120346400</v>
+      </c>
+      <c r="U69">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V69">
+        <v>38153573950</v>
+      </c>
+      <c r="W69">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X69">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y69">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z69">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA69">
+        <v>46849.1</v>
+      </c>
+      <c r="AB69">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC69">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>115350908000</v>
       </c>
+      <c r="Q70">
+        <v>2030096037700</v>
+      </c>
+      <c r="R70">
+        <v>1914745129700</v>
+      </c>
+      <c r="S70">
+        <v>117169800</v>
+      </c>
+      <c r="T70">
+        <v>120346400</v>
+      </c>
+      <c r="U70">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V70">
+        <v>38153573950</v>
+      </c>
+      <c r="W70">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X70">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y70">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z70">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA70">
+        <v>46849.1</v>
+      </c>
+      <c r="AB70">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>41919011800</v>
       </c>
+      <c r="Q71">
+        <v>2090140223800</v>
+      </c>
+      <c r="R71">
+        <v>2048221212000</v>
+      </c>
+      <c r="S71">
+        <v>120890200</v>
+      </c>
+      <c r="T71">
+        <v>128883700</v>
+      </c>
+      <c r="U71">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V71">
+        <v>38153573950</v>
+      </c>
+      <c r="W71">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X71">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y71">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z71">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA71">
+        <v>46849.1</v>
+      </c>
+      <c r="AB71">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC71">
+        <v>41.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>13599121700</v>
       </c>
+      <c r="Q72">
+        <v>2119107074700</v>
+      </c>
+      <c r="R72">
+        <v>2105507953000</v>
+      </c>
+      <c r="S72">
+        <v>122464600</v>
+      </c>
+      <c r="T72">
+        <v>132246000</v>
+      </c>
+      <c r="U72">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V72">
+        <v>38153573950</v>
+      </c>
+      <c r="W72">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X72">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y72">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z72">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA72">
+        <v>46849.1</v>
+      </c>
+      <c r="AB72">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC72">
+        <v>16</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>26648572700</v>
       </c>
+      <c r="Q73">
+        <v>2167826347200</v>
+      </c>
+      <c r="R73">
+        <v>2141177774500</v>
+      </c>
+      <c r="S73">
+        <v>125111800</v>
+      </c>
+      <c r="T73">
+        <v>134561900</v>
+      </c>
+      <c r="U73">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V73">
+        <v>38153573950</v>
+      </c>
+      <c r="W73">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X73">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y73">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z73">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA73">
+        <v>46849.1</v>
+      </c>
+      <c r="AB73">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC73">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>44306782300</v>
       </c>
+      <c r="Q74">
+        <v>2219181488900</v>
+      </c>
+      <c r="R74">
+        <v>2174874706600</v>
+      </c>
+      <c r="S74">
+        <v>128200200</v>
+      </c>
+      <c r="T74">
+        <v>136486100</v>
+      </c>
+      <c r="U74">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V74">
+        <v>38153573950</v>
+      </c>
+      <c r="W74">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X74">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y74">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z74">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA74">
+        <v>46849.1</v>
+      </c>
+      <c r="AB74">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC74">
+        <v>10</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>43397834500</v>
       </c>
+      <c r="Q75">
+        <v>2244237682000</v>
+      </c>
+      <c r="R75">
+        <v>2200839847500</v>
+      </c>
+      <c r="S75">
+        <v>129679600</v>
+      </c>
+      <c r="T75">
+        <v>137978400</v>
+      </c>
+      <c r="U75">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V75">
+        <v>38153573950</v>
+      </c>
+      <c r="W75">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X75">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y75">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z75">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA75">
+        <v>46849.1</v>
+      </c>
+      <c r="AB75">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC75">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>45974338700</v>
       </c>
+      <c r="Q76">
+        <v>2281463327700</v>
+      </c>
+      <c r="R76">
+        <v>2235488989000</v>
+      </c>
+      <c r="S76">
+        <v>131560000</v>
+      </c>
+      <c r="T76">
+        <v>139951600</v>
+      </c>
+      <c r="U76">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V76">
+        <v>38153573950</v>
+      </c>
+      <c r="W76">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X76">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y76">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z76">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA76">
+        <v>46849.1</v>
+      </c>
+      <c r="AB76">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC76">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>59534936900</v>
       </c>
+      <c r="Q77">
+        <v>2313824821700</v>
+      </c>
+      <c r="R77">
+        <v>2254289884800</v>
+      </c>
+      <c r="S77">
+        <v>133395200</v>
+      </c>
+      <c r="T77">
+        <v>141165100</v>
+      </c>
+      <c r="U77">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V77">
+        <v>38153573950</v>
+      </c>
+      <c r="W77">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X77">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y77">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z77">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA77">
+        <v>46849.1</v>
+      </c>
+      <c r="AB77">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC77">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>78550931200</v>
       </c>
+      <c r="Q78">
+        <v>2351525640700</v>
+      </c>
+      <c r="R78">
+        <v>2272974709500</v>
+      </c>
+      <c r="S78">
+        <v>135597100</v>
+      </c>
+      <c r="T78">
+        <v>142254200</v>
+      </c>
+      <c r="U78">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V78">
+        <v>38153573950</v>
+      </c>
+      <c r="W78">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X78">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y78">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z78">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA78">
+        <v>46849.1</v>
+      </c>
+      <c r="AB78">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC78">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>114009828400</v>
       </c>
+      <c r="Q79">
+        <v>2408434167300</v>
+      </c>
+      <c r="R79">
+        <v>2294424338900</v>
+      </c>
+      <c r="S79">
+        <v>139066900</v>
+      </c>
+      <c r="T79">
+        <v>143691500</v>
+      </c>
+      <c r="U79">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V79">
+        <v>38153573950</v>
+      </c>
+      <c r="W79">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X79">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y79">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z79">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA79">
+        <v>46849.1</v>
+      </c>
+      <c r="AB79">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC79">
+        <v>20.1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>130850194100</v>
       </c>
+      <c r="Q80">
+        <v>2447870057000</v>
+      </c>
+      <c r="R80">
+        <v>2317019862900</v>
+      </c>
+      <c r="S80">
+        <v>141436500</v>
+      </c>
+      <c r="T80">
+        <v>145011200</v>
+      </c>
+      <c r="U80">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V80">
+        <v>38153573950</v>
+      </c>
+      <c r="W80">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X80">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y80">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z80">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA80">
+        <v>46849.1</v>
+      </c>
+      <c r="AB80">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC80">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>127124415300</v>
       </c>
+      <c r="Q81">
+        <v>2475562175900</v>
+      </c>
+      <c r="R81">
+        <v>2348437760600</v>
+      </c>
+      <c r="S81">
+        <v>142946900</v>
+      </c>
+      <c r="T81">
+        <v>146932900</v>
+      </c>
+      <c r="U81">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V81">
+        <v>38153573950</v>
+      </c>
+      <c r="W81">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X81">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y81">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z81">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA81">
+        <v>46849.1</v>
+      </c>
+      <c r="AB81">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC81">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>120678627800</v>
       </c>
+      <c r="Q82">
+        <v>2498812003700</v>
+      </c>
+      <c r="R82">
+        <v>2378133375900</v>
+      </c>
+      <c r="S82">
+        <v>144287400</v>
+      </c>
+      <c r="T82">
+        <v>148591500</v>
+      </c>
+      <c r="U82">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V82">
+        <v>38153573950</v>
+      </c>
+      <c r="W82">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X82">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y82">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z82">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA82">
+        <v>46849.1</v>
+      </c>
+      <c r="AB82">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC82">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>113205824000</v>
       </c>
+      <c r="Q83">
+        <v>2520588260700</v>
+      </c>
+      <c r="R83">
+        <v>2407382436700</v>
+      </c>
+      <c r="S83">
+        <v>145445500</v>
+      </c>
+      <c r="T83">
+        <v>150586600</v>
+      </c>
+      <c r="U83">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V83">
+        <v>38153573950</v>
+      </c>
+      <c r="W83">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X83">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y83">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z83">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA83">
+        <v>46849.1</v>
+      </c>
+      <c r="AB83">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC83">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>97581414200</v>
       </c>
+      <c r="Q84">
+        <v>2545329900900</v>
+      </c>
+      <c r="R84">
+        <v>2447748486700</v>
+      </c>
+      <c r="S84">
+        <v>146839300</v>
+      </c>
+      <c r="T84">
+        <v>153089300</v>
+      </c>
+      <c r="U84">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V84">
+        <v>38153573950</v>
+      </c>
+      <c r="W84">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X84">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y84">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z84">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA84">
+        <v>46849.1</v>
+      </c>
+      <c r="AB84">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC84">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>69188175300</v>
       </c>
+      <c r="Q85">
+        <v>2570870156200</v>
+      </c>
+      <c r="R85">
+        <v>2501681980900</v>
+      </c>
+      <c r="S85">
+        <v>148669700</v>
+      </c>
+      <c r="T85">
+        <v>156259400</v>
+      </c>
+      <c r="U85">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V85">
+        <v>38153573950</v>
+      </c>
+      <c r="W85">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X85">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y85">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z85">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA85">
+        <v>46849.1</v>
+      </c>
+      <c r="AB85">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC85">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>74015248400</v>
       </c>
+      <c r="Q86">
+        <v>2613119954100</v>
+      </c>
+      <c r="R86">
+        <v>2539104705700</v>
+      </c>
+      <c r="S86">
+        <v>150974000</v>
+      </c>
+      <c r="T86">
+        <v>158353500</v>
+      </c>
+      <c r="U86">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V86">
+        <v>38153573950</v>
+      </c>
+      <c r="W86">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X86">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y86">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z86">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA86">
+        <v>46849.1</v>
+      </c>
+      <c r="AB86">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC86">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>78001263800</v>
       </c>
+      <c r="Q87">
+        <v>2641909577400</v>
+      </c>
+      <c r="R87">
+        <v>2563908313600</v>
+      </c>
+      <c r="S87">
+        <v>152766700</v>
+      </c>
+      <c r="T87">
+        <v>159754300</v>
+      </c>
+      <c r="U87">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V87">
+        <v>38153573950</v>
+      </c>
+      <c r="W87">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X87">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y87">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z87">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA87">
+        <v>46849.1</v>
+      </c>
+      <c r="AB87">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC87">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>103523876100</v>
       </c>
+      <c r="Q88">
+        <v>2683122861400</v>
+      </c>
+      <c r="R88">
+        <v>2579598985300</v>
+      </c>
+      <c r="S88">
+        <v>155296800</v>
+      </c>
+      <c r="T88">
+        <v>160764400</v>
+      </c>
+      <c r="U88">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V88">
+        <v>38153573950</v>
+      </c>
+      <c r="W88">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X88">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y88">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z88">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA88">
+        <v>46849.1</v>
+      </c>
+      <c r="AB88">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC88">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>121925422200</v>
       </c>
+      <c r="Q89">
+        <v>2719929618200</v>
+      </c>
+      <c r="R89">
+        <v>2598004196000</v>
+      </c>
+      <c r="S89">
+        <v>158006600</v>
+      </c>
+      <c r="T89">
+        <v>162063400</v>
+      </c>
+      <c r="U89">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V89">
+        <v>38153573950</v>
+      </c>
+      <c r="W89">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X89">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y89">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z89">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA89">
+        <v>46849.1</v>
+      </c>
+      <c r="AB89">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC89">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>131833249000</v>
       </c>
+      <c r="Q90">
+        <v>2763262342200</v>
+      </c>
+      <c r="R90">
+        <v>2631429093200</v>
+      </c>
+      <c r="S90">
+        <v>160560900</v>
+      </c>
+      <c r="T90">
+        <v>164225300</v>
+      </c>
+      <c r="U90">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V90">
+        <v>38153573950</v>
+      </c>
+      <c r="W90">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X90">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y90">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z90">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA90">
+        <v>46849.1</v>
+      </c>
+      <c r="AB90">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC90">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>147336240200</v>
       </c>
+      <c r="Q91">
+        <v>2805011278600</v>
+      </c>
+      <c r="R91">
+        <v>2657675038400</v>
+      </c>
+      <c r="S91">
+        <v>163314700</v>
+      </c>
+      <c r="T91">
+        <v>165925300</v>
+      </c>
+      <c r="U91">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V91">
+        <v>38153573950</v>
+      </c>
+      <c r="W91">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X91">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y91">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z91">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA91">
+        <v>46849.1</v>
+      </c>
+      <c r="AB91">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC91">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>144301161900</v>
       </c>
+      <c r="Q92">
+        <v>2850125907300</v>
+      </c>
+      <c r="R92">
+        <v>2705824745400</v>
+      </c>
+      <c r="S92">
+        <v>166391600</v>
+      </c>
+      <c r="T92">
+        <v>168334100</v>
+      </c>
+      <c r="U92">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V92">
+        <v>38153573950</v>
+      </c>
+      <c r="W92">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X92">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y92">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z92">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA92">
+        <v>46849.1</v>
+      </c>
+      <c r="AB92">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC92">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>113693319100</v>
       </c>
+      <c r="Q93">
+        <v>2876450622500</v>
+      </c>
+      <c r="R93">
+        <v>2762757303400</v>
+      </c>
+      <c r="S93">
+        <v>168182500</v>
+      </c>
+      <c r="T93">
+        <v>172069800</v>
+      </c>
+      <c r="U93">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V93">
+        <v>38153573950</v>
+      </c>
+      <c r="W93">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X93">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y93">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z93">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA93">
+        <v>46849.1</v>
+      </c>
+      <c r="AB93">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC93">
+        <v>17.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>56501393000</v>
       </c>
+      <c r="Q94">
+        <v>2901999072900</v>
+      </c>
+      <c r="R94">
+        <v>2845497679900</v>
+      </c>
+      <c r="S94">
+        <v>170039200</v>
+      </c>
+      <c r="T94">
+        <v>177024000</v>
+      </c>
+      <c r="U94">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V94">
+        <v>38153573950</v>
+      </c>
+      <c r="W94">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X94">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y94">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z94">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA94">
+        <v>46849.1</v>
+      </c>
+      <c r="AB94">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC94">
+        <v>32.4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-2612072600</v>
       </c>
+      <c r="Q95">
+        <v>2940673712100</v>
+      </c>
+      <c r="R95">
+        <v>2943285784700</v>
+      </c>
+      <c r="S95">
+        <v>172183100</v>
+      </c>
+      <c r="T95">
+        <v>184522000</v>
+      </c>
+      <c r="U95">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V95">
+        <v>38153573950</v>
+      </c>
+      <c r="W95">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X95">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y95">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z95">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA95">
+        <v>46849.1</v>
+      </c>
+      <c r="AB95">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC95">
+        <v>33.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-5140175300</v>
       </c>
+      <c r="Q96">
+        <v>2983984598200</v>
+      </c>
+      <c r="R96">
+        <v>2989124773500</v>
+      </c>
+      <c r="S96">
+        <v>175529700</v>
+      </c>
+      <c r="T96">
+        <v>187413400</v>
+      </c>
+      <c r="U96">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V96">
+        <v>38153573950</v>
+      </c>
+      <c r="W96">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X96">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y96">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z96">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA96">
+        <v>46849.1</v>
+      </c>
+      <c r="AB96">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC96">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-1747979600</v>
       </c>
+      <c r="Q97">
+        <v>3015637438900</v>
+      </c>
+      <c r="R97">
+        <v>3017385418500</v>
+      </c>
+      <c r="S97">
+        <v>177627600</v>
+      </c>
+      <c r="T97">
+        <v>189157800</v>
+      </c>
+      <c r="U97">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V97">
+        <v>38153573950</v>
+      </c>
+      <c r="W97">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X97">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y97">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z97">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA97">
+        <v>46849.1</v>
+      </c>
+      <c r="AB97">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC97">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>17810567100</v>
       </c>
+      <c r="Q98">
+        <v>3058875409800</v>
+      </c>
+      <c r="R98">
+        <v>3041064842700</v>
+      </c>
+      <c r="S98">
+        <v>180212000</v>
+      </c>
+      <c r="T98">
+        <v>190669100</v>
+      </c>
+      <c r="U98">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V98">
+        <v>38153573950</v>
+      </c>
+      <c r="W98">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X98">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y98">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z98">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA98">
+        <v>46849.1</v>
+      </c>
+      <c r="AB98">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC98">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>11977013900</v>
       </c>
+      <c r="Q99">
+        <v>3081999342600</v>
+      </c>
+      <c r="R99">
+        <v>3070022328700</v>
+      </c>
+      <c r="S99">
+        <v>181676600</v>
+      </c>
+      <c r="T99">
+        <v>192402900</v>
+      </c>
+      <c r="U99">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V99">
+        <v>38153573950</v>
+      </c>
+      <c r="W99">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X99">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y99">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z99">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA99">
+        <v>46849.1</v>
+      </c>
+      <c r="AB99">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC99">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>27646742700</v>
       </c>
+      <c r="Q100">
+        <v>3117691191000</v>
+      </c>
+      <c r="R100">
+        <v>3090044448300</v>
+      </c>
+      <c r="S100">
+        <v>183714900</v>
+      </c>
+      <c r="T100">
+        <v>193622800</v>
+      </c>
+      <c r="U100">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V100">
+        <v>38153573950</v>
+      </c>
+      <c r="W100">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X100">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y100">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z100">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA100">
+        <v>46849.1</v>
+      </c>
+      <c r="AB100">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC100">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>54156258700</v>
       </c>
+      <c r="Q101">
+        <v>3166512376500</v>
+      </c>
+      <c r="R101">
+        <v>3112356117800</v>
+      </c>
+      <c r="S101">
+        <v>186576500</v>
+      </c>
+      <c r="T101">
+        <v>195132000</v>
+      </c>
+      <c r="U101">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V101">
+        <v>38153573950</v>
+      </c>
+      <c r="W101">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X101">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y101">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z101">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA101">
+        <v>46849.1</v>
+      </c>
+      <c r="AB101">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC101">
+        <v>15</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>73045840500</v>
       </c>
+      <c r="Q102">
+        <v>3214109932700</v>
+      </c>
+      <c r="R102">
+        <v>3141064092200</v>
+      </c>
+      <c r="S102">
+        <v>189523800</v>
+      </c>
+      <c r="T102">
+        <v>196636400</v>
+      </c>
+      <c r="U102">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V102">
+        <v>38153573950</v>
+      </c>
+      <c r="W102">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X102">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y102">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z102">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA102">
+        <v>46849.1</v>
+      </c>
+      <c r="AB102">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC102">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>69617087900</v>
       </c>
+      <c r="Q103">
+        <v>3254860862900</v>
+      </c>
+      <c r="R103">
+        <v>3185243775000</v>
+      </c>
+      <c r="S103">
+        <v>191776100</v>
+      </c>
+      <c r="T103">
+        <v>199126800</v>
+      </c>
+      <c r="U103">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V103">
+        <v>38153573950</v>
+      </c>
+      <c r="W103">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X103">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y103">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z103">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA103">
+        <v>46849.1</v>
+      </c>
+      <c r="AB103">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC103">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-12454875300</v>
       </c>
+      <c r="Q104">
+        <v>3280522872200</v>
+      </c>
+      <c r="R104">
+        <v>3292977747500</v>
+      </c>
+      <c r="S104">
+        <v>193252000</v>
+      </c>
+      <c r="T104">
+        <v>205129700</v>
+      </c>
+      <c r="U104">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V104">
+        <v>38153573950</v>
+      </c>
+      <c r="W104">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X104">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y104">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z104">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA104">
+        <v>46849.1</v>
+      </c>
+      <c r="AB104">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC104">
+        <v>46.5</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-78749890600</v>
       </c>
+      <c r="Q105">
+        <v>3311798753600</v>
+      </c>
+      <c r="R105">
+        <v>3390548644200</v>
+      </c>
+      <c r="S105">
+        <v>194948000</v>
+      </c>
+      <c r="T105">
+        <v>210732100</v>
+      </c>
+      <c r="U105">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V105">
+        <v>38153573950</v>
+      </c>
+      <c r="W105">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X105">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y105">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z105">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA105">
+        <v>46849.1</v>
+      </c>
+      <c r="AB105">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC105">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-125786625600</v>
       </c>
+      <c r="Q106">
+        <v>3358856430100</v>
+      </c>
+      <c r="R106">
+        <v>3484643055700</v>
+      </c>
+      <c r="S106">
+        <v>197249200</v>
+      </c>
+      <c r="T106">
+        <v>216064400</v>
+      </c>
+      <c r="U106">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V106">
+        <v>38153573950</v>
+      </c>
+      <c r="W106">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X106">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y106">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z106">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA106">
+        <v>46849.1</v>
+      </c>
+      <c r="AB106">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC106">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-140093731800</v>
       </c>
+      <c r="Q107">
+        <v>3410475465700</v>
+      </c>
+      <c r="R107">
+        <v>3550569197500</v>
+      </c>
+      <c r="S107">
+        <v>200015600</v>
+      </c>
+      <c r="T107">
+        <v>219520700</v>
+      </c>
+      <c r="U107">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V107">
+        <v>38153573950</v>
+      </c>
+      <c r="W107">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X107">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y107">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z107">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA107">
+        <v>46849.1</v>
+      </c>
+      <c r="AB107">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC107">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-61902646000</v>
       </c>
+      <c r="Q108">
+        <v>3561217731300</v>
+      </c>
+      <c r="R108">
+        <v>3623120377300</v>
+      </c>
+      <c r="S108">
+        <v>207136200</v>
+      </c>
+      <c r="T108">
+        <v>222671100</v>
+      </c>
+      <c r="U108">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V108">
+        <v>38153573950</v>
+      </c>
+      <c r="W108">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X108">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y108">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z108">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA108">
+        <v>46849.1</v>
+      </c>
+      <c r="AB108">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC108">
+        <v>44.3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>23929402200</v>
       </c>
+      <c r="Q109">
+        <v>3713799696500</v>
+      </c>
+      <c r="R109">
+        <v>3689870294300</v>
+      </c>
+      <c r="S109">
+        <v>214879600</v>
+      </c>
+      <c r="T109">
+        <v>225295600</v>
+      </c>
+      <c r="U109">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V109">
+        <v>38153573950</v>
+      </c>
+      <c r="W109">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X109">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y109">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z109">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA109">
+        <v>46849.1</v>
+      </c>
+      <c r="AB109">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC109">
+        <v>48.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>89633741100</v>
       </c>
+      <c r="Q110">
+        <v>3874517550700</v>
+      </c>
+      <c r="R110">
+        <v>3784883809600</v>
+      </c>
+      <c r="S110">
+        <v>223498200</v>
+      </c>
+      <c r="T110">
+        <v>229366400</v>
+      </c>
+      <c r="U110">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V110">
+        <v>38153573950</v>
+      </c>
+      <c r="W110">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X110">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y110">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z110">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA110">
+        <v>46849.1</v>
+      </c>
+      <c r="AB110">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC110">
+        <v>37.2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>89880716600</v>
       </c>
+      <c r="Q111">
+        <v>3980345239200</v>
+      </c>
+      <c r="R111">
+        <v>3890464522600</v>
+      </c>
+      <c r="S111">
+        <v>229439900</v>
+      </c>
+      <c r="T111">
+        <v>234005900</v>
+      </c>
+      <c r="U111">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V111">
+        <v>38153573950</v>
+      </c>
+      <c r="W111">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X111">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y111">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z111">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA111">
+        <v>46849.1</v>
+      </c>
+      <c r="AB111">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC111">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>95207356900</v>
       </c>
+      <c r="Q112">
+        <v>4081375469900</v>
+      </c>
+      <c r="R112">
+        <v>3986168113000</v>
+      </c>
+      <c r="S112">
+        <v>235243400</v>
+      </c>
+      <c r="T112">
+        <v>238354000</v>
+      </c>
+      <c r="U112">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V112">
+        <v>38153573950</v>
+      </c>
+      <c r="W112">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X112">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y112">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z112">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA112">
+        <v>46849.1</v>
+      </c>
+      <c r="AB112">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC112">
+        <v>3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>108894205700</v>
       </c>
+      <c r="Q113">
+        <v>4197230834200</v>
+      </c>
+      <c r="R113">
+        <v>4088336628500</v>
+      </c>
+      <c r="S113">
+        <v>241227500</v>
+      </c>
+      <c r="T113">
+        <v>243114000</v>
+      </c>
+      <c r="U113">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V113">
+        <v>38153573950</v>
+      </c>
+      <c r="W113">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X113">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y113">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z113">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA113">
+        <v>46849.1</v>
+      </c>
+      <c r="AB113">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC113">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>105022992800</v>
       </c>
+      <c r="Q114">
+        <v>4310723770100</v>
+      </c>
+      <c r="R114">
+        <v>4205700777300</v>
+      </c>
+      <c r="S114">
+        <v>247129000</v>
+      </c>
+      <c r="T114">
+        <v>249243800</v>
+      </c>
+      <c r="U114">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V114">
+        <v>38153573950</v>
+      </c>
+      <c r="W114">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X114">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y114">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z114">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA114">
+        <v>46849.1</v>
+      </c>
+      <c r="AB114">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC114">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>112746627800</v>
       </c>
+      <c r="Q115">
+        <v>4425282597200</v>
+      </c>
+      <c r="R115">
+        <v>4312535969400</v>
+      </c>
+      <c r="S115">
+        <v>253952200</v>
+      </c>
+      <c r="T115">
+        <v>255329300</v>
+      </c>
+      <c r="U115">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V115">
+        <v>38153573950</v>
+      </c>
+      <c r="W115">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X115">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y115">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z115">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA115">
+        <v>46849.1</v>
+      </c>
+      <c r="AB115">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC115">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>113604591200</v>
       </c>
+      <c r="Q116">
+        <v>4426191552200</v>
+      </c>
+      <c r="R116">
+        <v>4312586961000</v>
+      </c>
+      <c r="S116">
+        <v>253996300</v>
+      </c>
+      <c r="T116">
+        <v>255333300</v>
+      </c>
+      <c r="U116">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V116">
+        <v>38153573950</v>
+      </c>
+      <c r="W116">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X116">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y116">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z116">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA116">
+        <v>46849.1</v>
+      </c>
+      <c r="AB116">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC116">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>204898756000</v>
       </c>
+      <c r="Q117">
+        <v>4630713334200</v>
+      </c>
+      <c r="R117">
+        <v>4425814578200</v>
+      </c>
+      <c r="S117">
+        <v>266386600</v>
+      </c>
+      <c r="T117">
+        <v>260952100</v>
+      </c>
+      <c r="U117">
+        <v>39919942536.2</v>
+      </c>
+      <c r="V117">
+        <v>38153573950</v>
+      </c>
+      <c r="W117">
+        <v>81797876187.1</v>
+      </c>
+      <c r="X117">
+        <v>4766669.8</v>
+      </c>
+      <c r="Y117">
+        <v>2296436.2</v>
+      </c>
+      <c r="Z117">
+        <v>2249587.1</v>
+      </c>
+      <c r="AA117">
+        <v>46849.1</v>
+      </c>
+      <c r="AB117">
+        <v>1766368586.2</v>
+      </c>
+      <c r="AC117">
+        <v>51.7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>